--- a/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
+++ b/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\esg-questionnaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\dataland_alternative\dataland-framework-toolbox\inputs\esg-datenkatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FFDB0-B6F9-4110-BE93-902E9C7E257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3437EDE1-0253-4BA6-84FC-2CD47118645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-10800" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$150</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="530">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -94,21 +94,12 @@
     <t>Mandatory Field</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
     <t>Master Data</t>
   </si>
   <si>
-    <t>Berichtspflicht und Einwilligung zur Veröffentlichung</t>
-  </si>
-  <si>
-    <t>Ist das Unternehmen berichtspflichtig im Rahmen der CSRD-Richtlinie bzw. ist es gemäß den Offenlegungspflichten der Artikel 19a und 29a der Richtilinie 2023/34/EU zur Nachhaltigkeitsberichtserstattung verpflichtet? Ist das Unternehmen außerdem mit einer Veröffentlichung des Datensatzes auf Dataland einverstanden? Anderenfalls ist eine Dateneineingabe nicht möglich.</t>
-  </si>
-  <si>
     <t>Yes/No</t>
   </si>
   <si>
@@ -688,27 +679,6 @@
     <t>EMAS</t>
   </si>
   <si>
-    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine EMAS Zertifizierung? Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
-  </si>
-  <si>
-    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 14001 Zertifizierung? Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
-  </si>
-  <si>
-    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 45001 Zertifizierung? Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
-  </si>
-  <si>
-    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 27001 Zertifizierung? Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
-  </si>
-  <si>
-    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 14040 Zertifizierung in Verbindung mit einer ISO 14044 Zertifizierung? Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
-  </si>
-  <si>
-    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 50001 Zertifizierung? Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
-  </si>
-  <si>
-    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 14064 Zertifizierung? Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
-  </si>
-  <si>
     <t>Hat das Unternehmen eine ISO 14001 Zertifizierung?</t>
   </si>
   <si>
@@ -745,9 +715,6 @@
     <t>12.2</t>
   </si>
   <si>
-    <t>UN SGDs</t>
-  </si>
-  <si>
     <t>Ausrichtung nach den UN SDGs und aktives Verfolgen</t>
   </si>
   <si>
@@ -1117,9 +1084,6 @@
     <t>Maßnahmen zur Reduzierung von sozialen Risiken</t>
   </si>
   <si>
-    <t>Welche Maßnahmen hat das Unternehmen zur Reduzierung dieser sozialen Risiken getroffen, außer der in Frage 5.1 genannten Richtlinien?</t>
-  </si>
-  <si>
     <t>Governance</t>
   </si>
   <si>
@@ -1199,9 +1163,6 @@
   </si>
   <si>
     <t>Maßnahmen zur Reduzierung von Governance-Risiken</t>
-  </si>
-  <si>
-    <t>Welche Maßnahmen hat das Unternehmen zur Reduzierung dieser governance-bezogenen Risiken getroffen, außer der in Frage 5.1 genannten Richtlinien?</t>
   </si>
   <si>
     <t>40.1.3</t>
@@ -1625,6 +1586,66 @@
   </si>
   <si>
     <t>Skizzierung des CSRD-konformen Prozesses zur Berücksichtigung der Stakeholderinteressen</t>
+  </si>
+  <si>
+    <t>UN SDGs</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 14001 Zertifizierung (Internationaler Standard für betriebliches Umweltmanagement)? Optional: Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 45001 Zertifizierung (Internationaler Standard für Arbeitssicherheit)? Optional: Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 27001 Zertifizierung (Internationaler Standard für Datensicherheit)? Optional: Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 50001 Zertifizierung (Energiemanagementsystem)? Optional: Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 14040 Zertifizierung in Verbindung mit einer ISO 14044 Zertifizierung (ISO 14040 i.V.m. 14044 Internationaler Standard für Ökobilanzierung)? Optional: Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine ISO 14064 Zertifizierung (Internationaler Standard für Treibhausgasbilanzierung und Verifizierung)? Optional: Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen oder seine wesentlichen Produktionsstandorte eine EMAS Zertifizierung (Eco-Management and Audit Scheme, Europäisches Umweltmanagementsystem)? Optional: Bitte teilen Sie das entsprechende Zertifikat mit uns.</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Geben Sie den prozentualen Anteil der taxonomiekonformen Umsätze an.</t>
+  </si>
+  <si>
+    <t>Geben Sie den prozentualen Anteil der taxonomiefähigen Umsätze an.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>Anteil Taxonomiefähiger Umsatz</t>
+  </si>
+  <si>
+    <t>Anteil Taxonomiekonformer Umsatz</t>
+  </si>
+  <si>
+    <t>Anteil Taxonomiefähiger CapEx</t>
+  </si>
+  <si>
+    <t>Anteil Taxonomiekonformer CapEx</t>
+  </si>
+  <si>
+    <t>Welche Maßnahmen hat das Unternehmen zur Reduzierung dieser sozialen Risiken getroffen, außer der bereits zuvor abgefragten Richtlinien?</t>
+  </si>
+  <si>
+    <t>Welche Maßnahmen hat das Unternehmen zur Reduzierung dieser governance-bezogenen Risiken getroffen, außer der bereits zuvor abgefragten Richtlinien?</t>
   </si>
 </sst>
 </file>
@@ -2539,28 +2560,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="1"/>
-    <col min="2" max="2" width="18.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="122.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="85.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.54296875" style="2"/>
-    <col min="11" max="11" width="12.54296875" style="1"/>
-    <col min="12" max="16384" width="12.54296875" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="1"/>
+    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="122.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" style="2"/>
+    <col min="11" max="11" width="12.5703125" style="1"/>
+    <col min="12" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2601,436 +2622,426 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>17</v>
+      <c r="D2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="13"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>20</v>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="30" t="s">
         <v>22</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>505</v>
-      </c>
       <c r="E4" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
       <c r="K4" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>26</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>98</v>
+        <v>494</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="K5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="17" t="s">
-        <v>24</v>
+      <c r="K6" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>101</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>107</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J9" s="12"/>
-      <c r="K9" s="17" t="s">
-        <v>28</v>
+      <c r="K9" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="29" t="s">
-        <v>73</v>
+      <c r="G11" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>137</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>183</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>95</v>
+        <v>477</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>116</v>
@@ -3040,4268 +3051,3973 @@
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I16" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>122</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>123</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>124</v>
+    <row r="18" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>518</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>125</v>
+        <v>477</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>521</v>
       </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G18" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="102"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="102"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>132</v>
+      <c r="E20" s="47" t="s">
+        <v>123</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J21" s="12"/>
-      <c r="K21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>509</v>
+        <v>477</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>25</v>
+        <v>137</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D23" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="102"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="102"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="B25" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="28"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
-        <v>150</v>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="28"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="23" t="s">
-        <v>148</v>
+      <c r="K26" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>153</v>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="28"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="23" t="s">
-        <v>148</v>
+      <c r="K27" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>174</v>
+        <v>477</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="20" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="28"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="23"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="47" t="s">
         <v>148</v>
-      </c>
-      <c r="L28" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>157</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="20" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="28"/>
       <c r="J29" s="12"/>
       <c r="K29" s="23" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="28"/>
       <c r="J30" s="12"/>
       <c r="K30" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="B31" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="28"/>
       <c r="J31" s="12"/>
       <c r="K31" s="23" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="20" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="28"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="20" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="28"/>
       <c r="J33" s="12"/>
       <c r="K33" s="23" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="28"/>
       <c r="J34" s="12"/>
       <c r="K34" s="23" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="28"/>
       <c r="J35" s="12"/>
       <c r="K35" s="23" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="20" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="28"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="23"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="47" t="s">
         <v>164</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>189</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="20" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="28"/>
       <c r="J37" s="12"/>
       <c r="K37" s="23" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>185</v>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>190</v>
+        <v>477</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="28"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="17" t="s">
-        <v>184</v>
+      <c r="K38" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>186</v>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>192</v>
+        <v>477</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="28"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="17" t="s">
-        <v>184</v>
+      <c r="K39" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="20" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="28"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="26"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>25</v>
+        <v>182</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="15" t="s">
-        <v>18</v>
+        <v>187</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="12"/>
       <c r="K41" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>19</v>
+        <v>181</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>25</v>
+        <v>183</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="15" t="s">
-        <v>67</v>
+        <v>189</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="12"/>
       <c r="K42" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>19</v>
+        <v>181</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
+        <v>184</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="15" t="s">
-        <v>67</v>
+        <v>190</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="15"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="12"/>
       <c r="K43" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>19</v>
+        <v>181</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K44" s="17" t="s">
+      <c r="J44" s="12"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A45" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="E45" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
       <c r="K45" s="17" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A46" s="34" t="s">
-        <v>49</v>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="D46" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
-        <v>204</v>
-      </c>
       <c r="B48" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>216</v>
+        <v>511</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K48" s="17"/>
+      <c r="L48" s="12"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>215</v>
+        <v>512</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="17"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A50" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>208</v>
-      </c>
       <c r="E50" s="33" t="s">
-        <v>217</v>
+        <v>513</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K50" s="17"/>
+      <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="E51" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="G51" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>225</v>
+        <v>478</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="10"/>
+        <v>515</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>212</v>
+      </c>
       <c r="G52" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="J52" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="17"/>
+      <c r="L52" s="12"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>225</v>
+        <v>478</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>227</v>
+        <v>205</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>516</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="J53" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="12"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>225</v>
+        <v>478</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="36" t="s">
-        <v>47</v>
+        <v>207</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>517</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>27</v>
+        <v>214</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="J54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="12"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F55" s="10"/>
-      <c r="G55" s="21" t="s">
-        <v>18</v>
+      <c r="G55" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M55" s="25"/>
-    </row>
-    <row r="56" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+      <c r="J55" s="15"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>510</v>
+        <v>217</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
       <c r="J56" s="15"/>
       <c r="K56" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+    </row>
+    <row r="59" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E59" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="L59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M57" s="12"/>
-    </row>
-    <row r="58" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A58" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M58" s="12"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M59" s="12"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="D60" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="F60" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="G60" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="12"/>
       <c r="K60" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>492</v>
+        <v>510</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>239</v>
+        <v>54</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K61" s="17"/>
+      <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="I62" s="11"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K62" s="17"/>
+      <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="15" t="s">
-        <v>18</v>
+        <v>221</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K63" s="17"/>
+      <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="29" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K64" s="17"/>
+      <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="15" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="12"/>
       <c r="K65" s="17" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="29" t="s">
-        <v>27</v>
+        <v>230</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="12"/>
-      <c r="K66" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K66" s="17"/>
+      <c r="L66" s="12"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>251</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="12"/>
       <c r="K67" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>251</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K68" s="17"/>
+      <c r="L68" s="12"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" ht="51" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>255</v>
+        <v>257</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>239</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="41"/>
+        <v>243</v>
+      </c>
+      <c r="F70" s="10"/>
       <c r="G70" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I70" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J70" s="12"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F71" s="41"/>
+      <c r="G71" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J71" s="12"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+    </row>
+    <row r="72" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J72" s="12"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="J70" s="12"/>
-      <c r="K70" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M70" s="12"/>
-    </row>
-    <row r="71" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A71" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J71" s="12"/>
-      <c r="K71" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M71" s="12"/>
-    </row>
-    <row r="72" spans="1:13" ht="51" x14ac:dyDescent="0.35">
-      <c r="A72" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J72" s="12"/>
-      <c r="K72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M72" s="12"/>
-    </row>
-    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.35">
-      <c r="A73" s="34" t="s">
-        <v>267</v>
-      </c>
       <c r="B73" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>270</v>
+        <v>244</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="F73" s="41"/>
-      <c r="G73" s="29" t="s">
-        <v>73</v>
+      <c r="G73" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="J73" s="12"/>
-      <c r="K73" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K73" s="17"/>
+      <c r="L73" s="12"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="F74" s="27"/>
+        <v>252</v>
+      </c>
+      <c r="F74" s="41"/>
       <c r="G74" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="J74" s="12"/>
-      <c r="K74" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K74" s="17"/>
+      <c r="L74" s="12"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F75" s="41"/>
       <c r="G75" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="J75" s="12"/>
-      <c r="K75" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K75" s="17"/>
+      <c r="L75" s="12"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>280</v>
+        <v>258</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="F76" s="41"/>
       <c r="G76" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="J76" s="12"/>
-      <c r="K76" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K76" s="17"/>
+      <c r="L76" s="12"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="J77" s="12"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+    </row>
+    <row r="78" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="F77" s="41"/>
-      <c r="G77" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M77" s="12"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" s="34" t="s">
-        <v>83</v>
-      </c>
       <c r="B78" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="F78" s="41"/>
       <c r="G78" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J78" s="12"/>
-      <c r="K78" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K78" s="17"/>
+      <c r="L78" s="12"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F79" s="27"/>
+        <v>268</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F79" s="41"/>
       <c r="G79" s="29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="12"/>
-      <c r="K79" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L79" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K79" s="17"/>
+      <c r="L79" s="12"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J80" s="12"/>
-      <c r="K80" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="12"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="105" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F81" s="41"/>
       <c r="G81" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="J81" s="12"/>
-      <c r="K81" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K81" s="17"/>
+      <c r="L81" s="12"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="105" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="F82" s="41"/>
+        <v>276</v>
+      </c>
+      <c r="F82" s="27"/>
       <c r="G82" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="12"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="105" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F83" s="41"/>
       <c r="G83" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="J83" s="12"/>
-      <c r="K83" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K83" s="17"/>
+      <c r="L83" s="12"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C84" s="105" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="F84" s="27"/>
+        <v>281</v>
+      </c>
+      <c r="F84" s="41"/>
       <c r="G84" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K84" s="17"/>
+      <c r="L84" s="12"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C85" s="105" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F85" s="41"/>
       <c r="G85" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="11"/>
+      <c r="H85" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="I85" s="11"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L85" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K85" s="17"/>
+      <c r="L85" s="12"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C86" s="105" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F86" s="41"/>
       <c r="G86" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L86" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K86" s="17"/>
+      <c r="L86" s="12"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C87" s="105" t="s">
-        <v>398</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="E87" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="F87" s="41"/>
+        <v>385</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="27"/>
       <c r="G87" s="29" t="s">
-        <v>27</v>
+        <v>403</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K87" s="17"/>
+      <c r="L87" s="12"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C88" s="105" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>408</v>
+        <v>292</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="12"/>
       <c r="K88" s="17" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C89" s="105" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="F89" s="41"/>
       <c r="G89" s="29" t="s">
-        <v>27</v>
+        <v>403</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="12"/>
       <c r="K89" s="17" t="s">
-        <v>403</v>
+        <v>84</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="34" t="s">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C90" s="105" t="s">
-        <v>398</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>411</v>
+        <v>385</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" s="56" t="s">
+        <v>391</v>
       </c>
       <c r="F90" s="41"/>
       <c r="G90" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="J90" s="12"/>
       <c r="K90" s="17" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A91" s="63" t="s">
-        <v>412</v>
-      </c>
-      <c r="B91" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="61" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="105" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F91" s="41"/>
+      <c r="G91" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+    </row>
+    <row r="92" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="105" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F92" s="41"/>
+      <c r="G92" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="12"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="105" t="s">
+        <v>385</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="E93" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="F93" s="41"/>
+      <c r="G93" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K93" s="17"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+    </row>
+    <row r="94" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="B94" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="F94" s="57"/>
+      <c r="G94" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="62"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+    </row>
+    <row r="95" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="F91" s="57"/>
-      <c r="G91" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="L91" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M91" s="59"/>
-    </row>
-    <row r="92" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A92" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="B92" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="D92" s="40" t="s">
+      <c r="B95" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="F95" s="57"/>
+      <c r="G95" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="62"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="E92" s="39" t="s">
+      <c r="E96" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="F92" s="57"/>
-      <c r="G92" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="L92" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M92" s="59"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" s="73" t="s">
+      <c r="F96" s="66"/>
+      <c r="G96" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="68"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="F97" s="66"/>
+      <c r="G97" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="68"/>
+      <c r="K97" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="L97" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="M97" s="68"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="B93" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="D93" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="E93" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="69" t="s">
-        <v>416</v>
-      </c>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="L93" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="M93" s="68"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="B94" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="D94" s="40" t="s">
-        <v>513</v>
-      </c>
-      <c r="E94" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="F94" s="66"/>
-      <c r="G94" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="71" t="s">
-        <v>418</v>
-      </c>
-      <c r="L94" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="M94" s="68"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95" s="63" t="s">
-        <v>431</v>
-      </c>
-      <c r="B95" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="D95" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="E95" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F95" s="74"/>
-      <c r="G95" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="H95" s="75"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="76"/>
-      <c r="K95" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="L95" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="M95" s="76"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A96" s="63" t="s">
-        <v>429</v>
-      </c>
-      <c r="B96" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="D96" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="E96" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="F96" s="74"/>
-      <c r="G96" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="76"/>
-      <c r="K96" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="L96" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="M96" s="76"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A97" s="63" t="s">
-        <v>430</v>
-      </c>
-      <c r="B97" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="D97" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="E97" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="F97" s="74"/>
-      <c r="G97" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="H97" s="75"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="L97" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="M97" s="76"/>
-    </row>
-    <row r="98" spans="1:13" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="63" t="s">
-        <v>428</v>
-      </c>
       <c r="B98" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C98" s="78" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="F98" s="74"/>
       <c r="G98" s="77" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="H98" s="75"/>
       <c r="I98" s="75"/>
       <c r="J98" s="76"/>
-      <c r="K98" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="L98" s="76" t="s">
-        <v>19</v>
-      </c>
+      <c r="K98" s="79"/>
+      <c r="L98" s="76"/>
       <c r="M98" s="76"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A99" s="73" t="s">
-        <v>434</v>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="63" t="s">
+        <v>416</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" s="84" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C99" s="78" t="s">
+        <v>385</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="F99" s="80"/>
-      <c r="G99" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" s="81"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="82"/>
-      <c r="K99" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="L99" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M99" s="82"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100" s="73" t="s">
-        <v>435</v>
+        <v>410</v>
+      </c>
+      <c r="F99" s="74"/>
+      <c r="G99" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="76"/>
+      <c r="M99" s="76"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="63" t="s">
+        <v>417</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="84" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C100" s="78" t="s">
+        <v>385</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>514</v>
+        <v>411</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="F100" s="80"/>
-      <c r="G100" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" s="81"/>
-      <c r="I100" s="81"/>
-      <c r="J100" s="82"/>
-      <c r="K100" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="L100" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="M100" s="82"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+      <c r="F100" s="74"/>
+      <c r="G100" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="79"/>
+      <c r="L100" s="76"/>
+      <c r="M100" s="76"/>
+    </row>
+    <row r="101" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A101" s="63" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="90" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C101" s="78" t="s">
+        <v>385</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="F101" s="86"/>
-      <c r="G101" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="H101" s="87"/>
-      <c r="I101" s="87"/>
-      <c r="J101" s="88"/>
-      <c r="K101" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="L101" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="M101" s="12"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102" s="63" t="s">
-        <v>445</v>
+        <v>414</v>
+      </c>
+      <c r="F101" s="74"/>
+      <c r="G101" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="79"/>
+      <c r="L101" s="76"/>
+      <c r="M101" s="76"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="73" t="s">
+        <v>421</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" s="90" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C102" s="84" t="s">
+        <v>385</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="F102" s="86"/>
-      <c r="G102" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="H102" s="87"/>
-      <c r="I102" s="87"/>
-      <c r="J102" s="88"/>
-      <c r="K102" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="L102" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="M102" s="12"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A103" s="63" t="s">
-        <v>446</v>
+        <v>420</v>
+      </c>
+      <c r="F102" s="80"/>
+      <c r="G102" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="81"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="85"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="73" t="s">
+        <v>422</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" s="90" t="s">
-        <v>398</v>
+        <v>74</v>
+      </c>
+      <c r="C103" s="84" t="s">
+        <v>385</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="F103" s="86"/>
-      <c r="G103" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="H103" s="87"/>
-      <c r="I103" s="87"/>
-      <c r="J103" s="88"/>
-      <c r="K103" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="L103" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="M103" s="12"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="F103" s="80"/>
+      <c r="G103" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="82"/>
+      <c r="K103" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="L103" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="82"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C104" s="90" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="F104" s="86"/>
       <c r="G104" s="89" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="H104" s="87"/>
       <c r="I104" s="87"/>
       <c r="J104" s="88"/>
-      <c r="K104" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="L104" s="88" t="s">
-        <v>19</v>
-      </c>
+      <c r="K104" s="91"/>
+      <c r="L104" s="88"/>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" s="73" t="s">
-        <v>457</v>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="63" t="s">
+        <v>432</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105" s="97" t="s">
-        <v>449</v>
+        <v>74</v>
+      </c>
+      <c r="C105" s="90" t="s">
+        <v>385</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="F105" s="93"/>
-      <c r="G105" s="96" t="s">
-        <v>416</v>
-      </c>
-      <c r="H105" s="94"/>
-      <c r="I105" s="94"/>
-      <c r="J105" s="95"/>
-      <c r="K105" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="L105" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="M105" s="95"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" s="73" t="s">
-        <v>458</v>
+        <v>427</v>
+      </c>
+      <c r="F105" s="86"/>
+      <c r="G105" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="H105" s="87"/>
+      <c r="I105" s="87"/>
+      <c r="J105" s="88"/>
+      <c r="K105" s="91"/>
+      <c r="L105" s="88"/>
+      <c r="M105" s="12"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="63" t="s">
+        <v>433</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C106" s="97" t="s">
-        <v>449</v>
+        <v>74</v>
+      </c>
+      <c r="C106" s="90" t="s">
+        <v>385</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="F106" s="93"/>
-      <c r="G106" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H106" s="94"/>
-      <c r="I106" s="94"/>
-      <c r="J106" s="95"/>
-      <c r="K106" s="98" t="s">
-        <v>457</v>
-      </c>
-      <c r="L106" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="M106" s="95"/>
-    </row>
-    <row r="107" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A107" s="73" t="s">
-        <v>459</v>
+        <v>429</v>
+      </c>
+      <c r="F106" s="86"/>
+      <c r="G106" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="H106" s="87"/>
+      <c r="I106" s="87"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="91"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="12"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="63" t="s">
+        <v>434</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" s="97" t="s">
-        <v>449</v>
+        <v>74</v>
+      </c>
+      <c r="C107" s="90" t="s">
+        <v>385</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="H107" s="94"/>
-      <c r="I107" s="94"/>
-      <c r="J107" s="95"/>
-      <c r="K107" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="L107" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="M107" s="95"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+      <c r="F107" s="86"/>
+      <c r="G107" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="87"/>
+      <c r="I107" s="87"/>
+      <c r="J107" s="88"/>
+      <c r="K107" s="91"/>
+      <c r="L107" s="88"/>
+      <c r="M107" s="12"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="73" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C108" s="97" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F108" s="93"/>
       <c r="G108" s="96" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H108" s="94"/>
       <c r="I108" s="94"/>
       <c r="J108" s="95"/>
-      <c r="K108" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="L108" s="95" t="s">
-        <v>19</v>
-      </c>
+      <c r="K108" s="98"/>
+      <c r="L108" s="95"/>
       <c r="M108" s="95"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="73" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C109" s="97" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F109" s="93"/>
       <c r="G109" s="96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H109" s="94"/>
       <c r="I109" s="94"/>
       <c r="J109" s="95"/>
       <c r="K109" s="98" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="L109" s="95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M109" s="95"/>
     </row>
-    <row r="110" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="63" t="s">
-        <v>474</v>
+    <row r="110" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" s="105" t="s">
-        <v>463</v>
+        <v>74</v>
+      </c>
+      <c r="C110" s="97" t="s">
+        <v>436</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>465</v>
-      </c>
-      <c r="F110" s="101"/>
-      <c r="G110" s="104" t="s">
-        <v>416</v>
-      </c>
-      <c r="H110" s="102"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="103"/>
-      <c r="K110" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="L110" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="M110" s="103"/>
-    </row>
-    <row r="111" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="63" t="s">
-        <v>475</v>
+        <v>449</v>
+      </c>
+      <c r="F110" s="93"/>
+      <c r="G110" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="H110" s="94"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="95"/>
+      <c r="K110" s="98"/>
+      <c r="L110" s="95"/>
+      <c r="M110" s="95"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="73" t="s">
+        <v>447</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="105" t="s">
-        <v>463</v>
+        <v>74</v>
+      </c>
+      <c r="C111" s="97" t="s">
+        <v>436</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="F111" s="101"/>
-      <c r="G111" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" s="102"/>
-      <c r="I111" s="102"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="106" t="s">
-        <v>474</v>
-      </c>
-      <c r="L111" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="M111" s="103"/>
-    </row>
-    <row r="112" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="63" t="s">
-        <v>476</v>
+        <v>442</v>
+      </c>
+      <c r="F111" s="93"/>
+      <c r="G111" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="H111" s="94"/>
+      <c r="I111" s="94"/>
+      <c r="J111" s="95"/>
+      <c r="K111" s="98"/>
+      <c r="L111" s="95"/>
+      <c r="M111" s="95"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="73" t="s">
+        <v>448</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="105" t="s">
-        <v>463</v>
+        <v>74</v>
+      </c>
+      <c r="C112" s="97" t="s">
+        <v>436</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="F112" s="101"/>
-      <c r="G112" s="104" t="s">
-        <v>416</v>
-      </c>
-      <c r="H112" s="102"/>
-      <c r="I112" s="102"/>
-      <c r="J112" s="103"/>
-      <c r="K112" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="L112" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="M112" s="103"/>
-    </row>
-    <row r="113" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="F112" s="93"/>
+      <c r="G112" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="95"/>
+      <c r="K112" s="98" t="s">
+        <v>447</v>
+      </c>
+      <c r="L112" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="M112" s="95"/>
+    </row>
+    <row r="113" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C113" s="105" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F113" s="101"/>
       <c r="G113" s="104" t="s">
-        <v>27</v>
+        <v>403</v>
       </c>
       <c r="H113" s="102"/>
       <c r="I113" s="102"/>
       <c r="J113" s="103"/>
-      <c r="K113" s="106" t="s">
-        <v>476</v>
-      </c>
-      <c r="L113" s="103" t="s">
-        <v>19</v>
-      </c>
+      <c r="K113" s="106"/>
+      <c r="L113" s="103"/>
       <c r="M113" s="103"/>
     </row>
-    <row r="114" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C114" s="105" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="F114" s="101"/>
       <c r="G114" s="104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H114" s="102"/>
       <c r="I114" s="102"/>
       <c r="J114" s="103"/>
       <c r="K114" s="106" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="L114" s="103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M114" s="103"/>
     </row>
-    <row r="115" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C115" s="105" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="F115" s="101"/>
       <c r="G115" s="104" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H115" s="102"/>
       <c r="I115" s="102"/>
       <c r="J115" s="103"/>
-      <c r="K115" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="L115" s="103" t="s">
-        <v>19</v>
-      </c>
+      <c r="K115" s="106"/>
+      <c r="L115" s="103"/>
       <c r="M115" s="103"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C116" s="105" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="F116" s="101"/>
       <c r="G116" s="104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H116" s="102"/>
       <c r="I116" s="102"/>
       <c r="J116" s="103"/>
       <c r="K116" s="106" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="L116" s="103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M116" s="103"/>
     </row>
-    <row r="117" spans="1:13" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="B117" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D117" s="110" t="s">
-        <v>312</v>
-      </c>
-      <c r="E117" s="111" t="s">
-        <v>313</v>
-      </c>
-      <c r="F117" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="G117" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="H117" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="I117" s="51"/>
-      <c r="J117" s="52"/>
-      <c r="K117" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L117" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M117" s="12"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A118" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D118" s="110" t="s">
-        <v>315</v>
-      </c>
-      <c r="E118" s="111" t="s">
-        <v>316</v>
-      </c>
-      <c r="F118" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="G118" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L118" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M118" s="12"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A119" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="B119" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D119" s="110" t="s">
-        <v>318</v>
-      </c>
-      <c r="E119" s="111" t="s">
-        <v>319</v>
-      </c>
-      <c r="F119" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="G119" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="H119" s="51"/>
-      <c r="I119" s="51"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L119" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M119" s="12"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="B117" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="105" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="E117" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="F117" s="101"/>
+      <c r="G117" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="102"/>
+      <c r="I117" s="102"/>
+      <c r="J117" s="103"/>
+      <c r="K117" s="106" t="s">
+        <v>463</v>
+      </c>
+      <c r="L117" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="M117" s="103"/>
+    </row>
+    <row r="118" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="63" t="s">
+        <v>466</v>
+      </c>
+      <c r="B118" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="105" t="s">
+        <v>450</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="E118" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="F118" s="101"/>
+      <c r="G118" s="104" t="s">
+        <v>403</v>
+      </c>
+      <c r="H118" s="102"/>
+      <c r="I118" s="102"/>
+      <c r="J118" s="103"/>
+      <c r="K118" s="106"/>
+      <c r="L118" s="103"/>
+      <c r="M118" s="103"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="63" t="s">
+        <v>467</v>
+      </c>
+      <c r="B119" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="105" t="s">
+        <v>450</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="E119" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="F119" s="101"/>
+      <c r="G119" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="102"/>
+      <c r="I119" s="102"/>
+      <c r="J119" s="103"/>
+      <c r="K119" s="106" t="s">
+        <v>466</v>
+      </c>
+      <c r="L119" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="103"/>
+    </row>
+    <row r="120" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A120" s="99" t="s">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D120" s="110" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="E120" s="111" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F120" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="G120" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="H120" s="51"/>
+        <v>303</v>
+      </c>
+      <c r="G120" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H120" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="I120" s="51"/>
       <c r="J120" s="52"/>
-      <c r="K120" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L120" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K120" s="53"/>
+      <c r="L120" s="52"/>
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="99" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D121" s="110" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E121" s="111" t="s">
-        <v>325</v>
-      </c>
-      <c r="F121" s="49"/>
+        <v>305</v>
+      </c>
+      <c r="F121" s="49" t="s">
+        <v>306</v>
+      </c>
       <c r="G121" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
       <c r="J121" s="52"/>
-      <c r="K121" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L121" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K121" s="53"/>
+      <c r="L121" s="52"/>
       <c r="M121" s="12"/>
     </row>
-    <row r="122" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="99" t="s">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="B122" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D122" s="110" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E122" s="111" t="s">
-        <v>327</v>
-      </c>
-      <c r="F122" s="49"/>
+        <v>308</v>
+      </c>
+      <c r="F122" s="49" t="s">
+        <v>309</v>
+      </c>
       <c r="G122" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
       <c r="J122" s="52"/>
-      <c r="K122" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L122" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K122" s="53"/>
+      <c r="L122" s="52"/>
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="99" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C123" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="D123" s="110" t="s">
-        <v>328</v>
-      </c>
-      <c r="E123" s="111" t="s">
-        <v>329</v>
-      </c>
-      <c r="F123" s="49"/>
+      <c r="F123" s="49" t="s">
+        <v>312</v>
+      </c>
       <c r="G123" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
       <c r="J123" s="52"/>
-      <c r="K123" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L123" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K123" s="53"/>
+      <c r="L123" s="52"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="99" t="s">
-        <v>386</v>
+        <v>89</v>
       </c>
       <c r="B124" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D124" s="110" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="E124" s="111" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F124" s="49"/>
       <c r="G124" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="51"/>
       <c r="J124" s="52"/>
-      <c r="K124" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L124" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K124" s="53"/>
+      <c r="L124" s="52"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="99" t="s">
-        <v>387</v>
+        <v>90</v>
       </c>
       <c r="B125" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D125" s="110" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E125" s="111" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="F125" s="49"/>
       <c r="G125" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
       <c r="J125" s="52"/>
-      <c r="K125" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L125" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K125" s="53"/>
+      <c r="L125" s="52"/>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="99" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B126" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E126" s="111" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="F126" s="49"/>
       <c r="G126" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="H126" s="51" t="s">
-        <v>504</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H126" s="51"/>
       <c r="I126" s="51"/>
       <c r="J126" s="52"/>
-      <c r="K126" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L126" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K126" s="53"/>
+      <c r="L126" s="52"/>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="99" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B127" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D127" s="110" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E127" s="111" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F127" s="49"/>
       <c r="G127" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
       <c r="J127" s="52"/>
-      <c r="K127" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L127" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K127" s="53"/>
+      <c r="L127" s="52"/>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="99" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B128" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D128" s="110" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E128" s="111" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H128" s="51" t="s">
-        <v>341</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H128" s="51"/>
       <c r="I128" s="51"/>
       <c r="J128" s="52"/>
-      <c r="K128" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L128" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K128" s="53"/>
+      <c r="L128" s="52"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="99" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B129" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D129" s="110" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E129" s="111" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="F129" s="49"/>
-      <c r="G129" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H129" s="51"/>
+      <c r="G129" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H129" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="I129" s="51"/>
       <c r="J129" s="52"/>
-      <c r="K129" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L129" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K129" s="53"/>
+      <c r="L129" s="52"/>
       <c r="M129" s="12"/>
     </row>
-    <row r="130" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="99" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B130" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="D130" s="110" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E130" s="111" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="F130" s="49"/>
-      <c r="G130" s="50" t="s">
-        <v>27</v>
+      <c r="G130" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="H130" s="51"/>
       <c r="I130" s="51"/>
       <c r="J130" s="52"/>
-      <c r="K130" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L130" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K130" s="53"/>
+      <c r="L130" s="52"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="99" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B131" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D131" s="110" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="E131" s="111" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="F131" s="49"/>
       <c r="G131" s="54" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="H131" s="51" t="s">
-        <v>504</v>
+        <v>330</v>
       </c>
       <c r="I131" s="51"/>
       <c r="J131" s="52"/>
-      <c r="K131" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L131" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K131" s="53"/>
+      <c r="L131" s="52"/>
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="99" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B132" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D132" s="110" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E132" s="111" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H132" s="51"/>
       <c r="I132" s="51"/>
       <c r="J132" s="52"/>
-      <c r="K132" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L132" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K132" s="53"/>
+      <c r="L132" s="52"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="99" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B133" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D133" s="110" t="s">
-        <v>520</v>
+        <v>334</v>
       </c>
       <c r="E133" s="111" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="50" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
       <c r="J133" s="52"/>
-      <c r="K133" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="L133" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K133" s="53"/>
+      <c r="L133" s="52"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="99" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B134" s="100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D134" s="110" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E134" s="111" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F134" s="49"/>
-      <c r="G134" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" s="51"/>
+      <c r="G134" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="I134" s="51"/>
       <c r="J134" s="52"/>
-      <c r="K134" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L134" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K134" s="53"/>
+      <c r="L134" s="52"/>
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="99" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
       <c r="B135" s="100" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D135" s="110" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="E135" s="111" t="s">
-        <v>358</v>
-      </c>
-      <c r="F135" s="49" t="s">
-        <v>359</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F135" s="49"/>
       <c r="G135" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H135" s="51" t="s">
-        <v>397</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H135" s="51"/>
       <c r="I135" s="51"/>
       <c r="J135" s="52"/>
-      <c r="K135" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L135" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K135" s="53"/>
+      <c r="L135" s="52"/>
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="99" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="B136" s="100" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D136" s="110" t="s">
-        <v>360</v>
+        <v>507</v>
       </c>
       <c r="E136" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="F136" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="G136" s="54" t="s">
-        <v>143</v>
+        <v>341</v>
+      </c>
+      <c r="F136" s="49"/>
+      <c r="G136" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
       <c r="J136" s="52"/>
       <c r="K136" s="53" t="s">
-        <v>13</v>
+        <v>381</v>
       </c>
       <c r="L136" s="52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M136" s="12"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="99" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="B137" s="100" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D137" s="110" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="E137" s="111" t="s">
-        <v>364</v>
-      </c>
-      <c r="F137" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="G137" s="54" t="s">
-        <v>143</v>
+        <v>528</v>
+      </c>
+      <c r="F137" s="49"/>
+      <c r="G137" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
       <c r="J137" s="52"/>
-      <c r="K137" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L137" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K137" s="53"/>
+      <c r="L137" s="52"/>
       <c r="M137" s="12"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B138" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D138" s="110" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E138" s="111" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="F138" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="G138" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="H138" s="51"/>
+        <v>347</v>
+      </c>
+      <c r="G138" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" s="51" t="s">
+        <v>384</v>
+      </c>
       <c r="I138" s="51"/>
       <c r="J138" s="52"/>
-      <c r="K138" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L138" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K138" s="53"/>
+      <c r="L138" s="52"/>
       <c r="M138" s="12"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="99" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B139" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D139" s="110" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E139" s="111" t="s">
-        <v>370</v>
-      </c>
-      <c r="F139" s="49"/>
-      <c r="G139" s="50" t="s">
-        <v>18</v>
+        <v>349</v>
+      </c>
+      <c r="F139" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="G139" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="H139" s="51"/>
       <c r="I139" s="51"/>
       <c r="J139" s="52"/>
-      <c r="K139" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L139" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K139" s="53"/>
+      <c r="L139" s="52"/>
       <c r="M139" s="12"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="99" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B140" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D140" s="110" t="s">
-        <v>521</v>
+        <v>351</v>
       </c>
       <c r="E140" s="111" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F140" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="G140" s="50" t="s">
-        <v>27</v>
+        <v>353</v>
+      </c>
+      <c r="G140" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
       <c r="J140" s="52"/>
-      <c r="K140" s="53" t="s">
-        <v>481</v>
-      </c>
-      <c r="L140" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K140" s="53"/>
+      <c r="L140" s="52"/>
       <c r="M140" s="12"/>
     </row>
-    <row r="141" spans="1:13" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B141" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" s="110" t="s">
+        <v>354</v>
+      </c>
+      <c r="E141" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="C141" s="48" t="s">
+      <c r="F141" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="D141" s="110" t="s">
-        <v>499</v>
-      </c>
-      <c r="E141" s="111" t="s">
-        <v>498</v>
-      </c>
-      <c r="F141" s="49"/>
-      <c r="G141" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="H141" s="51" t="s">
-        <v>504</v>
-      </c>
+      <c r="G141" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="H141" s="51"/>
       <c r="I141" s="51"/>
       <c r="J141" s="52"/>
-      <c r="K141" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L141" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M141" s="103"/>
-    </row>
-    <row r="142" spans="1:13" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+      <c r="K141" s="53"/>
+      <c r="L141" s="52"/>
+      <c r="M141" s="12"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="99" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="B142" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D142" s="110" t="s">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="E142" s="111" t="s">
-        <v>502</v>
+        <v>358</v>
       </c>
       <c r="F142" s="49"/>
       <c r="G142" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="H142" s="51" t="s">
-        <v>504</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H142" s="51"/>
       <c r="I142" s="51"/>
       <c r="J142" s="52"/>
-      <c r="K142" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L142" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M142" s="103"/>
-    </row>
-    <row r="143" spans="1:13" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+      <c r="K142" s="53"/>
+      <c r="L142" s="52"/>
+      <c r="M142" s="12"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="99" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B143" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D143" s="110" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E143" s="111" t="s">
-        <v>503</v>
-      </c>
-      <c r="F143" s="49"/>
+        <v>359</v>
+      </c>
+      <c r="F143" s="49" t="s">
+        <v>360</v>
+      </c>
       <c r="G143" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="H143" s="51" t="s">
-        <v>504</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="52"/>
       <c r="K143" s="53" t="s">
-        <v>13</v>
+        <v>468</v>
       </c>
       <c r="L143" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M143" s="103"/>
-    </row>
-    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="M143" s="12"/>
+    </row>
+    <row r="144" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A144" s="99" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B144" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="D144" s="110" t="s">
-        <v>374</v>
+        <v>486</v>
       </c>
       <c r="E144" s="111" t="s">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="F144" s="49"/>
       <c r="G144" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H144" s="51"/>
+        <v>86</v>
+      </c>
+      <c r="H144" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="I144" s="51"/>
       <c r="J144" s="52"/>
-      <c r="K144" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L144" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M144" s="12"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K144" s="53"/>
+      <c r="L144" s="52"/>
+      <c r="M144" s="103"/>
+    </row>
+    <row r="145" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A145" s="99" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B145" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="D145" s="110" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="E145" s="111" t="s">
-        <v>376</v>
-      </c>
-      <c r="F145" s="49" t="s">
-        <v>377</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="F145" s="49"/>
       <c r="G145" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" s="51"/>
+        <v>86</v>
+      </c>
+      <c r="H145" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="I145" s="51"/>
       <c r="J145" s="52"/>
-      <c r="K145" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="L145" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M145" s="12"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K145" s="53"/>
+      <c r="L145" s="52"/>
+      <c r="M145" s="103"/>
+    </row>
+    <row r="146" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B146" s="100" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C146" s="48" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="D146" s="110" t="s">
-        <v>379</v>
+        <v>488</v>
       </c>
       <c r="E146" s="111" t="s">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="F146" s="49"/>
       <c r="G146" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" s="51"/>
+        <v>86</v>
+      </c>
+      <c r="H146" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="I146" s="51"/>
       <c r="J146" s="52"/>
-      <c r="K146" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L146" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M146" s="12"/>
-    </row>
-    <row r="147" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A147" s="109" t="s">
-        <v>495</v>
-      </c>
-      <c r="B147" s="108" t="s">
-        <v>355</v>
+      <c r="K146" s="53"/>
+      <c r="L146" s="52"/>
+      <c r="M146" s="103"/>
+    </row>
+    <row r="147" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="B147" s="100" t="s">
+        <v>343</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D147" s="110" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E147" s="111" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="50" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
       <c r="J147" s="52"/>
-      <c r="K147" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L147" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="K147" s="53"/>
+      <c r="L147" s="52"/>
       <c r="M147" s="12"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A148" s="107"/>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="99" t="s">
+        <v>475</v>
+      </c>
+      <c r="B148" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="C148" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D148" s="110" t="s">
+        <v>509</v>
+      </c>
+      <c r="E148" s="111" t="s">
+        <v>364</v>
+      </c>
+      <c r="F148" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G148" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" s="51"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="52"/>
+      <c r="K148" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="L148" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148" s="12"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="B149" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D149" s="110" t="s">
+        <v>367</v>
+      </c>
+      <c r="E149" s="111" t="s">
+        <v>368</v>
+      </c>
+      <c r="F149" s="49"/>
+      <c r="G149" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="52"/>
+      <c r="K149" s="53"/>
+      <c r="L149" s="52"/>
+      <c r="M149" s="12"/>
+    </row>
+    <row r="150" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A150" s="109" t="s">
+        <v>482</v>
+      </c>
+      <c r="B150" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D150" s="110" t="s">
+        <v>369</v>
+      </c>
+      <c r="E150" s="111" t="s">
+        <v>529</v>
+      </c>
+      <c r="F150" s="49"/>
+      <c r="G150" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="52"/>
+      <c r="K150" s="53"/>
+      <c r="L150" s="52"/>
+      <c r="M150" s="12"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
+++ b/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\dataland_alternative\dataland-framework-toolbox\inputs\esg-datenkatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3437EDE1-0253-4BA6-84FC-2CD47118645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0947F7A2-9AD6-4411-A781-7D2A817CA24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10800" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$151</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="533">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Mandatory Field</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Master Data</t>
-  </si>
-  <si>
     <t>Yes/No</t>
   </si>
   <si>
@@ -1043,9 +1037,6 @@
   </si>
   <si>
     <t>Sind Beschäftigte in betriebliche Entscheidungen des Unternehmens eingebunden?</t>
-  </si>
-  <si>
-    <t>Einbindung in Betriebsrat / gesetzliche Vertretungsorgane | Aufsichtsrat | Verwaltungsrat | Keine Einbindung in Entscheidungsgremien | Kein Arbeitnehmervertretung gesetzlich vorgeschrieben</t>
   </si>
   <si>
     <t>Einbindung von Beschäftigten in Entscheidungen Erläuterungen</t>
@@ -1646,6 +1637,24 @@
   </si>
   <si>
     <t>Welche Maßnahmen hat das Unternehmen zur Reduzierung dieser governance-bezogenen Risiken getroffen, außer der bereits zuvor abgefragten Richtlinien?</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>41.1.1</t>
+  </si>
+  <si>
+    <t>In welche Gremien sind Beschäftigte bei betrieblichen Entscheidungen des Unternehmens eingebunden?</t>
+  </si>
+  <si>
+    <t>Einbindung von Beschäftigten in Gremien</t>
+  </si>
+  <si>
+    <t>Ja | Nein, Beschäftigte nicht in Entscheidungsgremien eingebunden | Nein, Arbeitnehmervertretung nicht gesetzlich vorgeschrieben</t>
+  </si>
+  <si>
+    <t>Betriebsrat / gesetzliche Vertretungsorgane | Aufsichtsrat | Verwaltungsrat | Keine</t>
   </si>
 </sst>
 </file>
@@ -2560,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="E96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,23 +2633,23 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="12"/>
@@ -2651,23 +2660,23 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2678,326 +2687,326 @@
     </row>
     <row r="4" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
       <c r="K4" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>94</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="K5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>98</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>105</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>107</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -3008,23 +3017,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3035,29 +3044,29 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="23"/>
@@ -3066,29 +3075,29 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="23"/>
@@ -3097,29 +3106,29 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="23"/>
@@ -3128,23 +3137,23 @@
     </row>
     <row r="18" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>518</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>521</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="102"/>
       <c r="I18" s="28"/>
@@ -3155,23 +3164,23 @@
     </row>
     <row r="19" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" s="102"/>
       <c r="I19" s="28"/>
@@ -3182,29 +3191,29 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="23"/>
@@ -3213,29 +3222,29 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="23"/>
@@ -3244,29 +3253,29 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="23"/>
@@ -3275,23 +3284,23 @@
     </row>
     <row r="23" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="102"/>
       <c r="I23" s="28"/>
@@ -3302,23 +3311,23 @@
     </row>
     <row r="24" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H24" s="102"/>
       <c r="I24" s="28"/>
@@ -3329,23 +3338,23 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="28"/>
@@ -3356,85 +3365,85 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="28"/>
       <c r="J26" s="12"/>
       <c r="K26" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="28"/>
       <c r="J27" s="12"/>
       <c r="K27" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="28"/>
@@ -3445,116 +3454,116 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="28"/>
       <c r="J29" s="12"/>
       <c r="K29" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="28"/>
       <c r="J30" s="12"/>
       <c r="K30" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="28"/>
       <c r="J31" s="12"/>
       <c r="K31" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="28"/>
@@ -3565,116 +3574,116 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="28"/>
       <c r="J33" s="12"/>
       <c r="K33" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="28"/>
       <c r="J34" s="12"/>
       <c r="K34" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="28"/>
       <c r="J35" s="12"/>
       <c r="K35" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="28"/>
@@ -3685,116 +3694,116 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="28"/>
       <c r="J37" s="12"/>
       <c r="K37" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="28"/>
       <c r="J38" s="12"/>
       <c r="K38" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="28"/>
       <c r="J39" s="12"/>
       <c r="K39" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="28"/>
@@ -3805,116 +3814,116 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="28"/>
       <c r="J41" s="12"/>
       <c r="K41" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="47" t="s">
         <v>189</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>191</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="28"/>
       <c r="J42" s="12"/>
       <c r="K42" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="47" t="s">
         <v>190</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>192</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="28"/>
       <c r="J43" s="12"/>
       <c r="K43" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3925,125 +3934,125 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="E45" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="12"/>
       <c r="K45" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="E46" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="15"/>
       <c r="K46" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="12"/>
@@ -4051,30 +4060,30 @@
     </row>
     <row r="49" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="12"/>
@@ -4082,30 +4091,30 @@
     </row>
     <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="12"/>
@@ -4113,30 +4122,30 @@
     </row>
     <row r="51" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="12"/>
@@ -4144,30 +4153,30 @@
     </row>
     <row r="52" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K52" s="17"/>
       <c r="L52" s="12"/>
@@ -4175,30 +4184,30 @@
     </row>
     <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="12"/>
@@ -4206,30 +4215,30 @@
     </row>
     <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K54" s="17"/>
       <c r="L54" s="12"/>
@@ -4237,23 +4246,23 @@
     </row>
     <row r="55" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
@@ -4264,89 +4273,89 @@
     </row>
     <row r="56" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>217</v>
-      </c>
       <c r="F56" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="15"/>
       <c r="K56" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="15"/>
       <c r="K57" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>47</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>49</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
@@ -4357,89 +4366,89 @@
     </row>
     <row r="59" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="15"/>
       <c r="K59" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="12"/>
       <c r="K60" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -4450,26 +4459,26 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="38" t="s">
         <v>221</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>223</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="12"/>
@@ -4479,23 +4488,23 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -4506,23 +4515,23 @@
     </row>
     <row r="64" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -4533,54 +4542,54 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="12"/>
       <c r="K65" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -4591,54 +4600,54 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="38" t="s">
         <v>232</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>234</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="12"/>
       <c r="K67" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M67" s="12"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -4649,60 +4658,60 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" s="38" t="s">
         <v>236</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>238</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>243</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="17"/>
@@ -4711,29 +4720,29 @@
     </row>
     <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="17"/>
@@ -4742,29 +4751,29 @@
     </row>
     <row r="72" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>248</v>
-      </c>
       <c r="E72" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F72" s="41"/>
       <c r="G72" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="17"/>
@@ -4773,29 +4782,29 @@
     </row>
     <row r="73" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F73" s="41"/>
       <c r="G73" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="17"/>
@@ -4804,29 +4813,29 @@
     </row>
     <row r="74" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F74" s="41"/>
       <c r="G74" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" s="17"/>
@@ -4835,29 +4844,29 @@
     </row>
     <row r="75" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F75" s="41"/>
       <c r="G75" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="17"/>
@@ -4866,29 +4875,29 @@
     </row>
     <row r="76" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="16" t="s">
+      <c r="E76" s="38" t="s">
         <v>257</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>259</v>
       </c>
       <c r="F76" s="41"/>
       <c r="G76" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J76" s="12"/>
       <c r="K76" s="17"/>
@@ -4897,29 +4906,29 @@
     </row>
     <row r="77" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J77" s="12"/>
       <c r="K77" s="17"/>
@@ -4928,29 +4937,29 @@
     </row>
     <row r="78" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>79</v>
-      </c>
       <c r="E78" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F78" s="41"/>
       <c r="G78" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J78" s="12"/>
       <c r="K78" s="17"/>
@@ -4959,23 +4968,23 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F79" s="41"/>
       <c r="G79" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -4986,29 +4995,29 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J80" s="12"/>
       <c r="K80" s="17"/>
@@ -5017,29 +5026,29 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="38" t="s">
         <v>272</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>274</v>
       </c>
       <c r="F81" s="41"/>
       <c r="G81" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J81" s="12"/>
       <c r="K81" s="17"/>
@@ -5048,23 +5057,23 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>277</v>
-      </c>
       <c r="E82" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -5075,29 +5084,29 @@
     </row>
     <row r="83" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F83" s="41"/>
       <c r="G83" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J83" s="12"/>
       <c r="K83" s="17"/>
@@ -5106,23 +5115,23 @@
     </row>
     <row r="84" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F84" s="41"/>
       <c r="G84" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -5133,26 +5142,26 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C85" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F85" s="41"/>
       <c r="G85" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="12"/>
@@ -5162,23 +5171,23 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" s="38" t="s">
         <v>286</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>288</v>
       </c>
       <c r="F86" s="41"/>
       <c r="G86" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -5189,23 +5198,23 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C87" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -5216,116 +5225,116 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>293</v>
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="12"/>
       <c r="K88" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M88" s="12"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>294</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>296</v>
       </c>
       <c r="F89" s="41"/>
       <c r="G89" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="12"/>
       <c r="K89" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C90" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F90" s="41"/>
       <c r="G90" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="12"/>
       <c r="K90" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C91" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F91" s="41"/>
       <c r="G91" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -5336,59 +5345,59 @@
     </row>
     <row r="92" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="E92" s="38" t="s">
         <v>393</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>396</v>
       </c>
       <c r="F92" s="41"/>
       <c r="G92" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="12"/>
       <c r="K92" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M92" s="12"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="34" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C93" s="105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F93" s="41"/>
       <c r="G93" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K93" s="17"/>
       <c r="L93" s="12"/>
@@ -5396,23 +5405,23 @@
     </row>
     <row r="94" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A94" s="63" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F94" s="57"/>
       <c r="G94" s="60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H94" s="58"/>
       <c r="I94" s="58"/>
@@ -5423,23 +5432,23 @@
     </row>
     <row r="95" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A95" s="63" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D95" s="40" t="s">
-        <v>388</v>
-      </c>
       <c r="E95" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F95" s="57"/>
       <c r="G95" s="60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H95" s="58"/>
       <c r="I95" s="58"/>
@@ -5450,23 +5459,23 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="73" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H96" s="67"/>
       <c r="I96" s="67"/>
@@ -5477,54 +5486,54 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="72" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B97" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C97" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F97" s="66"/>
       <c r="G97" s="69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H97" s="67"/>
       <c r="I97" s="67"/>
       <c r="J97" s="68"/>
       <c r="K97" s="71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L97" s="68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M97" s="68"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C98" s="78" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F98" s="74"/>
       <c r="G98" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H98" s="75"/>
       <c r="I98" s="75"/>
@@ -5535,23 +5544,23 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C99" s="78" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F99" s="74"/>
       <c r="G99" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H99" s="75"/>
       <c r="I99" s="75"/>
@@ -5562,23 +5571,23 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C100" s="78" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F100" s="74"/>
       <c r="G100" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -5589,23 +5598,23 @@
     </row>
     <row r="101" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A101" s="63" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C101" s="78" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F101" s="74"/>
       <c r="G101" s="77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H101" s="75"/>
       <c r="I101" s="75"/>
@@ -5616,23 +5625,23 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="73" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C102" s="84" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F102" s="80"/>
       <c r="G102" s="83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H102" s="81"/>
       <c r="I102" s="81"/>
@@ -5643,54 +5652,54 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="73" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C103" s="84" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F103" s="80"/>
       <c r="G103" s="83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H103" s="81"/>
       <c r="I103" s="81"/>
       <c r="J103" s="82"/>
       <c r="K103" s="85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L103" s="82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M103" s="82"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C104" s="90" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F104" s="86"/>
       <c r="G104" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H104" s="87"/>
       <c r="I104" s="87"/>
@@ -5701,23 +5710,23 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C105" s="90" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F105" s="86"/>
       <c r="G105" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H105" s="87"/>
       <c r="I105" s="87"/>
@@ -5728,23 +5737,23 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C106" s="90" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F106" s="86"/>
       <c r="G106" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H106" s="87"/>
       <c r="I106" s="87"/>
@@ -5755,23 +5764,23 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C107" s="90" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F107" s="86"/>
       <c r="G107" s="89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H107" s="87"/>
       <c r="I107" s="87"/>
@@ -5782,23 +5791,23 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="73" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C108" s="97" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F108" s="93"/>
       <c r="G108" s="96" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H108" s="94"/>
       <c r="I108" s="94"/>
@@ -5809,54 +5818,54 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="73" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C109" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>436</v>
-      </c>
-      <c r="D109" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>439</v>
       </c>
       <c r="F109" s="93"/>
       <c r="G109" s="96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H109" s="94"/>
       <c r="I109" s="94"/>
       <c r="J109" s="95"/>
       <c r="K109" s="98" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L109" s="95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M109" s="95"/>
     </row>
     <row r="110" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="73" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="E110" s="39" t="s">
         <v>446</v>
-      </c>
-      <c r="B110" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C110" s="97" t="s">
-        <v>436</v>
-      </c>
-      <c r="D110" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="E110" s="39" t="s">
-        <v>449</v>
       </c>
       <c r="F110" s="93"/>
       <c r="G110" s="96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H110" s="94"/>
       <c r="I110" s="94"/>
@@ -5867,23 +5876,23 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="73" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C111" s="97" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F111" s="93"/>
       <c r="G111" s="96" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H111" s="94"/>
       <c r="I111" s="94"/>
@@ -5894,54 +5903,54 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="73" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C112" s="97" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F112" s="93"/>
       <c r="G112" s="96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H112" s="94"/>
       <c r="I112" s="94"/>
       <c r="J112" s="95"/>
       <c r="K112" s="98" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L112" s="95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M112" s="95"/>
     </row>
     <row r="113" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C113" s="105" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F113" s="101"/>
       <c r="G113" s="104" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H113" s="102"/>
       <c r="I113" s="102"/>
@@ -5952,54 +5961,54 @@
     </row>
     <row r="114" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C114" s="105" t="s">
+        <v>447</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="E114" s="39" t="s">
         <v>450</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>504</v>
-      </c>
-      <c r="E114" s="39" t="s">
-        <v>453</v>
       </c>
       <c r="F114" s="101"/>
       <c r="G114" s="104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H114" s="102"/>
       <c r="I114" s="102"/>
       <c r="J114" s="103"/>
       <c r="K114" s="106" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L114" s="103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M114" s="103"/>
     </row>
     <row r="115" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C115" s="105" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F115" s="101"/>
       <c r="G115" s="104" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H115" s="102"/>
       <c r="I115" s="102"/>
@@ -6010,85 +6019,85 @@
     </row>
     <row r="116" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C116" s="105" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="E116" s="39" t="s">
         <v>450</v>
-      </c>
-      <c r="D116" s="40" t="s">
-        <v>505</v>
-      </c>
-      <c r="E116" s="39" t="s">
-        <v>453</v>
       </c>
       <c r="F116" s="101"/>
       <c r="G116" s="104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H116" s="102"/>
       <c r="I116" s="102"/>
       <c r="J116" s="103"/>
       <c r="K116" s="106" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L116" s="103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M116" s="103"/>
     </row>
     <row r="117" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B117" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C117" s="105" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E117" s="39" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F117" s="101"/>
       <c r="G117" s="104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H117" s="102"/>
       <c r="I117" s="102"/>
       <c r="J117" s="103"/>
       <c r="K117" s="106" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L117" s="103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M117" s="103"/>
     </row>
     <row r="118" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B118" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C118" s="105" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F118" s="101"/>
       <c r="G118" s="104" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H118" s="102"/>
       <c r="I118" s="102"/>
@@ -6099,59 +6108,59 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B119" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C119" s="105" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E119" s="39" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F119" s="101"/>
       <c r="G119" s="104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H119" s="102"/>
       <c r="I119" s="102"/>
       <c r="J119" s="103"/>
       <c r="K119" s="106" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L119" s="103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M119" s="103"/>
     </row>
     <row r="120" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A120" s="99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C120" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D120" s="110" t="s">
+        <v>299</v>
+      </c>
+      <c r="E120" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="D120" s="110" t="s">
+      <c r="F120" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="E120" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="F120" s="49" t="s">
-        <v>303</v>
-      </c>
       <c r="G120" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H120" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I120" s="51"/>
       <c r="J120" s="52"/>
@@ -6161,25 +6170,25 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D121" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="E121" s="111" t="s">
+        <v>303</v>
+      </c>
+      <c r="F121" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="E121" s="111" t="s">
-        <v>305</v>
-      </c>
-      <c r="F121" s="49" t="s">
-        <v>306</v>
-      </c>
       <c r="G121" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
@@ -6190,25 +6199,25 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="99" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B122" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D122" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" s="111" t="s">
+        <v>306</v>
+      </c>
+      <c r="F122" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="E122" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="F122" s="49" t="s">
-        <v>309</v>
-      </c>
       <c r="G122" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
@@ -6219,25 +6228,25 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="99" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D123" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="E123" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="F123" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="E123" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="F123" s="49" t="s">
-        <v>312</v>
-      </c>
       <c r="G123" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
@@ -6248,23 +6257,23 @@
     </row>
     <row r="124" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="99" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B124" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D124" s="110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E124" s="111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F124" s="49"/>
       <c r="G124" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="51"/>
@@ -6275,23 +6284,23 @@
     </row>
     <row r="125" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B125" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D125" s="110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E125" s="111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F125" s="49"/>
       <c r="G125" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
@@ -6302,23 +6311,23 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="99" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B126" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E126" s="111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F126" s="49"/>
       <c r="G126" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H126" s="51"/>
       <c r="I126" s="51"/>
@@ -6329,23 +6338,23 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="99" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B127" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D127" s="110" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E127" s="111" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F127" s="49"/>
       <c r="G127" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
@@ -6356,23 +6365,23 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B128" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D128" s="110" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E128" s="111" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H128" s="51"/>
       <c r="I128" s="51"/>
@@ -6383,26 +6392,26 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="99" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B129" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D129" s="110" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E129" s="111" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I129" s="51"/>
       <c r="J129" s="52"/>
@@ -6412,23 +6421,23 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="99" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B130" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D130" s="110" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E130" s="111" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H130" s="51"/>
       <c r="I130" s="51"/>
@@ -6437,81 +6446,83 @@
       <c r="L130" s="52"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="99" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B131" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C131" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D131" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="E131" s="111" t="s">
         <v>327</v>
-      </c>
-      <c r="D131" s="110" t="s">
-        <v>328</v>
-      </c>
-      <c r="E131" s="111" t="s">
-        <v>329</v>
       </c>
       <c r="F131" s="49"/>
       <c r="G131" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H131" s="51" t="s">
-        <v>330</v>
+        <v>531</v>
       </c>
       <c r="I131" s="51"/>
       <c r="J131" s="52"/>
       <c r="K131" s="53"/>
       <c r="L131" s="52"/>
-      <c r="M131" s="12"/>
+      <c r="M131" s="103"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="99" t="s">
-        <v>378</v>
+        <v>528</v>
       </c>
       <c r="B132" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D132" s="110" t="s">
-        <v>331</v>
+        <v>530</v>
       </c>
       <c r="E132" s="111" t="s">
-        <v>332</v>
+        <v>529</v>
       </c>
       <c r="F132" s="49"/>
-      <c r="G132" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="51"/>
+      <c r="G132" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H132" s="51" t="s">
+        <v>532</v>
+      </c>
       <c r="I132" s="51"/>
       <c r="J132" s="52"/>
       <c r="K132" s="53"/>
       <c r="L132" s="52"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="99" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B133" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D133" s="110" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E133" s="111" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
@@ -6520,29 +6531,27 @@
       <c r="L133" s="52"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A134" s="99" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B134" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D134" s="110" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E134" s="111" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F134" s="49"/>
-      <c r="G134" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="H134" s="51" t="s">
-        <v>491</v>
-      </c>
+      <c r="G134" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" s="51"/>
       <c r="I134" s="51"/>
       <c r="J134" s="52"/>
       <c r="K134" s="53"/>
@@ -6551,25 +6560,27 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="99" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B135" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D135" s="110" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E135" s="111" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F135" s="49"/>
-      <c r="G135" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" s="51"/>
+      <c r="G135" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H135" s="51" t="s">
+        <v>488</v>
+      </c>
       <c r="I135" s="51"/>
       <c r="J135" s="52"/>
       <c r="K135" s="53"/>
@@ -6578,87 +6589,83 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="99" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B136" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D136" s="110" t="s">
-        <v>507</v>
+        <v>336</v>
       </c>
       <c r="E136" s="111" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F136" s="49"/>
       <c r="G136" s="50" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
       <c r="J136" s="52"/>
-      <c r="K136" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="L136" s="52" t="s">
-        <v>16</v>
-      </c>
+      <c r="K136" s="53"/>
+      <c r="L136" s="52"/>
       <c r="M136" s="12"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="99" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B137" s="100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C137" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D137" s="110" t="s">
+        <v>504</v>
+      </c>
+      <c r="E137" s="111" t="s">
         <v>338</v>
-      </c>
-      <c r="D137" s="110" t="s">
-        <v>342</v>
-      </c>
-      <c r="E137" s="111" t="s">
-        <v>528</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
       <c r="J137" s="52"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="52"/>
+      <c r="K137" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="L137" s="52" t="s">
+        <v>14</v>
+      </c>
       <c r="M137" s="12"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
       <c r="B138" s="100" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D138" s="110" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E138" s="111" t="s">
-        <v>346</v>
-      </c>
-      <c r="F138" s="49" t="s">
-        <v>347</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="F138" s="49"/>
       <c r="G138" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" s="51" t="s">
-        <v>384</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H138" s="51"/>
       <c r="I138" s="51"/>
       <c r="J138" s="52"/>
       <c r="K138" s="53"/>
@@ -6667,27 +6674,29 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="99" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B139" s="100" t="s">
+        <v>340</v>
+      </c>
+      <c r="C139" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D139" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="E139" s="111" t="s">
         <v>343</v>
       </c>
-      <c r="C139" s="48" t="s">
+      <c r="F139" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="D139" s="110" t="s">
-        <v>348</v>
-      </c>
-      <c r="E139" s="111" t="s">
-        <v>349</v>
-      </c>
-      <c r="F139" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="G139" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="H139" s="51"/>
+      <c r="G139" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="51" t="s">
+        <v>381</v>
+      </c>
       <c r="I139" s="51"/>
       <c r="J139" s="52"/>
       <c r="K139" s="53"/>
@@ -6696,25 +6705,25 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="99" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B140" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D140" s="110" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E140" s="111" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F140" s="49" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
@@ -6725,25 +6734,25 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B141" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D141" s="110" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E141" s="111" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F141" s="49" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
@@ -6754,23 +6763,25 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="99" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B142" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D142" s="110" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E142" s="111" t="s">
-        <v>358</v>
-      </c>
-      <c r="F142" s="49"/>
-      <c r="G142" s="50" t="s">
-        <v>15</v>
+        <v>352</v>
+      </c>
+      <c r="F142" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="G142" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
@@ -6781,88 +6792,86 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="99" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B143" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D143" s="110" t="s">
-        <v>508</v>
+        <v>354</v>
       </c>
       <c r="E143" s="111" t="s">
-        <v>359</v>
-      </c>
-      <c r="F143" s="49" t="s">
-        <v>360</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F143" s="49"/>
       <c r="G143" s="50" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="52"/>
-      <c r="K143" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="L143" s="52" t="s">
-        <v>16</v>
-      </c>
+      <c r="K143" s="53"/>
+      <c r="L143" s="52"/>
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="99" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B144" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D144" s="110" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="E144" s="111" t="s">
-        <v>485</v>
-      </c>
-      <c r="F144" s="49"/>
+        <v>356</v>
+      </c>
+      <c r="F144" s="49" t="s">
+        <v>357</v>
+      </c>
       <c r="G144" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="H144" s="51" t="s">
-        <v>491</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H144" s="51"/>
       <c r="I144" s="51"/>
       <c r="J144" s="52"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="52"/>
-      <c r="M144" s="103"/>
+      <c r="K144" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="L144" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" s="12"/>
     </row>
     <row r="145" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A145" s="99" t="s">
+        <v>471</v>
+      </c>
+      <c r="B145" s="100" t="s">
+        <v>340</v>
+      </c>
+      <c r="C145" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D145" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="B145" s="100" t="s">
-        <v>343</v>
-      </c>
-      <c r="C145" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="D145" s="110" t="s">
-        <v>487</v>
-      </c>
       <c r="E145" s="111" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H145" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I145" s="51"/>
       <c r="J145" s="52"/>
@@ -6872,26 +6881,26 @@
     </row>
     <row r="146" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="B146" s="100" t="s">
+        <v>340</v>
+      </c>
+      <c r="C146" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D146" s="110" t="s">
         <v>484</v>
       </c>
-      <c r="B146" s="100" t="s">
-        <v>343</v>
-      </c>
-      <c r="C146" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="D146" s="110" t="s">
-        <v>488</v>
-      </c>
       <c r="E146" s="111" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F146" s="49"/>
       <c r="G146" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H146" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I146" s="51"/>
       <c r="J146" s="52"/>
@@ -6899,112 +6908,114 @@
       <c r="L146" s="52"/>
       <c r="M146" s="103"/>
     </row>
-    <row r="147" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A147" s="99" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B147" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D147" s="110" t="s">
-        <v>362</v>
+        <v>485</v>
       </c>
       <c r="E147" s="111" t="s">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="H147" s="51" t="s">
+        <v>488</v>
+      </c>
       <c r="I147" s="51"/>
       <c r="J147" s="52"/>
       <c r="K147" s="53"/>
       <c r="L147" s="52"/>
-      <c r="M147" s="12"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M147" s="103"/>
+    </row>
+    <row r="148" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="99" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B148" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C148" s="48" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D148" s="110" t="s">
-        <v>509</v>
+        <v>359</v>
       </c>
       <c r="E148" s="111" t="s">
-        <v>364</v>
-      </c>
-      <c r="F148" s="49" t="s">
-        <v>365</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F148" s="49"/>
       <c r="G148" s="50" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
       <c r="J148" s="52"/>
-      <c r="K148" s="53" t="s">
-        <v>480</v>
-      </c>
-      <c r="L148" s="52" t="s">
-        <v>16</v>
-      </c>
+      <c r="K148" s="53"/>
+      <c r="L148" s="52"/>
       <c r="M148" s="12"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="99" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B149" s="100" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D149" s="110" t="s">
-        <v>367</v>
+        <v>506</v>
       </c>
       <c r="E149" s="111" t="s">
-        <v>368</v>
-      </c>
-      <c r="F149" s="49"/>
+        <v>361</v>
+      </c>
+      <c r="F149" s="49" t="s">
+        <v>362</v>
+      </c>
       <c r="G149" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
       <c r="J149" s="52"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="52"/>
+      <c r="K149" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="L149" s="52" t="s">
+        <v>14</v>
+      </c>
       <c r="M149" s="12"/>
     </row>
-    <row r="150" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="109" t="s">
-        <v>482</v>
-      </c>
-      <c r="B150" s="108" t="s">
-        <v>343</v>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="B150" s="100" t="s">
+        <v>340</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D150" s="110" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E150" s="111" t="s">
-        <v>529</v>
+        <v>365</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
@@ -7013,11 +7024,38 @@
       <c r="L150" s="52"/>
       <c r="M150" s="12"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="107"/>
+    <row r="151" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A151" s="109" t="s">
+        <v>479</v>
+      </c>
+      <c r="B151" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="C151" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="D151" s="110" t="s">
+        <v>366</v>
+      </c>
+      <c r="E151" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="F151" s="49"/>
+      <c r="G151" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="52"/>
+      <c r="K151" s="53"/>
+      <c r="L151" s="52"/>
+      <c r="M151" s="12"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
+++ b/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\dataland_alternative\dataland-framework-toolbox\inputs\esg-datenkatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0947F7A2-9AD6-4411-A781-7D2A817CA24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9284F2B2-FE95-4D83-9936-E7AD7D5BE789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10800" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$150</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="532">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -235,9 +235,6 @@
     <t>ESG-Rating</t>
   </si>
   <si>
-    <t>Hat das Unternehmen bereits ein ESG-Rating einer anerkannten Ratingagentur?</t>
-  </si>
-  <si>
     <t>Welche Rating Agentur hat das Rating durchgeführt?</t>
   </si>
   <si>
@@ -247,12 +244,6 @@
     <t>Wie lautet das Rating?</t>
   </si>
   <si>
-    <t>Ratingbericht</t>
-  </si>
-  <si>
-    <t>Liegt ein Ratingbericht vor?</t>
-  </si>
-  <si>
     <t>16.1</t>
   </si>
   <si>
@@ -508,9 +499,6 @@
     <t>8.1.4</t>
   </si>
   <si>
-    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Fossile Brennstoffe (Kohle, Gas, Öl)" zurückzuführen sein?</t>
-  </si>
-  <si>
     <t>Ist das Unternehmen im Sektor "Herstellung von Chemikalien" aktiv?</t>
   </si>
   <si>
@@ -529,9 +517,6 @@
     <t>8.2.4</t>
   </si>
   <si>
-    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Herstellung von Chemikalien" zurückzuführen sein?</t>
-  </si>
-  <si>
     <t>8.3.1</t>
   </si>
   <si>
@@ -553,9 +538,6 @@
     <t>8.3.4</t>
   </si>
   <si>
-    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Umstrittene Waffen" zurückzuführen sein?</t>
-  </si>
-  <si>
     <t>Aktueller prozentualer Umsatzanteil im Sektor "Fossile Brennstoffe"</t>
   </si>
   <si>
@@ -625,9 +607,6 @@
     <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2030 voraussichtlich auf den Sektor "Tabakanbau und -verarbeitung" zurückzuführen sein?</t>
   </si>
   <si>
-    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Tabakanbau und -verarbeitung" zurückzuführen sein?</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -643,9 +622,6 @@
     <t>Ergebnis des ESG-Ratings</t>
   </si>
   <si>
-    <t>9.3</t>
-  </si>
-  <si>
     <t>7.6</t>
   </si>
   <si>
@@ -1021,15 +997,9 @@
     <t>Durchschnittliche Anzahl an Trainingsstunden</t>
   </si>
   <si>
-    <t>Wieviele Tranings- und Fortbildungsstunden erhielten Beschäftigte im letzten abgeschlossenen Geschäftsjahr?</t>
-  </si>
-  <si>
     <t>Fluktuationsquote</t>
   </si>
   <si>
-    <t>Wie hoch war die Fluktuationsquote im Unternehmen im letzten abgeschlossenen Geschäftsjahr?</t>
-  </si>
-  <si>
     <t>Einbindung der Beschäftigten</t>
   </si>
   <si>
@@ -1039,9 +1009,6 @@
     <t>Sind Beschäftigte in betriebliche Entscheidungen des Unternehmens eingebunden?</t>
   </si>
   <si>
-    <t>Einbindung von Beschäftigten in Entscheidungen Erläuterungen</t>
-  </si>
-  <si>
     <t>Bei Unternehmen, die aufgrund länderspezifischer Besonderheiten nicht zu einer eindeutigen Antwort kommen, bitte hier erläutern.</t>
   </si>
   <si>
@@ -1057,9 +1024,6 @@
     <t>Anzahl der Arbeitsunfälle pro fünfhundert Vollzeitbeschäftigte</t>
   </si>
   <si>
-    <t>Wie hoch ist die Häufigkeitsrate von Arbeitsunfällen des Unternehmens pro 500 Vollzeitbeschäftigte?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risiken und Maßnahmen </t>
   </si>
   <si>
@@ -1276,15 +1240,9 @@
     <t>Ziel Reduzierung Treibhausgasemmissionen 2040</t>
   </si>
   <si>
-    <t>Welche Zielsetzung verfolgt das Unternehmen bei der Reduzierung seiner Treibhausgasemissionen für 2040?</t>
-  </si>
-  <si>
     <t>Ziel Reduzierung Treibhausgasemmissionen 2050</t>
   </si>
   <si>
-    <t>Welche Zielsetzung verfolgt das Unternehmen bei der Reduzierung seiner Treibhausgasemissionen für 2050?</t>
-  </si>
-  <si>
     <t>Ziel Reduzierung Treibhausgasemmissionen Erläuterungen</t>
   </si>
   <si>
@@ -1327,15 +1285,9 @@
     <t>Ziel Anteil erneuerbarer Energien 2040</t>
   </si>
   <si>
-    <t>Welche Zielsetzung verfolgt das Unternehmen bzgl. des Anteils erneuerbarer Energien am gesamten Energieverbrauch für 2040?</t>
-  </si>
-  <si>
     <t>Ziel Anteil erneuerbarer Energien 2050</t>
   </si>
   <si>
-    <t>Welche Zielsetzung verfolgt das Unternehmen bzgl. des Anteils erneuerbarer Energien am gesamten Energieverbrauch für 2050?</t>
-  </si>
-  <si>
     <t>Ziel Anteil erneuerbarer Energien Erläuterungen</t>
   </si>
   <si>
@@ -1391,9 +1343,6 @@
   </si>
   <si>
     <t>38.3.1</t>
-  </si>
-  <si>
-    <t>Wie hoch ist der Anteil von wiederverwendeten oder recycelten sekundären Komponenten, Produkten und Materialien, der im Produktionsprozess des Unternehmens verwendet wird?</t>
   </si>
   <si>
     <t>Risiken und Maßnahmen Biodiversität und Ökosysteme</t>
@@ -1655,6 +1604,54 @@
   </si>
   <si>
     <t>Betriebsrat / gesetzliche Vertretungsorgane | Aufsichtsrat | Verwaltungsrat | Keine</t>
+  </si>
+  <si>
+    <t>Wie hoch ist die Häufigkeitsrate von Arbeitsunfällen des Unternehmens pro 500 Vollzeitbeschäftigte? Methodik analog zu ESRS S1-14.</t>
+  </si>
+  <si>
+    <t>Einbindung von Beschäftigten länderspezifische Erläuterungen</t>
+  </si>
+  <si>
+    <t>Wieviele Tranings- und Fortbildungsstunden erhielten Beschäftigte im letzten abgeschlossenen Geschäftsjahr? Methodik analog zu ESRS S1-13.</t>
+  </si>
+  <si>
+    <t>Wie hoch war die Fluktuationsquote im Unternehmen im letzten abgeschlossenen Geschäftsjahr? Methodik analog zu ESRS S1-6.</t>
+  </si>
+  <si>
+    <t>Allowed Range: [-INF, INF]</t>
+  </si>
+  <si>
+    <t>Wie hoch ist der Anteil von wiederverwendeten oder recycelten sekundären Komponenten, Produkten und Materialien, der im Produktionsprozess des Unternehmens verwendet wird? Methodik analog ESRS E5-4. Angabe als Anteil der verwendeten Ressourcen angeben (in %). Soweit das Unternehmen plant, den Anteil zu erhöhen, bitte hier kurz erörternde Ausführungen. Bei Bedarf können hier zudem weitere Details zur Verwendung von Recyclaten aufgeführt werden.</t>
+  </si>
+  <si>
+    <t>Hat das Unternehmen bereits ein ESG-Rating einer anerkannten Ratingagentur? Bitte Bericht hochladen falls vorhanden.</t>
+  </si>
+  <si>
+    <t>Welche Zielsetzung verfolgt das Unternehmen bei der Reduzierung seiner Treibhausgasemissionen für 2040? Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Welche Zielsetzung verfolgt das Unternehmen bei der Reduzierung seiner Treibhausgasemissionen für 2050? Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Welche Zielsetzung verfolgt das Unternehmen bzgl. des Anteils erneuerbarer Energien am gesamten Energieverbrauch für 2040?  Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Welche Zielsetzung verfolgt das Unternehmen bzgl. des Anteils erneuerbarer Energien am gesamten Energieverbrauch für 2050? Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Herstellung von Chemikalien" zurückzuführen sein?  Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Umstrittene Waffen" zurückzuführen sein?  Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Tabakanbau und -verarbeitung" zurückzuführen sein?  Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Welcher prozentuale Anteil am Gesamtumsatz wird im Jahr 2040 voraussichtlich auf den Sektor "Fossile Brennstoffe (Kohle, Gas, Öl)" zurückzuführen sein?  Optionale Angabe.</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -2569,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2636,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>16</v>
@@ -2666,13 +2663,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="15" t="s">
@@ -2693,13 +2690,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="E4" s="39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="15" t="s">
@@ -2724,13 +2721,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="15" t="s">
@@ -2755,13 +2752,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="20" t="s">
@@ -2780,29 +2777,29 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="17" t="s">
@@ -2815,29 +2812,29 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="17" t="s">
@@ -2850,29 +2847,29 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="23" t="s">
@@ -2885,29 +2882,29 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="23" t="s">
@@ -2920,29 +2917,29 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="23" t="s">
@@ -2955,29 +2952,29 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="23" t="s">
@@ -2996,13 +2993,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="20" t="s">
@@ -3023,17 +3020,17 @@
         <v>20</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3050,23 +3047,23 @@
         <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="23"/>
@@ -3075,29 +3072,29 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="23"/>
@@ -3106,29 +3103,29 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="23"/>
@@ -3137,23 +3134,23 @@
     </row>
     <row r="18" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H18" s="102"/>
       <c r="I18" s="28"/>
@@ -3164,23 +3161,23 @@
     </row>
     <row r="19" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H19" s="102"/>
       <c r="I19" s="28"/>
@@ -3191,29 +3188,29 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="23"/>
@@ -3222,29 +3219,29 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="23"/>
@@ -3253,29 +3250,29 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="23"/>
@@ -3284,23 +3281,23 @@
     </row>
     <row r="23" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H23" s="102"/>
       <c r="I23" s="28"/>
@@ -3311,23 +3308,23 @@
     </row>
     <row r="24" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H24" s="102"/>
       <c r="I24" s="28"/>
@@ -3338,19 +3335,19 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="20" t="s">
@@ -3365,29 +3362,29 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="28"/>
       <c r="J26" s="12"/>
       <c r="K26" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L26" s="26" t="s">
         <v>14</v>
@@ -3396,29 +3393,29 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="28"/>
       <c r="J27" s="12"/>
       <c r="K27" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L27" s="26" t="s">
         <v>14</v>
@@ -3427,19 +3424,19 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="20" t="s">
@@ -3454,29 +3451,29 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="28"/>
       <c r="J29" s="12"/>
       <c r="K29" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L29" s="26" t="s">
         <v>14</v>
@@ -3485,29 +3482,29 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="28"/>
       <c r="J30" s="12"/>
       <c r="K30" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L30" s="26" t="s">
         <v>14</v>
@@ -3516,29 +3513,29 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>151</v>
+        <v>530</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="28"/>
       <c r="J31" s="12"/>
       <c r="K31" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L31" s="26" t="s">
         <v>14</v>
@@ -3547,19 +3544,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="20" t="s">
@@ -3574,29 +3571,29 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="28"/>
       <c r="J33" s="12"/>
       <c r="K33" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L33" s="26" t="s">
         <v>14</v>
@@ -3605,29 +3602,29 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="28"/>
       <c r="J34" s="12"/>
       <c r="K34" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L34" s="26" t="s">
         <v>14</v>
@@ -3636,29 +3633,29 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>158</v>
+        <v>527</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="28"/>
       <c r="J35" s="12"/>
       <c r="K35" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>14</v>
@@ -3667,19 +3664,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="20" t="s">
@@ -3694,29 +3691,29 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="28"/>
       <c r="J37" s="12"/>
       <c r="K37" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L37" s="26" t="s">
         <v>14</v>
@@ -3725,29 +3722,29 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="28"/>
       <c r="J38" s="12"/>
       <c r="K38" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L38" s="26" t="s">
         <v>14</v>
@@ -3756,29 +3753,29 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>166</v>
+        <v>528</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="28"/>
       <c r="J39" s="12"/>
       <c r="K39" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L39" s="26" t="s">
         <v>14</v>
@@ -3787,19 +3784,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="20" t="s">
@@ -3814,29 +3811,29 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="28"/>
       <c r="J41" s="12"/>
       <c r="K41" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>14</v>
@@ -3845,29 +3842,29 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="28"/>
       <c r="J42" s="12"/>
       <c r="K42" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L42" s="26" t="s">
         <v>14</v>
@@ -3876,29 +3873,29 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>190</v>
+        <v>529</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="28"/>
       <c r="J43" s="12"/>
       <c r="K43" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L43" s="26" t="s">
         <v>14</v>
@@ -3907,19 +3904,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>60</v>
+        <v>522</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="15" t="s">
@@ -3927,36 +3924,38 @@
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
+      <c r="J44" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="K44" s="17"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="12"/>
       <c r="K45" s="17" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>14</v>
@@ -3965,86 +3964,84 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="15"/>
       <c r="K46" s="17" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>14</v>
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>196</v>
+    <row r="47" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="15" t="s">
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="K47" s="17"/>
+      <c r="L47" s="12"/>
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>13</v>
@@ -4060,22 +4057,22 @@
     </row>
     <row r="49" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>13</v>
@@ -4091,22 +4088,22 @@
     </row>
     <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>13</v>
@@ -4120,24 +4117,24 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>13</v>
@@ -4151,24 +4148,24 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>13</v>
@@ -4184,22 +4181,22 @@
     </row>
     <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>13</v>
@@ -4215,83 +4212,85 @@
     </row>
     <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>475</v>
+        <v>205</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>212</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F54" s="10"/>
       <c r="G54" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="J54" s="15"/>
       <c r="K54" s="17"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="G55" s="25" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="12"/>
+      <c r="K55" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>215</v>
+        <v>41</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -4304,42 +4303,36 @@
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="10"/>
       <c r="G57" s="21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="12"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
     </row>
     <row r="58" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>20</v>
@@ -4348,25 +4341,31 @@
         <v>45</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-    </row>
-    <row r="59" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>20</v>
@@ -4375,20 +4374,20 @@
         <v>45</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>494</v>
+        <v>50</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="15"/>
+      <c r="J59" s="12"/>
       <c r="K59" s="17" t="s">
         <v>53</v>
       </c>
@@ -4397,60 +4396,56 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="K60" s="17"/>
+      <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="11"/>
+        <v>211</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="I61" s="11"/>
       <c r="J61" s="12"/>
       <c r="K61" s="17"/>
@@ -4459,52 +4454,50 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>222</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="12"/>
       <c r="K62" s="17"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="29" t="s">
-        <v>22</v>
+        <v>57</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -4513,9 +4506,9 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>20</v>
@@ -4523,195 +4516,199 @@
       <c r="C64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="15" t="s">
-        <v>13</v>
+      <c r="D64" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="12"/>
+      <c r="K64" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="29" t="s">
-        <v>22</v>
+        <v>220</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="K65" s="17"/>
+      <c r="L65" s="12"/>
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="15" t="s">
-        <v>400</v>
+        <v>220</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="12"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="12"/>
+      <c r="K66" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="29" t="s">
-        <v>22</v>
+        <v>220</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="K67" s="17"/>
+      <c r="L67" s="12"/>
       <c r="M67" s="12"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="D68" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="15" t="s">
-        <v>400</v>
+      <c r="F68" s="27"/>
+      <c r="G68" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="12"/>
+      <c r="K68" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>230</v>
+      </c>
       <c r="J69" s="12"/>
-      <c r="K69" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="K69" s="17"/>
+      <c r="L69" s="12"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>237</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="F70" s="10"/>
+        <v>240</v>
+      </c>
+      <c r="F70" s="41"/>
       <c r="G70" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="17"/>
@@ -4720,122 +4717,122 @@
     </row>
     <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="17"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F72" s="41"/>
       <c r="G72" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="17"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D73" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E73" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="F73" s="41"/>
+      <c r="G73" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="17"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="E74" s="38" t="s">
         <v>250</v>
       </c>
       <c r="F74" s="41"/>
       <c r="G74" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" s="17"/>
@@ -4844,29 +4841,29 @@
     </row>
     <row r="75" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F75" s="41"/>
       <c r="G75" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="17"/>
@@ -4875,92 +4872,88 @@
     </row>
     <row r="76" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F76" s="41"/>
+        <v>252</v>
+      </c>
+      <c r="F76" s="27"/>
       <c r="G76" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J76" s="12"/>
       <c r="K76" s="17"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="F77" s="27"/>
+        <v>256</v>
+      </c>
+      <c r="F77" s="41"/>
       <c r="G77" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J77" s="12"/>
       <c r="K77" s="17"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>259</v>
       </c>
       <c r="F78" s="41"/>
       <c r="G78" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>265</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="12"/>
       <c r="K78" s="17"/>
       <c r="L78" s="12"/>
@@ -4968,26 +4961,30 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="F79" s="41"/>
       <c r="G79" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="J79" s="12"/>
       <c r="K79" s="17"/>
       <c r="L79" s="12"/>
@@ -4995,29 +4992,29 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D80" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="E80" s="38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="J80" s="12"/>
       <c r="K80" s="17"/>
@@ -5026,114 +5023,112 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="F81" s="41"/>
+        <v>266</v>
+      </c>
+      <c r="F81" s="27"/>
       <c r="G81" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="12"/>
       <c r="K81" s="17"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="F82" s="27"/>
+        <v>269</v>
+      </c>
+      <c r="F82" s="41"/>
       <c r="G82" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="J82" s="12"/>
       <c r="K82" s="17"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="105" t="s">
+        <v>370</v>
+      </c>
+      <c r="D83" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="D83" s="21" t="s">
-        <v>276</v>
-      </c>
       <c r="E83" s="38" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F83" s="41"/>
       <c r="G83" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="12"/>
       <c r="K83" s="17"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C84" s="105" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F84" s="41"/>
       <c r="G84" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="I84" s="11"/>
       <c r="J84" s="12"/>
       <c r="K84" s="17"/>
@@ -5142,27 +5137,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C85" s="105" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F85" s="41"/>
       <c r="G85" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>282</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="12"/>
       <c r="K85" s="17"/>
@@ -5171,23 +5164,23 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C86" s="105" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F86" s="41"/>
+        <v>280</v>
+      </c>
+      <c r="F86" s="27"/>
       <c r="G86" s="29" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -5198,226 +5191,226 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C87" s="105" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="F87" s="27"/>
+        <v>283</v>
+      </c>
+      <c r="F87" s="41"/>
       <c r="G87" s="29" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="12"/>
+      <c r="K87" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="M87" s="12"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C88" s="105" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="29" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="12"/>
       <c r="K88" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L88" s="12" t="s">
         <v>14</v>
       </c>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C89" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>294</v>
+        <v>370</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="56" t="s">
+        <v>376</v>
       </c>
       <c r="F89" s="41"/>
       <c r="G89" s="29" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="12"/>
       <c r="K89" s="17" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="L89" s="12" t="s">
         <v>14</v>
       </c>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="34" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C90" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="D90" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="E90" s="56" t="s">
-        <v>388</v>
+        <v>370</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>377</v>
       </c>
       <c r="F90" s="41"/>
       <c r="G90" s="29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="K90" s="17"/>
+      <c r="L90" s="12"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C91" s="105" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F91" s="41"/>
       <c r="G91" s="29" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="12"/>
+      <c r="K91" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="34" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C92" s="105" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F92" s="41"/>
       <c r="G92" s="29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="L92" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="J92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="17"/>
+      <c r="L92" s="12"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="F93" s="41"/>
-      <c r="G93" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K93" s="17"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
+    <row r="93" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="F93" s="57"/>
+      <c r="G93" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
     </row>
     <row r="94" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A94" s="63" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F94" s="57"/>
       <c r="G94" s="60" t="s">
@@ -5430,110 +5423,110 @@
       <c r="L94" s="59"/>
       <c r="M94" s="59"/>
     </row>
-    <row r="95" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="63" t="s">
-        <v>397</v>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="73" t="s">
+        <v>390</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="61" t="s">
-        <v>382</v>
+        <v>69</v>
+      </c>
+      <c r="C95" s="70" t="s">
+        <v>370</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="F95" s="57"/>
-      <c r="G95" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="62"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
+        <v>387</v>
+      </c>
+      <c r="F95" s="66"/>
+      <c r="G95" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="68"/>
+      <c r="M95" s="68"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="73" t="s">
-        <v>402</v>
-      </c>
-      <c r="B96" s="64" t="s">
-        <v>72</v>
+      <c r="A96" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="69" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H96" s="67"/>
       <c r="I96" s="67"/>
       <c r="J96" s="68"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="68"/>
+      <c r="K96" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="L96" s="68" t="s">
+        <v>14</v>
+      </c>
       <c r="M96" s="68"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="B97" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="70" t="s">
-        <v>382</v>
+      <c r="A97" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="78" t="s">
+        <v>370</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>497</v>
+        <v>392</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="68"/>
-      <c r="K97" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="L97" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="M97" s="68"/>
+        <v>393</v>
+      </c>
+      <c r="F97" s="74"/>
+      <c r="G97" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="76"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="76"/>
+      <c r="M97" s="76"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C98" s="78" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>405</v>
+        <v>523</v>
       </c>
       <c r="F98" s="74"/>
       <c r="G98" s="77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H98" s="75"/>
       <c r="I98" s="75"/>
@@ -5544,23 +5537,23 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C99" s="78" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>407</v>
+        <v>524</v>
       </c>
       <c r="F99" s="74"/>
       <c r="G99" s="77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H99" s="75"/>
       <c r="I99" s="75"/>
@@ -5569,25 +5562,25 @@
       <c r="L99" s="76"/>
       <c r="M99" s="76"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C100" s="78" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F100" s="74"/>
       <c r="G100" s="77" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -5596,110 +5589,110 @@
       <c r="L100" s="76"/>
       <c r="M100" s="76"/>
     </row>
-    <row r="101" spans="1:13" ht="39" x14ac:dyDescent="0.25">
-      <c r="A101" s="63" t="s">
-        <v>412</v>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="73" t="s">
+        <v>404</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="78" t="s">
-        <v>382</v>
+        <v>69</v>
+      </c>
+      <c r="C101" s="84" t="s">
+        <v>370</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F101" s="74"/>
-      <c r="G101" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="75"/>
-      <c r="I101" s="75"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="79"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
+        <v>403</v>
+      </c>
+      <c r="F101" s="80"/>
+      <c r="G101" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="81"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="82"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="82"/>
+      <c r="M101" s="82"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="73" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C102" s="84" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F102" s="80"/>
       <c r="G102" s="83" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H102" s="81"/>
       <c r="I102" s="81"/>
       <c r="J102" s="82"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="82"/>
+      <c r="K102" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="L102" s="82" t="s">
+        <v>14</v>
+      </c>
       <c r="M102" s="82"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="73" t="s">
-        <v>419</v>
+      <c r="A103" s="63" t="s">
+        <v>412</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="84" t="s">
-        <v>382</v>
+        <v>69</v>
+      </c>
+      <c r="C103" s="90" t="s">
+        <v>370</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="F103" s="80"/>
-      <c r="G103" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" s="81"/>
-      <c r="I103" s="81"/>
-      <c r="J103" s="82"/>
-      <c r="K103" s="85" t="s">
-        <v>418</v>
-      </c>
-      <c r="L103" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="M103" s="82"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="F103" s="86"/>
+      <c r="G103" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="H103" s="87"/>
+      <c r="I103" s="87"/>
+      <c r="J103" s="88"/>
+      <c r="K103" s="91"/>
+      <c r="L103" s="88"/>
+      <c r="M103" s="12"/>
+    </row>
+    <row r="104" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C104" s="90" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>422</v>
+        <v>525</v>
       </c>
       <c r="F104" s="86"/>
       <c r="G104" s="89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H104" s="87"/>
       <c r="I104" s="87"/>
@@ -5708,25 +5701,25 @@
       <c r="L104" s="88"/>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C105" s="90" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>424</v>
+        <v>526</v>
       </c>
       <c r="F105" s="86"/>
       <c r="G105" s="89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H105" s="87"/>
       <c r="I105" s="87"/>
@@ -5737,23 +5730,23 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C106" s="90" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F106" s="86"/>
       <c r="G106" s="89" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H106" s="87"/>
       <c r="I106" s="87"/>
@@ -5763,109 +5756,109 @@
       <c r="M106" s="12"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="63" t="s">
-        <v>431</v>
+      <c r="A107" s="73" t="s">
+        <v>425</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="90" t="s">
-        <v>382</v>
+        <v>69</v>
+      </c>
+      <c r="C107" s="97" t="s">
+        <v>417</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="F107" s="86"/>
-      <c r="G107" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" s="87"/>
-      <c r="I107" s="87"/>
-      <c r="J107" s="88"/>
-      <c r="K107" s="91"/>
-      <c r="L107" s="88"/>
-      <c r="M107" s="12"/>
+        <v>419</v>
+      </c>
+      <c r="F107" s="93"/>
+      <c r="G107" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="95"/>
+      <c r="K107" s="98"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="95"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="73" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C108" s="97" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F108" s="93"/>
       <c r="G108" s="96" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H108" s="94"/>
       <c r="I108" s="94"/>
       <c r="J108" s="95"/>
-      <c r="K108" s="98"/>
-      <c r="L108" s="95"/>
+      <c r="K108" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="L108" s="95" t="s">
+        <v>14</v>
+      </c>
       <c r="M108" s="95"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A109" s="73" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C109" s="97" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>499</v>
+        <v>421</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="F109" s="93"/>
       <c r="G109" s="96" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="H109" s="94"/>
       <c r="I109" s="94"/>
       <c r="J109" s="95"/>
-      <c r="K109" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="L109" s="95" t="s">
-        <v>14</v>
-      </c>
+      <c r="K109" s="98"/>
+      <c r="L109" s="95"/>
       <c r="M109" s="95"/>
     </row>
-    <row r="110" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="73" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C110" s="97" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="F110" s="93"/>
       <c r="G110" s="96" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="H110" s="94"/>
       <c r="I110" s="94"/>
@@ -5876,162 +5869,166 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="73" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C111" s="97" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F111" s="93"/>
       <c r="G111" s="96" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H111" s="94"/>
       <c r="I111" s="94"/>
       <c r="J111" s="95"/>
-      <c r="K111" s="98"/>
-      <c r="L111" s="95"/>
+      <c r="K111" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="L111" s="95" t="s">
+        <v>14</v>
+      </c>
       <c r="M111" s="95"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="73" t="s">
-        <v>445</v>
+    <row r="112" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="63" t="s">
+        <v>441</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C112" s="97" t="s">
-        <v>433</v>
+        <v>69</v>
+      </c>
+      <c r="C112" s="105" t="s">
+        <v>430</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="F112" s="93"/>
-      <c r="G112" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="94"/>
-      <c r="I112" s="94"/>
-      <c r="J112" s="95"/>
-      <c r="K112" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="L112" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="M112" s="95"/>
+        <v>432</v>
+      </c>
+      <c r="F112" s="101"/>
+      <c r="G112" s="104" t="s">
+        <v>388</v>
+      </c>
+      <c r="H112" s="102"/>
+      <c r="I112" s="102"/>
+      <c r="J112" s="103"/>
+      <c r="K112" s="106"/>
+      <c r="L112" s="103"/>
+      <c r="M112" s="103"/>
     </row>
     <row r="113" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C113" s="105" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F113" s="101"/>
       <c r="G113" s="104" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H113" s="102"/>
       <c r="I113" s="102"/>
       <c r="J113" s="103"/>
-      <c r="K113" s="106"/>
-      <c r="L113" s="103"/>
+      <c r="K113" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="L113" s="103" t="s">
+        <v>14</v>
+      </c>
       <c r="M113" s="103"/>
     </row>
     <row r="114" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C114" s="105" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="F114" s="101"/>
       <c r="G114" s="104" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="H114" s="102"/>
       <c r="I114" s="102"/>
       <c r="J114" s="103"/>
-      <c r="K114" s="106" t="s">
-        <v>458</v>
-      </c>
-      <c r="L114" s="103" t="s">
-        <v>14</v>
-      </c>
+      <c r="K114" s="106"/>
+      <c r="L114" s="103"/>
       <c r="M114" s="103"/>
     </row>
     <row r="115" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C115" s="105" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="F115" s="101"/>
       <c r="G115" s="104" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H115" s="102"/>
       <c r="I115" s="102"/>
       <c r="J115" s="103"/>
-      <c r="K115" s="106"/>
-      <c r="L115" s="103"/>
+      <c r="K115" s="106" t="s">
+        <v>443</v>
+      </c>
+      <c r="L115" s="103" t="s">
+        <v>14</v>
+      </c>
       <c r="M115" s="103"/>
     </row>
     <row r="116" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C116" s="105" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="F116" s="101"/>
       <c r="G116" s="104" t="s">
@@ -6041,7 +6038,7 @@
       <c r="I116" s="102"/>
       <c r="J116" s="103"/>
       <c r="K116" s="106" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="L116" s="103" t="s">
         <v>14</v>
@@ -6050,118 +6047,116 @@
     </row>
     <row r="117" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B117" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C117" s="105" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E117" s="39" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F117" s="101"/>
       <c r="G117" s="104" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="H117" s="102"/>
       <c r="I117" s="102"/>
       <c r="J117" s="103"/>
-      <c r="K117" s="106" t="s">
-        <v>460</v>
-      </c>
-      <c r="L117" s="103" t="s">
-        <v>14</v>
-      </c>
+      <c r="K117" s="106"/>
+      <c r="L117" s="103"/>
       <c r="M117" s="103"/>
     </row>
-    <row r="118" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B118" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C118" s="105" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F118" s="101"/>
       <c r="G118" s="104" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H118" s="102"/>
       <c r="I118" s="102"/>
       <c r="J118" s="103"/>
-      <c r="K118" s="106"/>
-      <c r="L118" s="103"/>
+      <c r="K118" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="L118" s="103" t="s">
+        <v>14</v>
+      </c>
       <c r="M118" s="103"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="63" t="s">
-        <v>464</v>
-      </c>
-      <c r="B119" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" s="105" t="s">
-        <v>447</v>
-      </c>
-      <c r="D119" s="40" t="s">
-        <v>503</v>
-      </c>
-      <c r="E119" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="F119" s="101"/>
-      <c r="G119" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="102"/>
-      <c r="I119" s="102"/>
-      <c r="J119" s="103"/>
-      <c r="K119" s="106" t="s">
-        <v>463</v>
-      </c>
-      <c r="L119" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="M119" s="103"/>
-    </row>
-    <row r="120" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A119" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D119" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="E119" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G119" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H119" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="I119" s="51"/>
+      <c r="J119" s="52"/>
+      <c r="K119" s="53"/>
+      <c r="L119" s="52"/>
+      <c r="M119" s="12"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D120" s="110" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E120" s="111" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F120" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="G120" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H120" s="51" t="s">
-        <v>488</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G120" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="H120" s="51"/>
       <c r="I120" s="51"/>
       <c r="J120" s="52"/>
       <c r="K120" s="53"/>
@@ -6170,25 +6165,25 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="99" t="s">
-        <v>86</v>
+        <v>355</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C121" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D121" s="110" t="s">
+        <v>297</v>
+      </c>
+      <c r="E121" s="111" t="s">
         <v>298</v>
       </c>
-      <c r="D121" s="110" t="s">
-        <v>302</v>
-      </c>
-      <c r="E121" s="111" t="s">
-        <v>303</v>
-      </c>
       <c r="F121" s="49" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G121" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
@@ -6199,25 +6194,25 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="99" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B122" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D122" s="110" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E122" s="111" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F122" s="49" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G122" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
@@ -6226,30 +6221,32 @@
       <c r="L122" s="52"/>
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="99" t="s">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D123" s="110" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E123" s="111" t="s">
-        <v>309</v>
-      </c>
-      <c r="F123" s="49" t="s">
-        <v>310</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="F123" s="49"/>
       <c r="G123" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
+        <v>65</v>
+      </c>
+      <c r="H123" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="I123" s="51" t="s">
+        <v>531</v>
+      </c>
       <c r="J123" s="52"/>
       <c r="K123" s="53"/>
       <c r="L123" s="52"/>
@@ -6257,50 +6254,54 @@
     </row>
     <row r="124" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B124" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D124" s="110" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E124" s="111" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F124" s="49"/>
       <c r="G124" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="H124" s="51"/>
-      <c r="I124" s="51"/>
+        <v>65</v>
+      </c>
+      <c r="H124" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="I124" s="51" t="s">
+        <v>531</v>
+      </c>
       <c r="J124" s="52"/>
       <c r="K124" s="53"/>
       <c r="L124" s="52"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="99" t="s">
-        <v>88</v>
+        <v>357</v>
       </c>
       <c r="B125" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D125" s="110" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E125" s="111" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F125" s="49"/>
       <c r="G125" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
@@ -6311,23 +6312,23 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="99" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B126" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E126" s="111" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F126" s="49"/>
       <c r="G126" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H126" s="51"/>
       <c r="I126" s="51"/>
@@ -6338,23 +6339,23 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="99" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B127" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D127" s="110" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E127" s="111" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F127" s="49"/>
       <c r="G127" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
@@ -6365,25 +6366,27 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="99" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B128" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D128" s="110" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E128" s="111" t="s">
-        <v>320</v>
+        <v>518</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="H128" s="51"/>
+        <v>65</v>
+      </c>
+      <c r="H128" s="51" t="s">
+        <v>471</v>
+      </c>
       <c r="I128" s="51"/>
       <c r="J128" s="52"/>
       <c r="K128" s="53"/>
@@ -6392,133 +6395,131 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="99" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B129" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D129" s="110" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E129" s="111" t="s">
-        <v>322</v>
+        <v>519</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H129" s="51" t="s">
-        <v>488</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H129" s="51"/>
       <c r="I129" s="51"/>
       <c r="J129" s="52"/>
       <c r="K129" s="53"/>
       <c r="L129" s="52"/>
       <c r="M129" s="12"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="99" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B130" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D130" s="110" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E130" s="111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="H130" s="51"/>
+        <v>27</v>
+      </c>
+      <c r="H130" s="51" t="s">
+        <v>514</v>
+      </c>
       <c r="I130" s="51"/>
       <c r="J130" s="52"/>
       <c r="K130" s="53"/>
       <c r="L130" s="52"/>
-      <c r="M130" s="12"/>
-    </row>
-    <row r="131" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="103"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="99" t="s">
-        <v>374</v>
+        <v>511</v>
       </c>
       <c r="B131" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D131" s="110" t="s">
-        <v>326</v>
+        <v>513</v>
       </c>
       <c r="E131" s="111" t="s">
-        <v>327</v>
+        <v>512</v>
       </c>
       <c r="F131" s="49"/>
       <c r="G131" s="54" t="s">
         <v>25</v>
       </c>
       <c r="H131" s="51" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="I131" s="51"/>
       <c r="J131" s="52"/>
       <c r="K131" s="53"/>
       <c r="L131" s="52"/>
-      <c r="M131" s="103"/>
+      <c r="M131" s="12"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="99" t="s">
-        <v>528</v>
+        <v>363</v>
       </c>
       <c r="B132" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D132" s="110" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E132" s="111" t="s">
-        <v>529</v>
+        <v>318</v>
       </c>
       <c r="F132" s="49"/>
-      <c r="G132" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H132" s="51" t="s">
-        <v>532</v>
-      </c>
+      <c r="G132" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="51"/>
       <c r="I132" s="51"/>
       <c r="J132" s="52"/>
       <c r="K132" s="53"/>
       <c r="L132" s="52"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="99" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B133" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D133" s="110" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E133" s="111" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="50" t="s">
@@ -6531,27 +6532,29 @@
       <c r="L133" s="52"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="99" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B134" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D134" s="110" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E134" s="111" t="s">
-        <v>332</v>
+        <v>516</v>
       </c>
       <c r="F134" s="49"/>
-      <c r="G134" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H134" s="51"/>
+      <c r="G134" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H134" s="51" t="s">
+        <v>471</v>
+      </c>
       <c r="I134" s="51"/>
       <c r="J134" s="52"/>
       <c r="K134" s="53"/>
@@ -6560,27 +6563,25 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="99" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B135" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D135" s="110" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E135" s="111" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F135" s="49"/>
-      <c r="G135" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H135" s="51" t="s">
-        <v>488</v>
-      </c>
+      <c r="G135" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="51"/>
       <c r="I135" s="51"/>
       <c r="J135" s="52"/>
       <c r="K135" s="53"/>
@@ -6589,46 +6590,50 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="99" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B136" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D136" s="110" t="s">
-        <v>336</v>
+        <v>487</v>
       </c>
       <c r="E136" s="111" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F136" s="49"/>
       <c r="G136" s="50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
       <c r="J136" s="52"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="52"/>
+      <c r="K136" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="L136" s="52" t="s">
+        <v>14</v>
+      </c>
       <c r="M136" s="12"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="99" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B137" s="100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D137" s="110" t="s">
-        <v>504</v>
+        <v>327</v>
       </c>
       <c r="E137" s="111" t="s">
-        <v>338</v>
+        <v>508</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="50" t="s">
@@ -6637,35 +6642,35 @@
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
       <c r="J137" s="52"/>
-      <c r="K137" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="L137" s="52" t="s">
-        <v>14</v>
-      </c>
+      <c r="K137" s="53"/>
+      <c r="L137" s="52"/>
       <c r="M137" s="12"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="B138" s="100" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D138" s="110" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E138" s="111" t="s">
-        <v>525</v>
-      </c>
-      <c r="F138" s="49"/>
+        <v>331</v>
+      </c>
+      <c r="F138" s="49" t="s">
+        <v>332</v>
+      </c>
       <c r="G138" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="51"/>
+        <v>27</v>
+      </c>
+      <c r="H138" s="51" t="s">
+        <v>369</v>
+      </c>
       <c r="I138" s="51"/>
       <c r="J138" s="52"/>
       <c r="K138" s="53"/>
@@ -6674,29 +6679,27 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="99" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B139" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D139" s="110" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E139" s="111" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F139" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="G139" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" s="51" t="s">
-        <v>381</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G139" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="H139" s="51"/>
       <c r="I139" s="51"/>
       <c r="J139" s="52"/>
       <c r="K139" s="53"/>
@@ -6705,25 +6708,25 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="99" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B140" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D140" s="110" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E140" s="111" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F140" s="49" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
@@ -6734,25 +6737,25 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B141" s="100" t="s">
+        <v>328</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" s="110" t="s">
+        <v>339</v>
+      </c>
+      <c r="E141" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="C141" s="48" t="s">
+      <c r="F141" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="D141" s="110" t="s">
-        <v>348</v>
-      </c>
-      <c r="E141" s="111" t="s">
-        <v>349</v>
-      </c>
-      <c r="F141" s="49" t="s">
-        <v>350</v>
-      </c>
       <c r="G141" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
@@ -6763,25 +6766,23 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="99" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B142" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D142" s="110" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E142" s="111" t="s">
-        <v>352</v>
-      </c>
-      <c r="F142" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="G142" s="54" t="s">
-        <v>138</v>
+        <v>343</v>
+      </c>
+      <c r="F142" s="49"/>
+      <c r="G142" s="50" t="s">
+        <v>13</v>
       </c>
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
@@ -6792,86 +6793,88 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="99" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B143" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D143" s="110" t="s">
-        <v>354</v>
+        <v>488</v>
       </c>
       <c r="E143" s="111" t="s">
-        <v>355</v>
-      </c>
-      <c r="F143" s="49"/>
+        <v>344</v>
+      </c>
+      <c r="F143" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="G143" s="50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="52"/>
-      <c r="K143" s="53"/>
-      <c r="L143" s="52"/>
+      <c r="K143" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="L143" s="52" t="s">
+        <v>14</v>
+      </c>
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A144" s="99" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B144" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D144" s="110" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="E144" s="111" t="s">
-        <v>356</v>
-      </c>
-      <c r="F144" s="49" t="s">
-        <v>357</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="F144" s="49"/>
       <c r="G144" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="51"/>
+        <v>81</v>
+      </c>
+      <c r="H144" s="51" t="s">
+        <v>471</v>
+      </c>
       <c r="I144" s="51"/>
       <c r="J144" s="52"/>
-      <c r="K144" s="53" t="s">
-        <v>465</v>
-      </c>
-      <c r="L144" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="M144" s="12"/>
+      <c r="K144" s="53"/>
+      <c r="L144" s="52"/>
+      <c r="M144" s="103"/>
     </row>
     <row r="145" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A145" s="99" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B145" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D145" s="110" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E145" s="111" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H145" s="51" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I145" s="51"/>
       <c r="J145" s="52"/>
@@ -6881,26 +6884,26 @@
     </row>
     <row r="146" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B146" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C146" s="48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D146" s="110" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E146" s="111" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="F146" s="49"/>
       <c r="G146" s="50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H146" s="51" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I146" s="51"/>
       <c r="J146" s="52"/>
@@ -6908,110 +6911,108 @@
       <c r="L146" s="52"/>
       <c r="M146" s="103"/>
     </row>
-    <row r="147" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A147" s="99" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="B147" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D147" s="110" t="s">
-        <v>485</v>
+        <v>347</v>
       </c>
       <c r="E147" s="111" t="s">
-        <v>487</v>
+        <v>348</v>
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H147" s="51" t="s">
-        <v>488</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H147" s="51"/>
       <c r="I147" s="51"/>
       <c r="J147" s="52"/>
       <c r="K147" s="53"/>
       <c r="L147" s="52"/>
-      <c r="M147" s="103"/>
-    </row>
-    <row r="148" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="M147" s="12"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="99" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B148" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C148" s="48" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D148" s="110" t="s">
-        <v>359</v>
+        <v>489</v>
       </c>
       <c r="E148" s="111" t="s">
-        <v>360</v>
-      </c>
-      <c r="F148" s="49"/>
+        <v>349</v>
+      </c>
+      <c r="F148" s="49" t="s">
+        <v>350</v>
+      </c>
       <c r="G148" s="50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
       <c r="J148" s="52"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="52"/>
+      <c r="K148" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L148" s="52" t="s">
+        <v>14</v>
+      </c>
       <c r="M148" s="12"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="99" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B149" s="100" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D149" s="110" t="s">
-        <v>506</v>
+        <v>352</v>
       </c>
       <c r="E149" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="F149" s="49" t="s">
-        <v>362</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="F149" s="49"/>
       <c r="G149" s="50" t="s">
         <v>22</v>
       </c>
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
       <c r="J149" s="52"/>
-      <c r="K149" s="53" t="s">
-        <v>477</v>
-      </c>
-      <c r="L149" s="52" t="s">
-        <v>14</v>
-      </c>
+      <c r="K149" s="53"/>
+      <c r="L149" s="52"/>
       <c r="M149" s="12"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="B150" s="100" t="s">
-        <v>340</v>
+    <row r="150" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A150" s="109" t="s">
+        <v>462</v>
+      </c>
+      <c r="B150" s="108" t="s">
+        <v>328</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D150" s="110" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E150" s="111" t="s">
-        <v>365</v>
+        <v>509</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="50" t="s">
@@ -7024,38 +7025,11 @@
       <c r="L150" s="52"/>
       <c r="M150" s="12"/>
     </row>
-    <row r="151" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="109" t="s">
-        <v>479</v>
-      </c>
-      <c r="B151" s="108" t="s">
-        <v>340</v>
-      </c>
-      <c r="C151" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="D151" s="110" t="s">
-        <v>366</v>
-      </c>
-      <c r="E151" s="111" t="s">
-        <v>526</v>
-      </c>
-      <c r="F151" s="49"/>
-      <c r="G151" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H151" s="51"/>
-      <c r="I151" s="51"/>
-      <c r="J151" s="52"/>
-      <c r="K151" s="53"/>
-      <c r="L151" s="52"/>
-      <c r="M151" s="12"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="107"/>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
+++ b/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\dataland_alternative\dataland-framework-toolbox\inputs\esg-datenkatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9284F2B2-FE95-4D83-9936-E7AD7D5BE789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B80CAF-B51C-431E-9FC4-C57CC57A82C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10800" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,12 +103,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>(Gültigkeits) Datum</t>
-  </si>
-  <si>
-    <t>Datum bis wann die Information gültig ist</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -322,9 +316,6 @@
     <t>Bitte hängen Sie Ihre Nachhaltigkeitsstrategie an. Nachhaltigkeit in diesem Sinne umfasst die Themen Umwelt (E), Soziales (S) und Unternehmensführung (G). Sie können mehrere Dokumente anhängen und pro Dokument eine Beschreibung angeben.</t>
   </si>
   <si>
-    <t>Werden spezielle Ziele / Maßnahmen ergriffen, um das 1,5 °C Ziel zu erreichen?</t>
-  </si>
-  <si>
     <t>Dokumente zur Nachhaltigkeitsstrategie</t>
   </si>
   <si>
@@ -745,9 +736,6 @@
     <t>Scope 1 Treibhausgasemissionen</t>
   </si>
   <si>
-    <t>tCO²eq</t>
-  </si>
-  <si>
     <t>20.1</t>
   </si>
   <si>
@@ -784,9 +772,6 @@
     <t>Welche CO²-Intensität berechnet sich für das Unternehmen? Hierzu die Treibhausgasemissionen nach Scope 1 bis 3 addieren und durch den Gesamtumsatz des Unternehmens teilen. Daraus ergibt sich die CO²-Intensität in der Einheit tCO²eq pro Euro Umsatz.</t>
   </si>
   <si>
-    <t>tCO²eq/€</t>
-  </si>
-  <si>
     <t>Luftschadstoffe</t>
   </si>
   <si>
@@ -1231,19 +1216,7 @@
     <t>34.1</t>
   </si>
   <si>
-    <t>Ziel Reduzierung Treibhausgasemmissionen 2030</t>
-  </si>
-  <si>
     <t>Welche Zielsetzung verfolgt das Unternehmen bei der Reduzierung seiner Treibhausgasemissionen für 2030?</t>
-  </si>
-  <si>
-    <t>Ziel Reduzierung Treibhausgasemmissionen 2040</t>
-  </si>
-  <si>
-    <t>Ziel Reduzierung Treibhausgasemmissionen 2050</t>
-  </si>
-  <si>
-    <t>Ziel Reduzierung Treibhausgasemmissionen Erläuterungen</t>
   </si>
   <si>
     <t>Bitte die Zielsetzung konkretisieren, inkl. Zielwerte, Zwischenziele und zugrundeliegendem Scope der Treibhausgas-Emissionen. Soweit eine dezidierte Planung Planung zu Scope 1, 2, 3 besteht, bitte diese kurz darstellen. Bitte zudem kurze Darstellung, ob Reduktion konstant erfolgt oder von Einzelmaßnahmen abhängt sowie ob Pläne mit den Zielen des Pariser Klimaabkommens kompatibel sind.</t>
@@ -1474,12 +1447,6 @@
     <t>Allowed Range: [0, INF]</t>
   </si>
   <si>
-    <t>Nachhaltigkeitsstrategie</t>
-  </si>
-  <si>
-    <t>Skizzieren Sie spezielle Ziele / Maßnahmen, um das 1,5°C Ziel zu erreichen.</t>
-  </si>
-  <si>
     <t>Maßnahmen zur Erreichung des 1,5 Grad Celsius Ziels</t>
   </si>
   <si>
@@ -1570,18 +1537,6 @@
     <t>7.7</t>
   </si>
   <si>
-    <t>Anteil Taxonomiefähiger Umsatz</t>
-  </si>
-  <si>
-    <t>Anteil Taxonomiekonformer Umsatz</t>
-  </si>
-  <si>
-    <t>Anteil Taxonomiefähiger CapEx</t>
-  </si>
-  <si>
-    <t>Anteil Taxonomiekonformer CapEx</t>
-  </si>
-  <si>
     <t>Welche Maßnahmen hat das Unternehmen zur Reduzierung dieser sozialen Risiken getroffen, außer der bereits zuvor abgefragten Richtlinien?</t>
   </si>
   <si>
@@ -1652,13 +1607,100 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>Gültigkeitsdatum</t>
+  </si>
+  <si>
+    <t>Datum, bis wann die Information gültig ist.</t>
+  </si>
+  <si>
+    <t>Nachhaltigkeitsstrategie vorhanden</t>
+  </si>
+  <si>
+    <t>Werden spezielle Ziele/Maßnahmen ergriffen, um das 1,5 °C Ziel zu erreichen?</t>
+  </si>
+  <si>
+    <t>Skizzieren Sie spezielle Ziele / Maßnahmen, um das 1,5 °C Ziel zu erreichen.</t>
+  </si>
+  <si>
+    <t>Ziel Reduzierung Treibhausgasemissionen 2030</t>
+  </si>
+  <si>
+    <t>Ziel Reduzierung Treibhausgasemissionen 2040</t>
+  </si>
+  <si>
+    <t>Ziel Reduzierung Treibhausgasemissionen 2050</t>
+  </si>
+  <si>
+    <t>Ziel Reduzierung Treibhausgasemissionen Erläuterungen</t>
+  </si>
+  <si>
+    <r>
+      <t>tCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eq/€</t>
+    </r>
+  </si>
+  <si>
+    <t>Anteil taxonomiefähiger CapEx</t>
+  </si>
+  <si>
+    <t>Anteil taxonomiekonformer CapEx</t>
+  </si>
+  <si>
+    <t>Anteil taxonomiefähiger Umsatz</t>
+  </si>
+  <si>
+    <t>Anteil taxonomiekonformer Umsatz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1727,6 +1769,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2568,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,20 +2682,20 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>16</v>
+        <v>517</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>17</v>
+        <v>518</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="12"/>
@@ -2657,19 +2706,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="15" t="s">
@@ -2684,29 +2733,29 @@
     </row>
     <row r="4" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
       <c r="K4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>14</v>
@@ -2715,19 +2764,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>89</v>
+        <v>520</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="15" t="s">
@@ -2737,7 +2786,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="K5" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>14</v>
@@ -2746,29 +2795,29 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>14</v>
@@ -2777,33 +2826,33 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>14</v>
@@ -2812,33 +2861,33 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>98</v>
-      </c>
       <c r="E8" s="39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>14</v>
@@ -2847,33 +2896,33 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>14</v>
@@ -2882,33 +2931,33 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="E10" s="39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>14</v>
@@ -2917,33 +2966,33 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>14</v>
@@ -2952,33 +3001,33 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>14</v>
@@ -2987,23 +3036,23 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -3014,23 +3063,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3041,29 +3090,29 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="23"/>
@@ -3072,29 +3121,29 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="23"/>
@@ -3103,29 +3152,29 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="23"/>
@@ -3134,23 +3183,23 @@
     </row>
     <row r="18" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H18" s="102"/>
       <c r="I18" s="28"/>
@@ -3161,23 +3210,23 @@
     </row>
     <row r="19" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="102"/>
       <c r="I19" s="28"/>
@@ -3188,29 +3237,29 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="23"/>
@@ -3219,29 +3268,29 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="23"/>
@@ -3250,29 +3299,29 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="23"/>
@@ -3281,23 +3330,23 @@
     </row>
     <row r="23" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" s="102"/>
       <c r="I23" s="28"/>
@@ -3308,23 +3357,23 @@
     </row>
     <row r="24" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H24" s="102"/>
       <c r="I24" s="28"/>
@@ -3335,19 +3384,19 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="20" t="s">
@@ -3362,29 +3411,29 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="28"/>
       <c r="J26" s="12"/>
       <c r="K26" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L26" s="26" t="s">
         <v>14</v>
@@ -3393,29 +3442,29 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="28"/>
       <c r="J27" s="12"/>
       <c r="K27" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L27" s="26" t="s">
         <v>14</v>
@@ -3424,19 +3473,19 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="20" t="s">
@@ -3451,29 +3500,29 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="28"/>
       <c r="J29" s="12"/>
       <c r="K29" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L29" s="26" t="s">
         <v>14</v>
@@ -3482,29 +3531,29 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="28"/>
       <c r="J30" s="12"/>
       <c r="K30" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L30" s="26" t="s">
         <v>14</v>
@@ -3513,29 +3562,29 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="28"/>
       <c r="J31" s="12"/>
       <c r="K31" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L31" s="26" t="s">
         <v>14</v>
@@ -3544,19 +3593,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="20" t="s">
@@ -3571,29 +3620,29 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="28"/>
       <c r="J33" s="12"/>
       <c r="K33" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L33" s="26" t="s">
         <v>14</v>
@@ -3602,29 +3651,29 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="28"/>
       <c r="J34" s="12"/>
       <c r="K34" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L34" s="26" t="s">
         <v>14</v>
@@ -3633,29 +3682,29 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="28"/>
       <c r="J35" s="12"/>
       <c r="K35" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>14</v>
@@ -3664,19 +3713,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="20" t="s">
@@ -3691,29 +3740,29 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="28"/>
       <c r="J37" s="12"/>
       <c r="K37" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L37" s="26" t="s">
         <v>14</v>
@@ -3722,29 +3771,29 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="28"/>
       <c r="J38" s="12"/>
       <c r="K38" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L38" s="26" t="s">
         <v>14</v>
@@ -3753,29 +3802,29 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="28"/>
       <c r="J39" s="12"/>
       <c r="K39" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L39" s="26" t="s">
         <v>14</v>
@@ -3784,19 +3833,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="20" t="s">
@@ -3811,29 +3860,29 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="28"/>
       <c r="J41" s="12"/>
       <c r="K41" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>14</v>
@@ -3842,29 +3891,29 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="28"/>
       <c r="J42" s="12"/>
       <c r="K42" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L42" s="26" t="s">
         <v>14</v>
@@ -3873,29 +3922,29 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="28"/>
       <c r="J43" s="12"/>
       <c r="K43" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L43" s="26" t="s">
         <v>14</v>
@@ -3904,19 +3953,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="15" t="s">
@@ -3925,7 +3974,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="12"/>
@@ -3933,29 +3982,29 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="12"/>
       <c r="K45" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>14</v>
@@ -3964,29 +4013,29 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="15"/>
       <c r="K46" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>14</v>
@@ -3995,22 +4044,22 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>13</v>
@@ -4018,7 +4067,7 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="12"/>
@@ -4026,22 +4075,22 @@
     </row>
     <row r="48" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>13</v>
@@ -4049,7 +4098,7 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="12"/>
@@ -4057,22 +4106,22 @@
     </row>
     <row r="49" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>13</v>
@@ -4080,7 +4129,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="12"/>
@@ -4088,22 +4137,22 @@
     </row>
     <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>13</v>
@@ -4111,7 +4160,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="12"/>
@@ -4119,22 +4168,22 @@
     </row>
     <row r="51" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>13</v>
@@ -4142,7 +4191,7 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="12"/>
@@ -4150,22 +4199,22 @@
     </row>
     <row r="52" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>13</v>
@@ -4173,7 +4222,7 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K52" s="17"/>
       <c r="L52" s="12"/>
@@ -4181,22 +4230,22 @@
     </row>
     <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>13</v>
@@ -4204,7 +4253,7 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="12"/>
@@ -4212,19 +4261,19 @@
     </row>
     <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="25" t="s">
@@ -4239,31 +4288,31 @@
     </row>
     <row r="55" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="15"/>
       <c r="K55" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L55" s="12" t="s">
         <v>14</v>
@@ -4272,31 +4321,31 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="15"/>
       <c r="K56" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L56" s="12" t="s">
         <v>14</v>
@@ -4305,19 +4354,19 @@
     </row>
     <row r="57" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="21" t="s">
@@ -4332,31 +4381,31 @@
     </row>
     <row r="58" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="15"/>
       <c r="K58" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L58" s="12" t="s">
         <v>14</v>
@@ -4365,31 +4414,31 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="29" t="s">
         <v>20</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="12"/>
       <c r="K59" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>14</v>
@@ -4398,23 +4447,23 @@
     </row>
     <row r="60" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -4425,26 +4474,26 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="12"/>
@@ -4454,23 +4503,23 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -4481,19 +4530,19 @@
     </row>
     <row r="63" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="15" t="s">
@@ -4508,29 +4557,29 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="12"/>
       <c r="K64" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L64" s="12" t="s">
         <v>14</v>
@@ -4539,23 +4588,23 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="15" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -4566,29 +4615,29 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D66" s="21" t="s">
-        <v>223</v>
-      </c>
       <c r="E66" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="12"/>
       <c r="K66" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>14</v>
@@ -4597,23 +4646,23 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="15" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -4624,184 +4673,184 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="12"/>
       <c r="K68" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>14</v>
       </c>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="27.75" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D69" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="31" t="s">
         <v>229</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>230</v>
+        <v>526</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="17"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F70" s="41"/>
       <c r="G70" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>230</v>
+        <v>462</v>
+      </c>
+      <c r="I70" s="102" t="s">
+        <v>526</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="17"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>230</v>
+        <v>462</v>
+      </c>
+      <c r="I71" s="102" t="s">
+        <v>526</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="17"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="53.25" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F72" s="41"/>
       <c r="G72" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>230</v>
+        <v>462</v>
+      </c>
+      <c r="I72" s="102" t="s">
+        <v>526</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="17"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="27.75" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F73" s="41"/>
       <c r="G73" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>243</v>
+        <v>527</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="17"/>
@@ -4810,29 +4859,29 @@
     </row>
     <row r="74" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F74" s="41"/>
       <c r="G74" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" s="17"/>
@@ -4841,29 +4890,29 @@
     </row>
     <row r="75" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F75" s="41"/>
       <c r="G75" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="17"/>
@@ -4872,29 +4921,29 @@
     </row>
     <row r="76" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="38" t="s">
         <v>247</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>252</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J76" s="12"/>
       <c r="K76" s="17"/>
@@ -4903,29 +4952,29 @@
     </row>
     <row r="77" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="E77" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F77" s="41"/>
       <c r="G77" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J77" s="12"/>
       <c r="K77" s="17"/>
@@ -4934,23 +4983,23 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="42" t="s">
         <v>254</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>259</v>
       </c>
       <c r="F78" s="41"/>
       <c r="G78" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -4961,29 +5010,29 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="38" t="s">
         <v>255</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>260</v>
       </c>
       <c r="F79" s="41"/>
       <c r="G79" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="17"/>
@@ -4992,29 +5041,29 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J80" s="12"/>
       <c r="K80" s="17"/>
@@ -5023,23 +5072,23 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D81" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="E81" s="38" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -5050,29 +5099,29 @@
     </row>
     <row r="82" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F82" s="41"/>
       <c r="G82" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J82" s="12"/>
       <c r="K82" s="17"/>
@@ -5081,23 +5130,23 @@
     </row>
     <row r="83" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C83" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F83" s="41"/>
       <c r="G83" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -5108,26 +5157,26 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C84" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F84" s="41"/>
       <c r="G84" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="12"/>
@@ -5137,23 +5186,23 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C85" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F85" s="41"/>
       <c r="G85" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -5164,23 +5213,23 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C86" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="29" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -5191,29 +5240,29 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C87" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F87" s="41"/>
       <c r="G87" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="12"/>
       <c r="K87" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L87" s="12" t="s">
         <v>14</v>
@@ -5222,29 +5271,29 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C88" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="29" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="12"/>
       <c r="K88" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L88" s="12" t="s">
         <v>14</v>
@@ -5253,29 +5302,29 @@
     </row>
     <row r="89" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C89" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F89" s="41"/>
       <c r="G89" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="12"/>
       <c r="K89" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L89" s="12" t="s">
         <v>14</v>
@@ -5284,19 +5333,19 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" s="105" t="s">
-        <v>370</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>380</v>
-      </c>
       <c r="E90" s="38" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F90" s="41"/>
       <c r="G90" s="29" t="s">
@@ -5311,29 +5360,29 @@
     </row>
     <row r="91" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C91" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F91" s="41"/>
       <c r="G91" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="12"/>
       <c r="K91" s="17" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L91" s="12" t="s">
         <v>14</v>
@@ -5342,19 +5391,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="34" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C92" s="105" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F92" s="41"/>
       <c r="G92" s="29" t="s">
@@ -5363,7 +5412,7 @@
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K92" s="17"/>
       <c r="L92" s="12"/>
@@ -5371,23 +5420,23 @@
     </row>
     <row r="93" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="63" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C93" s="61" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F93" s="57"/>
       <c r="G93" s="60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H93" s="58"/>
       <c r="I93" s="58"/>
@@ -5398,23 +5447,23 @@
     </row>
     <row r="94" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A94" s="63" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F94" s="57"/>
       <c r="G94" s="60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H94" s="58"/>
       <c r="I94" s="58"/>
@@ -5425,23 +5474,23 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="73" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F95" s="66"/>
       <c r="G95" s="69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H95" s="67"/>
       <c r="I95" s="67"/>
@@ -5452,29 +5501,29 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="72" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B96" s="65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H96" s="67"/>
       <c r="I96" s="67"/>
       <c r="J96" s="68"/>
       <c r="K96" s="71" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L96" s="68" t="s">
         <v>14</v>
@@ -5483,23 +5532,23 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="63" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C97" s="78" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>392</v>
+        <v>522</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F97" s="74"/>
       <c r="G97" s="77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H97" s="75"/>
       <c r="I97" s="75"/>
@@ -5510,23 +5559,23 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C98" s="78" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>394</v>
+        <v>523</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="F98" s="74"/>
       <c r="G98" s="77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H98" s="75"/>
       <c r="I98" s="75"/>
@@ -5537,23 +5586,23 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C99" s="78" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>395</v>
+        <v>524</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F99" s="74"/>
       <c r="G99" s="77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H99" s="75"/>
       <c r="I99" s="75"/>
@@ -5564,23 +5613,23 @@
     </row>
     <row r="100" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C100" s="78" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F100" s="74"/>
       <c r="G100" s="77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -5591,19 +5640,19 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="73" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C101" s="84" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F101" s="80"/>
       <c r="G101" s="83" t="s">
@@ -5618,29 +5667,29 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="73" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C102" s="84" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F102" s="80"/>
       <c r="G102" s="83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H102" s="81"/>
       <c r="I102" s="81"/>
       <c r="J102" s="82"/>
       <c r="K102" s="85" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L102" s="82" t="s">
         <v>14</v>
@@ -5649,23 +5698,23 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="63" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" s="90" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F103" s="86"/>
       <c r="G103" s="89" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H103" s="87"/>
       <c r="I103" s="87"/>
@@ -5676,23 +5725,23 @@
     </row>
     <row r="104" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C104" s="90" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F104" s="86"/>
       <c r="G104" s="89" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H104" s="87"/>
       <c r="I104" s="87"/>
@@ -5703,23 +5752,23 @@
     </row>
     <row r="105" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C105" s="90" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="F105" s="86"/>
       <c r="G105" s="89" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H105" s="87"/>
       <c r="I105" s="87"/>
@@ -5730,23 +5779,23 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C106" s="90" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F106" s="86"/>
       <c r="G106" s="89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H106" s="87"/>
       <c r="I106" s="87"/>
@@ -5757,23 +5806,23 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="73" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C107" s="97" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F107" s="93"/>
       <c r="G107" s="96" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H107" s="94"/>
       <c r="I107" s="94"/>
@@ -5784,29 +5833,29 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="73" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C108" s="97" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F108" s="93"/>
       <c r="G108" s="96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H108" s="94"/>
       <c r="I108" s="94"/>
       <c r="J108" s="95"/>
       <c r="K108" s="98" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L108" s="95" t="s">
         <v>14</v>
@@ -5815,23 +5864,23 @@
     </row>
     <row r="109" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A109" s="73" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C109" s="97" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F109" s="93"/>
       <c r="G109" s="96" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H109" s="94"/>
       <c r="I109" s="94"/>
@@ -5842,23 +5891,23 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="73" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C110" s="97" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F110" s="93"/>
       <c r="G110" s="96" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H110" s="94"/>
       <c r="I110" s="94"/>
@@ -5869,29 +5918,29 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="73" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C111" s="97" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F111" s="93"/>
       <c r="G111" s="96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H111" s="94"/>
       <c r="I111" s="94"/>
       <c r="J111" s="95"/>
       <c r="K111" s="98" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L111" s="95" t="s">
         <v>14</v>
@@ -5900,23 +5949,23 @@
     </row>
     <row r="112" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C112" s="105" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F112" s="101"/>
       <c r="G112" s="104" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H112" s="102"/>
       <c r="I112" s="102"/>
@@ -5927,29 +5976,29 @@
     </row>
     <row r="113" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C113" s="105" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F113" s="101"/>
       <c r="G113" s="104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H113" s="102"/>
       <c r="I113" s="102"/>
       <c r="J113" s="103"/>
       <c r="K113" s="106" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="L113" s="103" t="s">
         <v>14</v>
@@ -5958,23 +6007,23 @@
     </row>
     <row r="114" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C114" s="105" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F114" s="101"/>
       <c r="G114" s="104" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H114" s="102"/>
       <c r="I114" s="102"/>
@@ -5985,29 +6034,29 @@
     </row>
     <row r="115" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C115" s="105" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F115" s="101"/>
       <c r="G115" s="104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H115" s="102"/>
       <c r="I115" s="102"/>
       <c r="J115" s="103"/>
       <c r="K115" s="106" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L115" s="103" t="s">
         <v>14</v>
@@ -6016,29 +6065,29 @@
     </row>
     <row r="116" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C116" s="105" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F116" s="101"/>
       <c r="G116" s="104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H116" s="102"/>
       <c r="I116" s="102"/>
       <c r="J116" s="103"/>
       <c r="K116" s="106" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="L116" s="103" t="s">
         <v>14</v>
@@ -6047,23 +6096,23 @@
     </row>
     <row r="117" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B117" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C117" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="E117" s="39" t="s">
         <v>430</v>
-      </c>
-      <c r="D117" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="E117" s="39" t="s">
-        <v>439</v>
       </c>
       <c r="F117" s="101"/>
       <c r="G117" s="104" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H117" s="102"/>
       <c r="I117" s="102"/>
@@ -6074,29 +6123,29 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B118" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C118" s="105" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F118" s="101"/>
       <c r="G118" s="104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H118" s="102"/>
       <c r="I118" s="102"/>
       <c r="J118" s="103"/>
       <c r="K118" s="106" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L118" s="103" t="s">
         <v>14</v>
@@ -6105,28 +6154,28 @@
     </row>
     <row r="119" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A119" s="99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B119" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D119" s="110" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E119" s="111" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F119" s="49" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G119" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H119" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I119" s="51"/>
       <c r="J119" s="52"/>
@@ -6136,25 +6185,25 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="99" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C120" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="E120" s="111" t="s">
         <v>290</v>
       </c>
-      <c r="D120" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="E120" s="111" t="s">
-        <v>295</v>
-      </c>
       <c r="F120" s="49" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G120" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H120" s="51"/>
       <c r="I120" s="51"/>
@@ -6165,25 +6214,25 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="99" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D121" s="110" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E121" s="111" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F121" s="49" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G121" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
@@ -6194,25 +6243,25 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="99" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B122" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D122" s="110" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E122" s="111" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F122" s="49" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G122" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
@@ -6223,29 +6272,29 @@
     </row>
     <row r="123" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D123" s="110" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E123" s="111" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F123" s="49"/>
       <c r="G123" s="54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H123" s="51" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="I123" s="51" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="J123" s="52"/>
       <c r="K123" s="53"/>
@@ -6254,29 +6303,29 @@
     </row>
     <row r="124" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B124" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D124" s="110" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E124" s="111" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F124" s="49"/>
       <c r="G124" s="54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H124" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I124" s="51" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="J124" s="52"/>
       <c r="K124" s="53"/>
@@ -6285,23 +6334,23 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="99" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B125" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D125" s="110" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E125" s="111" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F125" s="49"/>
       <c r="G125" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
@@ -6312,23 +6361,23 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="99" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B126" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E126" s="111" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F126" s="49"/>
       <c r="G126" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H126" s="51"/>
       <c r="I126" s="51"/>
@@ -6339,23 +6388,23 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="99" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B127" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D127" s="110" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E127" s="111" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F127" s="49"/>
       <c r="G127" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
@@ -6366,26 +6415,26 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="99" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B128" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D128" s="110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E128" s="111" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H128" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I128" s="51"/>
       <c r="J128" s="52"/>
@@ -6395,23 +6444,23 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="99" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B129" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D129" s="110" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E129" s="111" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H129" s="51"/>
       <c r="I129" s="51"/>
@@ -6422,26 +6471,26 @@
     </row>
     <row r="130" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="99" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B130" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D130" s="110" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E130" s="111" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H130" s="51" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="I130" s="51"/>
       <c r="J130" s="52"/>
@@ -6451,26 +6500,26 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="99" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B131" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D131" s="110" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="E131" s="111" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="F131" s="49"/>
       <c r="G131" s="54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H131" s="51" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="I131" s="51"/>
       <c r="J131" s="52"/>
@@ -6480,23 +6529,23 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="99" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B132" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D132" s="110" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E132" s="111" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H132" s="51"/>
       <c r="I132" s="51"/>
@@ -6507,23 +6556,23 @@
     </row>
     <row r="133" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="99" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B133" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D133" s="110" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E133" s="111" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
@@ -6534,26 +6583,26 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="99" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B134" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D134" s="110" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E134" s="111" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H134" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I134" s="51"/>
       <c r="J134" s="52"/>
@@ -6563,19 +6612,19 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="99" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B135" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D135" s="110" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E135" s="111" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="50" t="s">
@@ -6590,29 +6639,29 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="99" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B136" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D136" s="110" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="E136" s="111" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F136" s="49"/>
       <c r="G136" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
       <c r="J136" s="52"/>
       <c r="K136" s="53" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L136" s="52" t="s">
         <v>14</v>
@@ -6621,23 +6670,23 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="99" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B137" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D137" s="110" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E137" s="111" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
@@ -6648,28 +6697,28 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B138" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D138" s="110" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E138" s="111" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F138" s="49" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G138" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H138" s="51" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I138" s="51"/>
       <c r="J138" s="52"/>
@@ -6679,25 +6728,25 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="99" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B139" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="D139" s="110" t="s">
         <v>328</v>
       </c>
-      <c r="C139" s="48" t="s">
+      <c r="E139" s="111" t="s">
         <v>329</v>
       </c>
-      <c r="D139" s="110" t="s">
-        <v>333</v>
-      </c>
-      <c r="E139" s="111" t="s">
-        <v>334</v>
-      </c>
       <c r="F139" s="49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G139" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H139" s="51"/>
       <c r="I139" s="51"/>
@@ -6708,25 +6757,25 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="99" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B140" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D140" s="110" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E140" s="111" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F140" s="49" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
@@ -6737,25 +6786,25 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B141" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D141" s="110" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E141" s="111" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F141" s="49" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
@@ -6766,19 +6815,19 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="99" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B142" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D142" s="110" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E142" s="111" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F142" s="49"/>
       <c r="G142" s="50" t="s">
@@ -6793,31 +6842,31 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="99" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B143" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D143" s="110" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E143" s="111" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F143" s="49" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G143" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="52"/>
       <c r="K143" s="53" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="L143" s="52" t="s">
         <v>14</v>
@@ -6826,26 +6875,26 @@
     </row>
     <row r="144" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A144" s="99" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B144" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D144" s="110" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E144" s="111" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F144" s="49"/>
       <c r="G144" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H144" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I144" s="51"/>
       <c r="J144" s="52"/>
@@ -6855,26 +6904,26 @@
     </row>
     <row r="145" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A145" s="99" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B145" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D145" s="110" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E145" s="111" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F145" s="49"/>
       <c r="G145" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H145" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I145" s="51"/>
       <c r="J145" s="52"/>
@@ -6884,26 +6933,26 @@
     </row>
     <row r="146" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B146" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C146" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D146" s="110" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E146" s="111" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F146" s="49"/>
       <c r="G146" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H146" s="51" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I146" s="51"/>
       <c r="J146" s="52"/>
@@ -6913,19 +6962,19 @@
     </row>
     <row r="147" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A147" s="99" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B147" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D147" s="110" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E147" s="111" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="50" t="s">
@@ -6940,31 +6989,31 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="99" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B148" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C148" s="48" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D148" s="110" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="E148" s="111" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F148" s="49" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G148" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
       <c r="J148" s="52"/>
       <c r="K148" s="53" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L148" s="52" t="s">
         <v>14</v>
@@ -6973,23 +7022,23 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="99" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B149" s="100" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D149" s="110" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E149" s="111" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F149" s="49"/>
       <c r="G149" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
@@ -7000,23 +7049,23 @@
     </row>
     <row r="150" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A150" s="109" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B150" s="108" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D150" s="110" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E150" s="111" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>

--- a/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
+++ b/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\dataland_alternative\dataland-framework-toolbox\inputs\esg-datenkatalog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\esg-datenkatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B80CAF-B51C-431E-9FC4-C57CC57A82C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C31DA12-D6C8-44F2-9579-EE8C0B511BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10800" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5145" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$N$150</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="533">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1694,6 +1694,9 @@
   </si>
   <si>
     <t>Anteil taxonomiekonformer Umsatz</t>
+  </si>
+  <si>
+    <t>Alias Export</t>
   </si>
 </sst>
 </file>
@@ -2615,28 +2618,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="122.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="85.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" style="2"/>
-    <col min="11" max="11" width="12.5703125" style="1"/>
-    <col min="12" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="1" width="12.54296875" style="1"/>
+    <col min="2" max="2" width="18.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" style="92" customWidth="1"/>
+    <col min="6" max="6" width="122.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="85.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.54296875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.54296875" style="2"/>
+    <col min="12" max="12" width="12.54296875" style="1"/>
+    <col min="13" max="16384" width="12.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2649,35 +2653,38 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2690,21 +2697,24 @@
       <c r="D2" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -2717,21 +2727,24 @@
       <c r="D3" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
@@ -2744,25 +2757,28 @@
       <c r="D4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
@@ -2775,25 +2791,28 @@
       <c r="D5" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
@@ -2806,25 +2825,28 @@
       <c r="D6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>91</v>
       </c>
@@ -2837,29 +2859,32 @@
       <c r="D7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>92</v>
       </c>
@@ -2872,29 +2897,32 @@
       <c r="D8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>93</v>
       </c>
@@ -2907,29 +2935,32 @@
       <c r="D9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>94</v>
       </c>
@@ -2942,29 +2973,32 @@
       <c r="D10" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>100</v>
       </c>
@@ -2977,29 +3011,32 @@
       <c r="D11" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>101</v>
       </c>
@@ -3012,29 +3049,32 @@
       <c r="D12" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="12"/>
+      <c r="L12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -3047,21 +3087,24 @@
       <c r="D13" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
@@ -3074,21 +3117,24 @@
       <c r="D14" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
@@ -3101,25 +3147,28 @@
       <c r="D15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="J15" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="12"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>111</v>
       </c>
@@ -3132,25 +3181,28 @@
       <c r="D16" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="J16" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>113</v>
       </c>
@@ -3163,25 +3215,28 @@
       <c r="D17" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="J17" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>487</v>
       </c>
@@ -3194,21 +3249,24 @@
       <c r="D18" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="103"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="103"/>
-    </row>
-    <row r="19" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="103"/>
+    </row>
+    <row r="19" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>488</v>
       </c>
@@ -3221,21 +3279,24 @@
       <c r="D19" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F19" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="103"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="103"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="103"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>491</v>
       </c>
@@ -3248,25 +3309,28 @@
       <c r="D20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="27"/>
+      <c r="H20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="J20" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>116</v>
       </c>
@@ -3279,25 +3343,28 @@
       <c r="D21" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="27"/>
+      <c r="H21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="J21" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>128</v>
       </c>
@@ -3310,25 +3377,28 @@
       <c r="D22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="J22" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>129</v>
       </c>
@@ -3341,21 +3411,24 @@
       <c r="D23" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="103"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="103"/>
-    </row>
-    <row r="24" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="103"/>
+    </row>
+    <row r="24" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>133</v>
       </c>
@@ -3368,21 +3441,24 @@
       <c r="D24" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="103"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="103"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="103"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>134</v>
       </c>
@@ -3395,21 +3471,24 @@
       <c r="D25" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="11"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>186</v>
       </c>
@@ -3422,25 +3501,28 @@
       <c r="D26" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="17" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="M26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>492</v>
       </c>
@@ -3453,25 +3535,28 @@
       <c r="D27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="27"/>
+      <c r="H27" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="17" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>137</v>
       </c>
@@ -3484,21 +3569,24 @@
       <c r="D28" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="11"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>139</v>
       </c>
@@ -3511,25 +3599,28 @@
       <c r="D29" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="27"/>
+      <c r="H29" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="23" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="M29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>142</v>
       </c>
@@ -3542,25 +3633,28 @@
       <c r="D30" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="23" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="M30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
@@ -3573,25 +3667,28 @@
       <c r="D31" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="47" t="s">
         <v>515</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="23" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="M31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>141</v>
       </c>
@@ -3604,21 +3701,24 @@
       <c r="D32" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="27"/>
+      <c r="H32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="11"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>148</v>
       </c>
@@ -3631,25 +3731,28 @@
       <c r="D33" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="27"/>
+      <c r="H33" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="23" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="M33" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
         <v>149</v>
       </c>
@@ -3662,25 +3765,28 @@
       <c r="D34" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="23" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="M34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>150</v>
       </c>
@@ -3693,25 +3799,28 @@
       <c r="D35" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="47" t="s">
         <v>512</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="27"/>
+      <c r="H35" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="23" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="M35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>151</v>
       </c>
@@ -3724,21 +3833,24 @@
       <c r="D36" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="27"/>
+      <c r="H36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="11"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>153</v>
       </c>
@@ -3751,25 +3863,28 @@
       <c r="D37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="27"/>
+      <c r="H37" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="23" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="M37" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>155</v>
       </c>
@@ -3782,25 +3897,28 @@
       <c r="D38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="27"/>
+      <c r="H38" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="23" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="M38" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
         <v>157</v>
       </c>
@@ -3813,25 +3931,28 @@
       <c r="D39" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="47" t="s">
         <v>513</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="27"/>
+      <c r="H39" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="23" t="s">
+      <c r="I39" s="11"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L39" s="26" t="s">
+      <c r="M39" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>170</v>
       </c>
@@ -3844,21 +3965,24 @@
       <c r="D40" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="27"/>
+      <c r="H40" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I40" s="11"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>
@@ -3871,25 +3995,28 @@
       <c r="D41" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="27"/>
+      <c r="H41" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="17" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L41" s="26" t="s">
+      <c r="M41" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>172</v>
       </c>
@@ -3902,25 +4029,28 @@
       <c r="D42" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="27"/>
+      <c r="H42" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="17" t="s">
+      <c r="I42" s="11"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="26" t="s">
+      <c r="M42" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>173</v>
       </c>
@@ -3933,25 +4063,28 @@
       <c r="D43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="27"/>
+      <c r="H43" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="17" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="M43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>181</v>
       </c>
@@ -3964,23 +4097,26 @@
       <c r="D44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="10"/>
+      <c r="H44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="11"/>
+      <c r="K44" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="12"/>
+      <c r="L44" s="17"/>
       <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>182</v>
       </c>
@@ -3993,25 +4129,28 @@
       <c r="D45" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="10"/>
+      <c r="H45" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="17" t="s">
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="M45" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
@@ -4024,25 +4163,28 @@
       <c r="D46" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="10"/>
+      <c r="H46" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="17" t="s">
+      <c r="J46" s="11"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="M46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>34</v>
       </c>
@@ -4055,25 +4197,28 @@
       <c r="D47" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="H47" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="25"/>
+      <c r="K47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="12"/>
+      <c r="L47" s="17"/>
       <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
         <v>42</v>
       </c>
@@ -4086,25 +4231,28 @@
       <c r="D48" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="G48" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="H48" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="21" t="s">
+      <c r="J48" s="25"/>
+      <c r="K48" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="12"/>
+      <c r="L48" s="17"/>
       <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>187</v>
       </c>
@@ -4117,25 +4265,28 @@
       <c r="D49" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="H49" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="21" t="s">
+      <c r="J49" s="25"/>
+      <c r="K49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="12"/>
+      <c r="L49" s="17"/>
       <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>188</v>
       </c>
@@ -4148,25 +4299,28 @@
       <c r="D50" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="H50" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="21" t="s">
+      <c r="J50" s="25"/>
+      <c r="K50" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="12"/>
+      <c r="L50" s="17"/>
       <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>189</v>
       </c>
@@ -4179,25 +4333,28 @@
       <c r="D51" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="H51" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="21" t="s">
+      <c r="J51" s="25"/>
+      <c r="K51" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="12"/>
+      <c r="L51" s="17"/>
       <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>191</v>
       </c>
@@ -4210,25 +4367,28 @@
       <c r="D52" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="H52" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="21" t="s">
+      <c r="J52" s="25"/>
+      <c r="K52" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="12"/>
+      <c r="L52" s="17"/>
       <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>193</v>
       </c>
@@ -4241,25 +4401,28 @@
       <c r="D53" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="H53" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="21" t="s">
+      <c r="J53" s="25"/>
+      <c r="K53" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K53" s="17"/>
-      <c r="L53" s="12"/>
+      <c r="L53" s="17"/>
       <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>49</v>
       </c>
@@ -4272,21 +4435,24 @@
       <c r="D54" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="10"/>
+      <c r="H54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="12"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="17"/>
       <c r="M54" s="12"/>
-    </row>
-    <row r="55" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>203</v>
       </c>
@@ -4299,27 +4465,30 @@
       <c r="D55" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="H55" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="17" t="s">
+      <c r="J55" s="25"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="M55" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M55" s="12"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
         <v>205</v>
       </c>
@@ -4332,27 +4501,30 @@
       <c r="D56" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="H56" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="17" t="s">
+      <c r="J56" s="25"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L56" s="12" t="s">
+      <c r="M56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M56" s="12"/>
-    </row>
-    <row r="57" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
         <v>51</v>
       </c>
@@ -4365,21 +4537,24 @@
       <c r="D57" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="10"/>
+      <c r="H57" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="37"/>
       <c r="M57" s="25"/>
-    </row>
-    <row r="58" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N57" s="25"/>
+    </row>
+    <row r="58" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>52</v>
       </c>
@@ -4392,27 +4567,30 @@
       <c r="D58" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="H58" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="17" t="s">
+      <c r="J58" s="11"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="M58" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M58" s="12"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
         <v>206</v>
       </c>
@@ -4425,27 +4603,30 @@
       <c r="D59" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="H59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="17" t="s">
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L59" s="12" t="s">
+      <c r="M59" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="12"/>
-    </row>
-    <row r="60" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
         <v>53</v>
       </c>
@@ -4458,21 +4639,24 @@
       <c r="D60" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="10"/>
+      <c r="H60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="17"/>
       <c r="M60" s="12"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>54</v>
       </c>
@@ -4485,23 +4669,26 @@
       <c r="D61" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="27"/>
+      <c r="H61" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="I61" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="17"/>
       <c r="M61" s="12"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="12"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>56</v>
       </c>
@@ -4514,21 +4701,24 @@
       <c r="D62" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="27"/>
+      <c r="H62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="12"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="17"/>
       <c r="M62" s="12"/>
-    </row>
-    <row r="63" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>214</v>
       </c>
@@ -4541,21 +4731,24 @@
       <c r="D63" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="F63" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="10"/>
+      <c r="H63" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="17"/>
       <c r="M63" s="12"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
         <v>61</v>
       </c>
@@ -4568,25 +4761,28 @@
       <c r="D64" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="F64" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="27"/>
+      <c r="H64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="17" t="s">
+      <c r="J64" s="11"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="L64" s="12" t="s">
+      <c r="M64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M64" s="12"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>65</v>
       </c>
@@ -4599,21 +4795,24 @@
       <c r="D65" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="10"/>
+      <c r="H65" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="12"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="17"/>
       <c r="M65" s="12"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="12"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>219</v>
       </c>
@@ -4626,25 +4825,28 @@
       <c r="D66" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="27"/>
+      <c r="H66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="17" t="s">
+      <c r="J66" s="11"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L66" s="12" t="s">
+      <c r="M66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M66" s="12"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="12"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>66</v>
       </c>
@@ -4657,21 +4859,24 @@
       <c r="D67" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="10"/>
+      <c r="H67" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="12"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="17"/>
       <c r="M67" s="12"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
         <v>223</v>
       </c>
@@ -4684,25 +4889,28 @@
       <c r="D68" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="27"/>
+      <c r="H68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="17" t="s">
+      <c r="J68" s="11"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="M68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M68" s="12"/>
-    </row>
-    <row r="69" spans="1:13" ht="27.75" x14ac:dyDescent="0.35">
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="1:14" ht="27" x14ac:dyDescent="0.45">
       <c r="A69" s="34" t="s">
         <v>227</v>
       </c>
@@ -4715,25 +4923,28 @@
       <c r="D69" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="21" t="s">
+      <c r="G69" s="10"/>
+      <c r="H69" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="I69" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="J69" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J69" s="12"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="17"/>
       <c r="M69" s="12"/>
-    </row>
-    <row r="70" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="N69" s="12"/>
+    </row>
+    <row r="70" spans="1:14" ht="39.5" x14ac:dyDescent="0.45">
       <c r="A70" s="34" t="s">
         <v>228</v>
       </c>
@@ -4746,25 +4957,28 @@
       <c r="D70" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="E70" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="21" t="s">
+      <c r="G70" s="41"/>
+      <c r="H70" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="I70" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I70" s="102" t="s">
+      <c r="J70" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="J70" s="12"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="17"/>
       <c r="M70" s="12"/>
-    </row>
-    <row r="71" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="1:14" ht="39.5" x14ac:dyDescent="0.45">
       <c r="A71" s="34" t="s">
         <v>232</v>
       </c>
@@ -4777,25 +4991,28 @@
       <c r="D71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="41"/>
+      <c r="H71" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="I71" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I71" s="102" t="s">
+      <c r="J71" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="J71" s="12"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="17"/>
       <c r="M71" s="12"/>
-    </row>
-    <row r="72" spans="1:13" ht="53.25" x14ac:dyDescent="0.35">
+      <c r="N71" s="12"/>
+    </row>
+    <row r="72" spans="1:14" ht="52" x14ac:dyDescent="0.45">
       <c r="A72" s="34" t="s">
         <v>237</v>
       </c>
@@ -4808,25 +5025,28 @@
       <c r="D72" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="41"/>
+      <c r="H72" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="I72" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I72" s="102" t="s">
+      <c r="J72" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="J72" s="12"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="17"/>
       <c r="M72" s="12"/>
-    </row>
-    <row r="73" spans="1:13" ht="27.75" x14ac:dyDescent="0.35">
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="1:14" ht="27" x14ac:dyDescent="0.45">
       <c r="A73" s="34" t="s">
         <v>68</v>
       </c>
@@ -4839,25 +5059,28 @@
       <c r="D73" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="F73" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="29" t="s">
+      <c r="G73" s="41"/>
+      <c r="H73" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="I73" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="J73" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="J73" s="12"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="17"/>
       <c r="M73" s="12"/>
-    </row>
-    <row r="74" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="N73" s="12"/>
+    </row>
+    <row r="74" spans="1:14" ht="51" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
         <v>69</v>
       </c>
@@ -4870,25 +5093,28 @@
       <c r="D74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="F74" s="41"/>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="41"/>
+      <c r="H74" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="I74" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="J74" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J74" s="12"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="17"/>
       <c r="M74" s="12"/>
-    </row>
-    <row r="75" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="N74" s="12"/>
+    </row>
+    <row r="75" spans="1:14" ht="51" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
         <v>241</v>
       </c>
@@ -4901,25 +5127,28 @@
       <c r="D75" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="41"/>
+      <c r="H75" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="I75" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="J75" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J75" s="12"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="17"/>
       <c r="M75" s="12"/>
-    </row>
-    <row r="76" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="N75" s="12"/>
+    </row>
+    <row r="76" spans="1:14" ht="51" x14ac:dyDescent="0.35">
       <c r="A76" s="34" t="s">
         <v>248</v>
       </c>
@@ -4932,25 +5161,28 @@
       <c r="D76" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="29" t="s">
+      <c r="G76" s="27"/>
+      <c r="H76" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="I76" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J76" s="12"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="17"/>
       <c r="M76" s="12"/>
-    </row>
-    <row r="77" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
         <v>70</v>
       </c>
@@ -4963,25 +5195,28 @@
       <c r="D77" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="F77" s="41"/>
-      <c r="G77" s="29" t="s">
+      <c r="G77" s="41"/>
+      <c r="H77" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="I77" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="J77" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="17"/>
       <c r="M77" s="12"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="12"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="34" t="s">
         <v>249</v>
       </c>
@@ -4994,21 +5229,24 @@
       <c r="D78" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="E78" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="F78" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="F78" s="41"/>
-      <c r="G78" s="29" t="s">
+      <c r="G78" s="41"/>
+      <c r="H78" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="12"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="17"/>
       <c r="M78" s="12"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
         <v>71</v>
       </c>
@@ -5021,25 +5259,28 @@
       <c r="D79" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="F79" s="41"/>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="41"/>
+      <c r="H79" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="I79" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="J79" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J79" s="12"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="17"/>
       <c r="M79" s="12"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="12"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="34" t="s">
         <v>73</v>
       </c>
@@ -5052,25 +5293,28 @@
       <c r="D80" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E80" s="38" t="s">
+      <c r="E80" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F80" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="F80" s="41"/>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="41"/>
+      <c r="H80" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="I80" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="J80" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J80" s="12"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="17"/>
       <c r="M80" s="12"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="12"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
         <v>260</v>
       </c>
@@ -5083,21 +5327,24 @@
       <c r="D81" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E81" s="38" t="s">
+      <c r="E81" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="F81" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="29" t="s">
+      <c r="G81" s="27"/>
+      <c r="H81" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="12"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="17"/>
       <c r="M81" s="12"/>
-    </row>
-    <row r="82" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N81" s="12"/>
+    </row>
+    <row r="82" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A82" s="34" t="s">
         <v>74</v>
       </c>
@@ -5110,25 +5357,28 @@
       <c r="D82" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="F82" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="F82" s="41"/>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="41"/>
+      <c r="H82" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="I82" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="J82" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J82" s="12"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="17"/>
       <c r="M82" s="12"/>
-    </row>
-    <row r="83" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="N82" s="12"/>
+    </row>
+    <row r="83" spans="1:14" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
         <v>75</v>
       </c>
@@ -5141,21 +5391,24 @@
       <c r="D83" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E83" s="38" t="s">
+      <c r="E83" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="F83" s="41"/>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="41"/>
+      <c r="H83" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="12"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="17"/>
       <c r="M83" s="12"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="34" t="s">
         <v>270</v>
       </c>
@@ -5168,23 +5421,26 @@
       <c r="D84" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E84" s="38" t="s">
+      <c r="E84" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="F84" s="41"/>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="41"/>
+      <c r="H84" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="I84" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="I84" s="11"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="12"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="17"/>
       <c r="M84" s="12"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="12"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
         <v>271</v>
       </c>
@@ -5197,21 +5453,24 @@
       <c r="D85" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E85" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="F85" s="41"/>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="41"/>
+      <c r="H85" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="11"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="12"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="17"/>
       <c r="M85" s="12"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="12"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
         <v>77</v>
       </c>
@@ -5224,21 +5483,24 @@
       <c r="D86" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E86" s="38" t="s">
+      <c r="E86" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="F86" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="29" t="s">
+      <c r="G86" s="27"/>
+      <c r="H86" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="H86" s="11"/>
       <c r="I86" s="11"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="12"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="17"/>
       <c r="M86" s="12"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="12"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
         <v>276</v>
       </c>
@@ -5251,25 +5513,28 @@
       <c r="D87" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E87" s="38" t="s">
+      <c r="E87" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F87" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="F87" s="41"/>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="41"/>
+      <c r="H87" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="17" t="s">
+      <c r="J87" s="11"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L87" s="12" t="s">
+      <c r="M87" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M87" s="12"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="12"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
         <v>279</v>
       </c>
@@ -5282,25 +5547,28 @@
       <c r="D88" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E88" s="38" t="s">
+      <c r="E88" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="F88" s="41"/>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="41"/>
+      <c r="H88" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="17" t="s">
+      <c r="J88" s="11"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L88" s="12" t="s">
+      <c r="M88" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M88" s="12"/>
-    </row>
-    <row r="89" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N88" s="12"/>
+    </row>
+    <row r="89" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
         <v>282</v>
       </c>
@@ -5313,25 +5581,28 @@
       <c r="D89" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F89" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="F89" s="41"/>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="41"/>
+      <c r="H89" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="11"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="17" t="s">
+      <c r="J89" s="11"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="L89" s="12" t="s">
+      <c r="M89" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M89" s="12"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="12"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="34" t="s">
         <v>370</v>
       </c>
@@ -5344,21 +5615,24 @@
       <c r="D90" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="F90" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="F90" s="41"/>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="41"/>
+      <c r="H90" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="11"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="12"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="17"/>
       <c r="M90" s="12"/>
-    </row>
-    <row r="91" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N90" s="12"/>
+    </row>
+    <row r="91" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
         <v>373</v>
       </c>
@@ -5371,25 +5645,28 @@
       <c r="D91" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="F91" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="41"/>
+      <c r="H91" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H91" s="11"/>
       <c r="I91" s="11"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="17" t="s">
+      <c r="J91" s="11"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="L91" s="12" t="s">
+      <c r="M91" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M91" s="12"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="12"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="34" t="s">
         <v>377</v>
       </c>
@@ -5402,23 +5679,26 @@
       <c r="D92" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="E92" s="38" t="s">
+      <c r="E92" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="F92" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="F92" s="41"/>
-      <c r="G92" s="29" t="s">
+      <c r="G92" s="41"/>
+      <c r="H92" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="11"/>
       <c r="I92" s="11"/>
-      <c r="J92" s="12" t="s">
+      <c r="J92" s="11"/>
+      <c r="K92" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="17"/>
-      <c r="L92" s="12"/>
+      <c r="L92" s="17"/>
       <c r="M92" s="12"/>
-    </row>
-    <row r="93" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N92" s="12"/>
+    </row>
+    <row r="93" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A93" s="63" t="s">
         <v>379</v>
       </c>
@@ -5431,21 +5711,24 @@
       <c r="D93" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F93" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="F93" s="57"/>
-      <c r="G93" s="60" t="s">
+      <c r="G93" s="57"/>
+      <c r="H93" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="58"/>
       <c r="I93" s="58"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="59"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="62"/>
       <c r="M93" s="59"/>
-    </row>
-    <row r="94" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="N93" s="59"/>
+    </row>
+    <row r="94" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A94" s="63" t="s">
         <v>380</v>
       </c>
@@ -5458,21 +5741,24 @@
       <c r="D94" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="E94" s="39" t="s">
+      <c r="E94" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="F94" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="F94" s="57"/>
-      <c r="G94" s="60" t="s">
+      <c r="G94" s="57"/>
+      <c r="H94" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="58"/>
       <c r="I94" s="58"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="59"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="62"/>
       <c r="M94" s="59"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="59"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="73" t="s">
         <v>385</v>
       </c>
@@ -5485,21 +5771,24 @@
       <c r="D95" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="E95" s="39" t="s">
+      <c r="E95" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="F95" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="F95" s="66"/>
-      <c r="G95" s="69" t="s">
+      <c r="G95" s="66"/>
+      <c r="H95" s="69" t="s">
         <v>383</v>
       </c>
-      <c r="H95" s="67"/>
       <c r="I95" s="67"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="68"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="68"/>
+      <c r="L95" s="71"/>
       <c r="M95" s="68"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="68"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="72" t="s">
         <v>386</v>
       </c>
@@ -5512,25 +5801,28 @@
       <c r="D96" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="E96" s="39" t="s">
+      <c r="E96" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="F96" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="F96" s="66"/>
-      <c r="G96" s="69" t="s">
+      <c r="G96" s="66"/>
+      <c r="H96" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="67"/>
       <c r="I96" s="67"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="71" t="s">
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="L96" s="68" t="s">
+      <c r="M96" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M96" s="68"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="68"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="63" t="s">
         <v>392</v>
       </c>
@@ -5543,21 +5835,24 @@
       <c r="D97" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="F97" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="F97" s="74"/>
-      <c r="G97" s="77" t="s">
+      <c r="G97" s="74"/>
+      <c r="H97" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H97" s="75"/>
       <c r="I97" s="75"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="79"/>
-      <c r="L97" s="76"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="76"/>
+      <c r="L97" s="79"/>
       <c r="M97" s="76"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="76"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="63" t="s">
         <v>390</v>
       </c>
@@ -5570,21 +5865,24 @@
       <c r="D98" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="E98" s="39" t="s">
+      <c r="E98" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="F98" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="F98" s="74"/>
-      <c r="G98" s="77" t="s">
+      <c r="G98" s="74"/>
+      <c r="H98" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H98" s="75"/>
       <c r="I98" s="75"/>
-      <c r="J98" s="76"/>
-      <c r="K98" s="79"/>
-      <c r="L98" s="76"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="79"/>
       <c r="M98" s="76"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="76"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="63" t="s">
         <v>391</v>
       </c>
@@ -5597,21 +5895,24 @@
       <c r="D99" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="E99" s="39" t="s">
+      <c r="E99" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="F99" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="F99" s="74"/>
-      <c r="G99" s="77" t="s">
+      <c r="G99" s="74"/>
+      <c r="H99" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H99" s="75"/>
       <c r="I99" s="75"/>
-      <c r="J99" s="76"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="76"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="79"/>
       <c r="M99" s="76"/>
-    </row>
-    <row r="100" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="N99" s="76"/>
+    </row>
+    <row r="100" spans="1:14" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A100" s="63" t="s">
         <v>389</v>
       </c>
@@ -5624,21 +5925,24 @@
       <c r="D100" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="E100" s="39" t="s">
+      <c r="E100" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="F100" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="F100" s="74"/>
-      <c r="G100" s="77" t="s">
+      <c r="G100" s="74"/>
+      <c r="H100" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H100" s="75"/>
       <c r="I100" s="75"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="79"/>
-      <c r="L100" s="76"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="76"/>
+      <c r="L100" s="79"/>
       <c r="M100" s="76"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="76"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="73" t="s">
         <v>395</v>
       </c>
@@ -5651,21 +5955,24 @@
       <c r="D101" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="E101" s="39" t="s">
+      <c r="E101" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="F101" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="F101" s="80"/>
-      <c r="G101" s="83" t="s">
+      <c r="G101" s="80"/>
+      <c r="H101" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="81"/>
       <c r="I101" s="81"/>
-      <c r="J101" s="82"/>
-      <c r="K101" s="85"/>
-      <c r="L101" s="82"/>
+      <c r="J101" s="81"/>
+      <c r="K101" s="82"/>
+      <c r="L101" s="85"/>
       <c r="M101" s="82"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="82"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="73" t="s">
         <v>396</v>
       </c>
@@ -5678,25 +5985,28 @@
       <c r="D102" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="E102" s="39" t="s">
+      <c r="E102" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="F102" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="F102" s="80"/>
-      <c r="G102" s="83" t="s">
+      <c r="G102" s="80"/>
+      <c r="H102" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="81"/>
       <c r="I102" s="81"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="85" t="s">
+      <c r="J102" s="81"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="85" t="s">
         <v>395</v>
       </c>
-      <c r="L102" s="82" t="s">
+      <c r="M102" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="M102" s="82"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="82"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="s">
         <v>403</v>
       </c>
@@ -5709,21 +6019,24 @@
       <c r="D103" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="E103" s="39" t="s">
+      <c r="E103" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="F103" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="F103" s="86"/>
-      <c r="G103" s="89" t="s">
+      <c r="G103" s="86"/>
+      <c r="H103" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="H103" s="87"/>
       <c r="I103" s="87"/>
-      <c r="J103" s="88"/>
-      <c r="K103" s="91"/>
-      <c r="L103" s="88"/>
-      <c r="M103" s="12"/>
-    </row>
-    <row r="104" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J103" s="87"/>
+      <c r="K103" s="88"/>
+      <c r="L103" s="91"/>
+      <c r="M103" s="88"/>
+      <c r="N103" s="12"/>
+    </row>
+    <row r="104" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A104" s="63" t="s">
         <v>404</v>
       </c>
@@ -5736,21 +6049,24 @@
       <c r="D104" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="E104" s="39" t="s">
+      <c r="E104" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="F104" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="F104" s="86"/>
-      <c r="G104" s="89" t="s">
+      <c r="G104" s="86"/>
+      <c r="H104" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="H104" s="87"/>
       <c r="I104" s="87"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="91"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="12"/>
-    </row>
-    <row r="105" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J104" s="87"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="91"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="12"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="63" t="s">
         <v>405</v>
       </c>
@@ -5763,21 +6079,24 @@
       <c r="D105" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="F105" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="F105" s="86"/>
-      <c r="G105" s="89" t="s">
+      <c r="G105" s="86"/>
+      <c r="H105" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="H105" s="87"/>
       <c r="I105" s="87"/>
-      <c r="J105" s="88"/>
-      <c r="K105" s="91"/>
-      <c r="L105" s="88"/>
-      <c r="M105" s="12"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J105" s="87"/>
+      <c r="K105" s="88"/>
+      <c r="L105" s="91"/>
+      <c r="M105" s="88"/>
+      <c r="N105" s="12"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="63" t="s">
         <v>406</v>
       </c>
@@ -5790,21 +6109,24 @@
       <c r="D106" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="E106" s="39" t="s">
+      <c r="E106" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="F106" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F106" s="86"/>
-      <c r="G106" s="89" t="s">
+      <c r="G106" s="86"/>
+      <c r="H106" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H106" s="87"/>
       <c r="I106" s="87"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="91"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="12"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J106" s="87"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="91"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="12"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="73" t="s">
         <v>416</v>
       </c>
@@ -5817,21 +6139,24 @@
       <c r="D107" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="E107" s="39" t="s">
+      <c r="E107" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="F107" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="96" t="s">
+      <c r="G107" s="93"/>
+      <c r="H107" s="96" t="s">
         <v>383</v>
       </c>
-      <c r="H107" s="94"/>
       <c r="I107" s="94"/>
-      <c r="J107" s="95"/>
-      <c r="K107" s="98"/>
-      <c r="L107" s="95"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="95"/>
+      <c r="L107" s="98"/>
       <c r="M107" s="95"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="95"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="73" t="s">
         <v>417</v>
       </c>
@@ -5844,25 +6169,28 @@
       <c r="D108" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="E108" s="39" t="s">
+      <c r="E108" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="F108" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="F108" s="93"/>
-      <c r="G108" s="96" t="s">
+      <c r="G108" s="93"/>
+      <c r="H108" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="H108" s="94"/>
       <c r="I108" s="94"/>
-      <c r="J108" s="95"/>
-      <c r="K108" s="98" t="s">
+      <c r="J108" s="94"/>
+      <c r="K108" s="95"/>
+      <c r="L108" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="L108" s="95" t="s">
+      <c r="M108" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="M108" s="95"/>
-    </row>
-    <row r="109" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="N108" s="95"/>
+    </row>
+    <row r="109" spans="1:14" ht="51" x14ac:dyDescent="0.35">
       <c r="A109" s="73" t="s">
         <v>418</v>
       </c>
@@ -5875,21 +6203,24 @@
       <c r="D109" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="E109" s="39" t="s">
+      <c r="E109" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="F109" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="F109" s="93"/>
-      <c r="G109" s="96" t="s">
+      <c r="G109" s="93"/>
+      <c r="H109" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="H109" s="94"/>
       <c r="I109" s="94"/>
-      <c r="J109" s="95"/>
-      <c r="K109" s="98"/>
-      <c r="L109" s="95"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="95"/>
+      <c r="L109" s="98"/>
       <c r="M109" s="95"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="95"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="73" t="s">
         <v>419</v>
       </c>
@@ -5902,21 +6233,24 @@
       <c r="D110" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="E110" s="39" t="s">
+      <c r="E110" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="F110" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="F110" s="93"/>
-      <c r="G110" s="96" t="s">
+      <c r="G110" s="93"/>
+      <c r="H110" s="96" t="s">
         <v>383</v>
       </c>
-      <c r="H110" s="94"/>
       <c r="I110" s="94"/>
-      <c r="J110" s="95"/>
-      <c r="K110" s="98"/>
-      <c r="L110" s="95"/>
+      <c r="J110" s="94"/>
+      <c r="K110" s="95"/>
+      <c r="L110" s="98"/>
       <c r="M110" s="95"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="95"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="73" t="s">
         <v>420</v>
       </c>
@@ -5929,25 +6263,28 @@
       <c r="D111" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="E111" s="39" t="s">
+      <c r="E111" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="F111" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F111" s="93"/>
-      <c r="G111" s="96" t="s">
+      <c r="G111" s="93"/>
+      <c r="H111" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="H111" s="94"/>
       <c r="I111" s="94"/>
-      <c r="J111" s="95"/>
-      <c r="K111" s="98" t="s">
+      <c r="J111" s="94"/>
+      <c r="K111" s="95"/>
+      <c r="L111" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="L111" s="95" t="s">
+      <c r="M111" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="M111" s="95"/>
-    </row>
-    <row r="112" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N111" s="95"/>
+    </row>
+    <row r="112" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="63" t="s">
         <v>432</v>
       </c>
@@ -5960,21 +6297,24 @@
       <c r="D112" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="E112" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="F112" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="F112" s="101"/>
-      <c r="G112" s="104" t="s">
+      <c r="G112" s="101"/>
+      <c r="H112" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="H112" s="102"/>
       <c r="I112" s="102"/>
-      <c r="J112" s="103"/>
-      <c r="K112" s="106"/>
-      <c r="L112" s="103"/>
+      <c r="J112" s="102"/>
+      <c r="K112" s="103"/>
+      <c r="L112" s="106"/>
       <c r="M112" s="103"/>
-    </row>
-    <row r="113" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N112" s="103"/>
+    </row>
+    <row r="113" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="63" t="s">
         <v>433</v>
       </c>
@@ -5987,25 +6327,28 @@
       <c r="D113" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="E113" s="39" t="s">
+      <c r="E113" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="F113" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="F113" s="101"/>
-      <c r="G113" s="104" t="s">
+      <c r="G113" s="101"/>
+      <c r="H113" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="H113" s="102"/>
       <c r="I113" s="102"/>
-      <c r="J113" s="103"/>
-      <c r="K113" s="106" t="s">
+      <c r="J113" s="102"/>
+      <c r="K113" s="103"/>
+      <c r="L113" s="106" t="s">
         <v>432</v>
       </c>
-      <c r="L113" s="103" t="s">
+      <c r="M113" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M113" s="103"/>
-    </row>
-    <row r="114" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N113" s="103"/>
+    </row>
+    <row r="114" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="63" t="s">
         <v>434</v>
       </c>
@@ -6018,21 +6361,24 @@
       <c r="D114" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="E114" s="39" t="s">
+      <c r="E114" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="F114" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="F114" s="101"/>
-      <c r="G114" s="104" t="s">
+      <c r="G114" s="101"/>
+      <c r="H114" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="H114" s="102"/>
       <c r="I114" s="102"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="106"/>
-      <c r="L114" s="103"/>
+      <c r="J114" s="102"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="106"/>
       <c r="M114" s="103"/>
-    </row>
-    <row r="115" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N114" s="103"/>
+    </row>
+    <row r="115" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="63" t="s">
         <v>435</v>
       </c>
@@ -6045,25 +6391,28 @@
       <c r="D115" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="E115" s="39" t="s">
+      <c r="E115" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="F115" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="F115" s="101"/>
-      <c r="G115" s="104" t="s">
+      <c r="G115" s="101"/>
+      <c r="H115" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="H115" s="102"/>
       <c r="I115" s="102"/>
-      <c r="J115" s="103"/>
-      <c r="K115" s="106" t="s">
+      <c r="J115" s="102"/>
+      <c r="K115" s="103"/>
+      <c r="L115" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="L115" s="103" t="s">
+      <c r="M115" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M115" s="103"/>
-    </row>
-    <row r="116" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N115" s="103"/>
+    </row>
+    <row r="116" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="63" t="s">
         <v>436</v>
       </c>
@@ -6076,25 +6425,28 @@
       <c r="D116" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="E116" s="39" t="s">
+      <c r="E116" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="F116" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="F116" s="101"/>
-      <c r="G116" s="104" t="s">
+      <c r="G116" s="101"/>
+      <c r="H116" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="102"/>
       <c r="I116" s="102"/>
-      <c r="J116" s="103"/>
-      <c r="K116" s="106" t="s">
+      <c r="J116" s="102"/>
+      <c r="K116" s="103"/>
+      <c r="L116" s="106" t="s">
         <v>432</v>
       </c>
-      <c r="L116" s="103" t="s">
+      <c r="M116" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M116" s="103"/>
-    </row>
-    <row r="117" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N116" s="103"/>
+    </row>
+    <row r="117" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="63" t="s">
         <v>437</v>
       </c>
@@ -6107,21 +6459,24 @@
       <c r="D117" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="E117" s="39" t="s">
+      <c r="E117" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="F117" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="F117" s="101"/>
-      <c r="G117" s="104" t="s">
+      <c r="G117" s="101"/>
+      <c r="H117" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="H117" s="102"/>
       <c r="I117" s="102"/>
-      <c r="J117" s="103"/>
-      <c r="K117" s="106"/>
-      <c r="L117" s="103"/>
+      <c r="J117" s="102"/>
+      <c r="K117" s="103"/>
+      <c r="L117" s="106"/>
       <c r="M117" s="103"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="103"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="63" t="s">
         <v>438</v>
       </c>
@@ -6134,25 +6489,28 @@
       <c r="D118" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="E118" s="39" t="s">
+      <c r="E118" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="F118" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="F118" s="101"/>
-      <c r="G118" s="104" t="s">
+      <c r="G118" s="101"/>
+      <c r="H118" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="H118" s="102"/>
       <c r="I118" s="102"/>
-      <c r="J118" s="103"/>
-      <c r="K118" s="106" t="s">
+      <c r="J118" s="102"/>
+      <c r="K118" s="103"/>
+      <c r="L118" s="106" t="s">
         <v>437</v>
       </c>
-      <c r="L118" s="103" t="s">
+      <c r="M118" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M118" s="103"/>
-    </row>
-    <row r="119" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="N118" s="103"/>
+    </row>
+    <row r="119" spans="1:14" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A119" s="99" t="s">
         <v>80</v>
       </c>
@@ -6165,25 +6523,28 @@
       <c r="D119" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E119" s="111" t="s">
+      <c r="E119" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="F119" s="111" t="s">
         <v>287</v>
       </c>
-      <c r="F119" s="49" t="s">
+      <c r="G119" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="G119" s="50" t="s">
+      <c r="H119" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H119" s="51" t="s">
+      <c r="I119" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="I119" s="51"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="52"/>
-      <c r="M119" s="12"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J119" s="51"/>
+      <c r="K119" s="52"/>
+      <c r="L119" s="53"/>
+      <c r="M119" s="52"/>
+      <c r="N119" s="12"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="99" t="s">
         <v>81</v>
       </c>
@@ -6196,23 +6557,26 @@
       <c r="D120" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="E120" s="111" t="s">
+      <c r="E120" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="F120" s="111" t="s">
         <v>290</v>
       </c>
-      <c r="F120" s="49" t="s">
+      <c r="G120" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="G120" s="54" t="s">
+      <c r="H120" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H120" s="51"/>
       <c r="I120" s="51"/>
-      <c r="J120" s="52"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="52"/>
-      <c r="M120" s="12"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J120" s="51"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="53"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="12"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="99" t="s">
         <v>350</v>
       </c>
@@ -6225,23 +6589,26 @@
       <c r="D121" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E121" s="111" t="s">
+      <c r="E121" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="F121" s="111" t="s">
         <v>293</v>
       </c>
-      <c r="F121" s="49" t="s">
+      <c r="G121" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="G121" s="54" t="s">
+      <c r="H121" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H121" s="51"/>
       <c r="I121" s="51"/>
-      <c r="J121" s="52"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="52"/>
-      <c r="M121" s="12"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J121" s="51"/>
+      <c r="K121" s="52"/>
+      <c r="L121" s="53"/>
+      <c r="M121" s="52"/>
+      <c r="N121" s="12"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="99" t="s">
         <v>351</v>
       </c>
@@ -6254,23 +6621,26 @@
       <c r="D122" s="110" t="s">
         <v>295</v>
       </c>
-      <c r="E122" s="111" t="s">
+      <c r="E122" s="110" t="s">
+        <v>295</v>
+      </c>
+      <c r="F122" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="F122" s="49" t="s">
+      <c r="G122" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="G122" s="54" t="s">
+      <c r="H122" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H122" s="51"/>
       <c r="I122" s="51"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="52"/>
-      <c r="M122" s="12"/>
-    </row>
-    <row r="123" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J122" s="51"/>
+      <c r="K122" s="52"/>
+      <c r="L122" s="53"/>
+      <c r="M122" s="52"/>
+      <c r="N122" s="12"/>
+    </row>
+    <row r="123" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A123" s="99" t="s">
         <v>82</v>
       </c>
@@ -6283,25 +6653,28 @@
       <c r="D123" s="110" t="s">
         <v>298</v>
       </c>
-      <c r="E123" s="111" t="s">
+      <c r="E123" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="F123" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="F123" s="49"/>
-      <c r="G123" s="54" t="s">
+      <c r="G123" s="49"/>
+      <c r="H123" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H123" s="51" t="s">
+      <c r="I123" s="51" t="s">
         <v>505</v>
       </c>
-      <c r="I123" s="51" t="s">
+      <c r="J123" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="J123" s="52"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="52"/>
-      <c r="M123" s="12"/>
-    </row>
-    <row r="124" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K123" s="52"/>
+      <c r="L123" s="53"/>
+      <c r="M123" s="52"/>
+      <c r="N123" s="12"/>
+    </row>
+    <row r="124" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A124" s="99" t="s">
         <v>83</v>
       </c>
@@ -6314,25 +6687,28 @@
       <c r="D124" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="111" t="s">
+      <c r="E124" s="110" t="s">
+        <v>300</v>
+      </c>
+      <c r="F124" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="F124" s="49"/>
-      <c r="G124" s="54" t="s">
+      <c r="G124" s="49"/>
+      <c r="H124" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H124" s="51" t="s">
+      <c r="I124" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="I124" s="51" t="s">
+      <c r="J124" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="J124" s="52"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="52"/>
-      <c r="M124" s="12"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K124" s="52"/>
+      <c r="L124" s="53"/>
+      <c r="M124" s="52"/>
+      <c r="N124" s="12"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="99" t="s">
         <v>352</v>
       </c>
@@ -6345,21 +6721,24 @@
       <c r="D125" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="E125" s="111" t="s">
+      <c r="E125" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="F125" s="49"/>
-      <c r="G125" s="54" t="s">
+      <c r="G125" s="49"/>
+      <c r="H125" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H125" s="51"/>
       <c r="I125" s="51"/>
-      <c r="J125" s="52"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="52"/>
-      <c r="M125" s="12"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J125" s="51"/>
+      <c r="K125" s="52"/>
+      <c r="L125" s="53"/>
+      <c r="M125" s="52"/>
+      <c r="N125" s="12"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="99" t="s">
         <v>353</v>
       </c>
@@ -6372,21 +6751,24 @@
       <c r="D126" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="E126" s="111" t="s">
+      <c r="E126" s="110" t="s">
+        <v>304</v>
+      </c>
+      <c r="F126" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="F126" s="49"/>
-      <c r="G126" s="54" t="s">
+      <c r="G126" s="49"/>
+      <c r="H126" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H126" s="51"/>
       <c r="I126" s="51"/>
-      <c r="J126" s="52"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="52"/>
-      <c r="M126" s="12"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J126" s="51"/>
+      <c r="K126" s="52"/>
+      <c r="L126" s="53"/>
+      <c r="M126" s="52"/>
+      <c r="N126" s="12"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="99" t="s">
         <v>354</v>
       </c>
@@ -6399,21 +6781,24 @@
       <c r="D127" s="110" t="s">
         <v>306</v>
       </c>
-      <c r="E127" s="111" t="s">
+      <c r="E127" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="F127" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="F127" s="49"/>
-      <c r="G127" s="54" t="s">
+      <c r="G127" s="49"/>
+      <c r="H127" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H127" s="51"/>
       <c r="I127" s="51"/>
-      <c r="J127" s="52"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="52"/>
-      <c r="M127" s="12"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J127" s="51"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="53"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="12"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="99" t="s">
         <v>356</v>
       </c>
@@ -6426,23 +6811,26 @@
       <c r="D128" s="110" t="s">
         <v>308</v>
       </c>
-      <c r="E128" s="111" t="s">
+      <c r="E128" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="F128" s="111" t="s">
         <v>503</v>
       </c>
-      <c r="F128" s="49"/>
-      <c r="G128" s="54" t="s">
+      <c r="G128" s="49"/>
+      <c r="H128" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="I128" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="I128" s="51"/>
-      <c r="J128" s="52"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="52"/>
-      <c r="M128" s="12"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J128" s="51"/>
+      <c r="K128" s="52"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="52"/>
+      <c r="N128" s="12"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="99" t="s">
         <v>355</v>
       </c>
@@ -6455,21 +6843,24 @@
       <c r="D129" s="110" t="s">
         <v>309</v>
       </c>
-      <c r="E129" s="111" t="s">
+      <c r="E129" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F129" s="111" t="s">
         <v>504</v>
       </c>
-      <c r="F129" s="49"/>
-      <c r="G129" s="54" t="s">
+      <c r="G129" s="49"/>
+      <c r="H129" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H129" s="51"/>
       <c r="I129" s="51"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="52"/>
-      <c r="M129" s="12"/>
-    </row>
-    <row r="130" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="51"/>
+      <c r="K129" s="52"/>
+      <c r="L129" s="53"/>
+      <c r="M129" s="52"/>
+      <c r="N129" s="12"/>
+    </row>
+    <row r="130" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="99" t="s">
         <v>357</v>
       </c>
@@ -6482,23 +6873,26 @@
       <c r="D130" s="110" t="s">
         <v>311</v>
       </c>
-      <c r="E130" s="111" t="s">
+      <c r="E130" s="110" t="s">
+        <v>311</v>
+      </c>
+      <c r="F130" s="111" t="s">
         <v>312</v>
       </c>
-      <c r="F130" s="49"/>
-      <c r="G130" s="54" t="s">
+      <c r="G130" s="49"/>
+      <c r="H130" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H130" s="51" t="s">
+      <c r="I130" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="I130" s="51"/>
-      <c r="J130" s="52"/>
-      <c r="K130" s="53"/>
-      <c r="L130" s="52"/>
-      <c r="M130" s="103"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J130" s="51"/>
+      <c r="K130" s="52"/>
+      <c r="L130" s="53"/>
+      <c r="M130" s="52"/>
+      <c r="N130" s="103"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="99" t="s">
         <v>496</v>
       </c>
@@ -6511,23 +6905,26 @@
       <c r="D131" s="110" t="s">
         <v>498</v>
       </c>
-      <c r="E131" s="111" t="s">
+      <c r="E131" s="110" t="s">
+        <v>498</v>
+      </c>
+      <c r="F131" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="F131" s="49"/>
-      <c r="G131" s="54" t="s">
+      <c r="G131" s="49"/>
+      <c r="H131" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H131" s="51" t="s">
+      <c r="I131" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="I131" s="51"/>
-      <c r="J131" s="52"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="12"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J131" s="51"/>
+      <c r="K131" s="52"/>
+      <c r="L131" s="53"/>
+      <c r="M131" s="52"/>
+      <c r="N131" s="12"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="99" t="s">
         <v>358</v>
       </c>
@@ -6540,21 +6937,24 @@
       <c r="D132" s="110" t="s">
         <v>502</v>
       </c>
-      <c r="E132" s="111" t="s">
+      <c r="E132" s="110" t="s">
+        <v>502</v>
+      </c>
+      <c r="F132" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="F132" s="49"/>
-      <c r="G132" s="50" t="s">
+      <c r="G132" s="49"/>
+      <c r="H132" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="51"/>
       <c r="I132" s="51"/>
-      <c r="J132" s="52"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="52"/>
-      <c r="M132" s="12"/>
-    </row>
-    <row r="133" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J132" s="51"/>
+      <c r="K132" s="52"/>
+      <c r="L132" s="53"/>
+      <c r="M132" s="52"/>
+      <c r="N132" s="12"/>
+    </row>
+    <row r="133" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A133" s="99" t="s">
         <v>359</v>
       </c>
@@ -6567,21 +6967,24 @@
       <c r="D133" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="E133" s="111" t="s">
+      <c r="E133" s="110" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" s="111" t="s">
         <v>316</v>
       </c>
-      <c r="F133" s="49"/>
-      <c r="G133" s="50" t="s">
+      <c r="G133" s="49"/>
+      <c r="H133" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="51"/>
       <c r="I133" s="51"/>
-      <c r="J133" s="52"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="52"/>
-      <c r="M133" s="12"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J133" s="51"/>
+      <c r="K133" s="52"/>
+      <c r="L133" s="53"/>
+      <c r="M133" s="52"/>
+      <c r="N133" s="12"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="99" t="s">
         <v>360</v>
       </c>
@@ -6594,23 +6997,26 @@
       <c r="D134" s="110" t="s">
         <v>317</v>
       </c>
-      <c r="E134" s="111" t="s">
+      <c r="E134" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="F134" s="111" t="s">
         <v>501</v>
       </c>
-      <c r="F134" s="49"/>
-      <c r="G134" s="54" t="s">
+      <c r="G134" s="49"/>
+      <c r="H134" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H134" s="51" t="s">
+      <c r="I134" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="I134" s="51"/>
-      <c r="J134" s="52"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="52"/>
-      <c r="M134" s="12"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J134" s="51"/>
+      <c r="K134" s="52"/>
+      <c r="L134" s="53"/>
+      <c r="M134" s="52"/>
+      <c r="N134" s="12"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="99" t="s">
         <v>361</v>
       </c>
@@ -6623,21 +7029,24 @@
       <c r="D135" s="110" t="s">
         <v>319</v>
       </c>
-      <c r="E135" s="111" t="s">
+      <c r="E135" s="110" t="s">
+        <v>319</v>
+      </c>
+      <c r="F135" s="111" t="s">
         <v>320</v>
       </c>
-      <c r="F135" s="49"/>
-      <c r="G135" s="50" t="s">
+      <c r="G135" s="49"/>
+      <c r="H135" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="51"/>
       <c r="I135" s="51"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="52"/>
-      <c r="M135" s="12"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J135" s="51"/>
+      <c r="K135" s="52"/>
+      <c r="L135" s="53"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="12"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="99" t="s">
         <v>362</v>
       </c>
@@ -6650,25 +7059,28 @@
       <c r="D136" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="E136" s="111" t="s">
+      <c r="E136" s="110" t="s">
+        <v>476</v>
+      </c>
+      <c r="F136" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="F136" s="49"/>
-      <c r="G136" s="50" t="s">
+      <c r="G136" s="49"/>
+      <c r="H136" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="51"/>
       <c r="I136" s="51"/>
-      <c r="J136" s="52"/>
-      <c r="K136" s="53" t="s">
+      <c r="J136" s="51"/>
+      <c r="K136" s="52"/>
+      <c r="L136" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="L136" s="52" t="s">
+      <c r="M136" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M136" s="12"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="12"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="99" t="s">
         <v>363</v>
       </c>
@@ -6681,21 +7093,24 @@
       <c r="D137" s="110" t="s">
         <v>322</v>
       </c>
-      <c r="E137" s="111" t="s">
+      <c r="E137" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="F137" s="111" t="s">
         <v>493</v>
       </c>
-      <c r="F137" s="49"/>
-      <c r="G137" s="50" t="s">
+      <c r="G137" s="49"/>
+      <c r="H137" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="51"/>
       <c r="I137" s="51"/>
-      <c r="J137" s="52"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="52"/>
-      <c r="M137" s="12"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J137" s="51"/>
+      <c r="K137" s="52"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="52"/>
+      <c r="N137" s="12"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="99" t="s">
         <v>440</v>
       </c>
@@ -6708,25 +7123,28 @@
       <c r="D138" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="E138" s="111" t="s">
+      <c r="E138" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="F138" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="F138" s="49" t="s">
+      <c r="G138" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="G138" s="50" t="s">
+      <c r="H138" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H138" s="51" t="s">
+      <c r="I138" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="I138" s="51"/>
-      <c r="J138" s="52"/>
-      <c r="K138" s="53"/>
-      <c r="L138" s="52"/>
-      <c r="M138" s="12"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J138" s="51"/>
+      <c r="K138" s="52"/>
+      <c r="L138" s="53"/>
+      <c r="M138" s="52"/>
+      <c r="N138" s="12"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="99" t="s">
         <v>441</v>
       </c>
@@ -6739,23 +7157,26 @@
       <c r="D139" s="110" t="s">
         <v>328</v>
       </c>
-      <c r="E139" s="111" t="s">
+      <c r="E139" s="110" t="s">
+        <v>328</v>
+      </c>
+      <c r="F139" s="111" t="s">
         <v>329</v>
       </c>
-      <c r="F139" s="49" t="s">
+      <c r="G139" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="G139" s="54" t="s">
+      <c r="H139" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H139" s="51"/>
       <c r="I139" s="51"/>
-      <c r="J139" s="52"/>
-      <c r="K139" s="53"/>
-      <c r="L139" s="52"/>
-      <c r="M139" s="12"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J139" s="51"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="53"/>
+      <c r="M139" s="52"/>
+      <c r="N139" s="12"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="99" t="s">
         <v>442</v>
       </c>
@@ -6768,23 +7189,26 @@
       <c r="D140" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="E140" s="111" t="s">
+      <c r="E140" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="F140" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="F140" s="49" t="s">
+      <c r="G140" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="G140" s="54" t="s">
+      <c r="H140" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H140" s="51"/>
       <c r="I140" s="51"/>
-      <c r="J140" s="52"/>
-      <c r="K140" s="53"/>
-      <c r="L140" s="52"/>
-      <c r="M140" s="12"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J140" s="51"/>
+      <c r="K140" s="52"/>
+      <c r="L140" s="53"/>
+      <c r="M140" s="52"/>
+      <c r="N140" s="12"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="99" t="s">
         <v>443</v>
       </c>
@@ -6797,23 +7221,26 @@
       <c r="D141" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="E141" s="111" t="s">
+      <c r="E141" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F141" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="F141" s="49" t="s">
+      <c r="G141" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="G141" s="54" t="s">
+      <c r="H141" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H141" s="51"/>
       <c r="I141" s="51"/>
-      <c r="J141" s="52"/>
-      <c r="K141" s="53"/>
-      <c r="L141" s="52"/>
-      <c r="M141" s="12"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J141" s="51"/>
+      <c r="K141" s="52"/>
+      <c r="L141" s="53"/>
+      <c r="M141" s="52"/>
+      <c r="N141" s="12"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="99" t="s">
         <v>439</v>
       </c>
@@ -6826,21 +7253,24 @@
       <c r="D142" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="E142" s="111" t="s">
+      <c r="E142" s="110" t="s">
+        <v>337</v>
+      </c>
+      <c r="F142" s="111" t="s">
         <v>338</v>
       </c>
-      <c r="F142" s="49"/>
-      <c r="G142" s="50" t="s">
+      <c r="G142" s="49"/>
+      <c r="H142" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H142" s="51"/>
       <c r="I142" s="51"/>
-      <c r="J142" s="52"/>
-      <c r="K142" s="53"/>
-      <c r="L142" s="52"/>
-      <c r="M142" s="12"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J142" s="51"/>
+      <c r="K142" s="52"/>
+      <c r="L142" s="53"/>
+      <c r="M142" s="52"/>
+      <c r="N142" s="12"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="99" t="s">
         <v>444</v>
       </c>
@@ -6853,27 +7283,30 @@
       <c r="D143" s="110" t="s">
         <v>477</v>
       </c>
-      <c r="E143" s="111" t="s">
+      <c r="E143" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="F143" s="111" t="s">
         <v>339</v>
       </c>
-      <c r="F143" s="49" t="s">
+      <c r="G143" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="G143" s="50" t="s">
+      <c r="H143" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H143" s="51"/>
       <c r="I143" s="51"/>
-      <c r="J143" s="52"/>
-      <c r="K143" s="53" t="s">
+      <c r="J143" s="51"/>
+      <c r="K143" s="52"/>
+      <c r="L143" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="L143" s="52" t="s">
+      <c r="M143" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M143" s="12"/>
-    </row>
-    <row r="144" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="N143" s="12"/>
+    </row>
+    <row r="144" spans="1:14" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
       <c r="A144" s="99" t="s">
         <v>445</v>
       </c>
@@ -6886,23 +7319,26 @@
       <c r="D144" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="E144" s="111" t="s">
+      <c r="E144" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="F144" s="111" t="s">
         <v>456</v>
       </c>
-      <c r="F144" s="49"/>
-      <c r="G144" s="50" t="s">
+      <c r="G144" s="49"/>
+      <c r="H144" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H144" s="51" t="s">
+      <c r="I144" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="I144" s="51"/>
-      <c r="J144" s="52"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="52"/>
-      <c r="M144" s="103"/>
-    </row>
-    <row r="145" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="J144" s="51"/>
+      <c r="K144" s="52"/>
+      <c r="L144" s="53"/>
+      <c r="M144" s="52"/>
+      <c r="N144" s="103"/>
+    </row>
+    <row r="145" spans="1:14" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
       <c r="A145" s="99" t="s">
         <v>454</v>
       </c>
@@ -6915,23 +7351,26 @@
       <c r="D145" s="110" t="s">
         <v>458</v>
       </c>
-      <c r="E145" s="111" t="s">
+      <c r="E145" s="110" t="s">
+        <v>458</v>
+      </c>
+      <c r="F145" s="111" t="s">
         <v>460</v>
       </c>
-      <c r="F145" s="49"/>
-      <c r="G145" s="50" t="s">
+      <c r="G145" s="49"/>
+      <c r="H145" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H145" s="51" t="s">
+      <c r="I145" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="I145" s="51"/>
-      <c r="J145" s="52"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="52"/>
-      <c r="M145" s="103"/>
-    </row>
-    <row r="146" spans="1:13" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="J145" s="51"/>
+      <c r="K145" s="52"/>
+      <c r="L145" s="53"/>
+      <c r="M145" s="52"/>
+      <c r="N145" s="103"/>
+    </row>
+    <row r="146" spans="1:14" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
       <c r="A146" s="99" t="s">
         <v>455</v>
       </c>
@@ -6944,23 +7383,26 @@
       <c r="D146" s="110" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="111" t="s">
+      <c r="E146" s="110" t="s">
+        <v>459</v>
+      </c>
+      <c r="F146" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="F146" s="49"/>
-      <c r="G146" s="50" t="s">
+      <c r="G146" s="49"/>
+      <c r="H146" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H146" s="51" t="s">
+      <c r="I146" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="I146" s="51"/>
-      <c r="J146" s="52"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="52"/>
-      <c r="M146" s="103"/>
-    </row>
-    <row r="147" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J146" s="51"/>
+      <c r="K146" s="52"/>
+      <c r="L146" s="53"/>
+      <c r="M146" s="52"/>
+      <c r="N146" s="103"/>
+    </row>
+    <row r="147" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A147" s="99" t="s">
         <v>451</v>
       </c>
@@ -6973,21 +7415,24 @@
       <c r="D147" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="E147" s="111" t="s">
+      <c r="E147" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="F147" s="111" t="s">
         <v>343</v>
       </c>
-      <c r="F147" s="49"/>
-      <c r="G147" s="50" t="s">
+      <c r="G147" s="49"/>
+      <c r="H147" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="51"/>
       <c r="I147" s="51"/>
-      <c r="J147" s="52"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="52"/>
-      <c r="M147" s="12"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J147" s="51"/>
+      <c r="K147" s="52"/>
+      <c r="L147" s="53"/>
+      <c r="M147" s="52"/>
+      <c r="N147" s="12"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="99" t="s">
         <v>446</v>
       </c>
@@ -7000,27 +7445,30 @@
       <c r="D148" s="110" t="s">
         <v>478</v>
       </c>
-      <c r="E148" s="111" t="s">
+      <c r="E148" s="110" t="s">
+        <v>478</v>
+      </c>
+      <c r="F148" s="111" t="s">
         <v>344</v>
       </c>
-      <c r="F148" s="49" t="s">
+      <c r="G148" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="G148" s="50" t="s">
+      <c r="H148" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H148" s="51"/>
       <c r="I148" s="51"/>
-      <c r="J148" s="52"/>
-      <c r="K148" s="53" t="s">
+      <c r="J148" s="51"/>
+      <c r="K148" s="52"/>
+      <c r="L148" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="L148" s="52" t="s">
+      <c r="M148" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M148" s="12"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="12"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="99" t="s">
         <v>452</v>
       </c>
@@ -7033,21 +7481,24 @@
       <c r="D149" s="110" t="s">
         <v>347</v>
       </c>
-      <c r="E149" s="111" t="s">
+      <c r="E149" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="F149" s="111" t="s">
         <v>348</v>
       </c>
-      <c r="F149" s="49"/>
-      <c r="G149" s="50" t="s">
+      <c r="G149" s="49"/>
+      <c r="H149" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H149" s="51"/>
       <c r="I149" s="51"/>
-      <c r="J149" s="52"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="52"/>
-      <c r="M149" s="12"/>
-    </row>
-    <row r="150" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J149" s="51"/>
+      <c r="K149" s="52"/>
+      <c r="L149" s="53"/>
+      <c r="M149" s="52"/>
+      <c r="N149" s="12"/>
+    </row>
+    <row r="150" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A150" s="109" t="s">
         <v>453</v>
       </c>
@@ -7060,25 +7511,28 @@
       <c r="D150" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="E150" s="111" t="s">
+      <c r="E150" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="F150" s="111" t="s">
         <v>494</v>
       </c>
-      <c r="F150" s="49"/>
-      <c r="G150" s="50" t="s">
+      <c r="G150" s="49"/>
+      <c r="H150" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H150" s="51"/>
       <c r="I150" s="51"/>
-      <c r="J150" s="52"/>
-      <c r="K150" s="53"/>
-      <c r="L150" s="52"/>
-      <c r="M150" s="12"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J150" s="51"/>
+      <c r="K150" s="52"/>
+      <c r="L150" s="53"/>
+      <c r="M150" s="52"/>
+      <c r="N150" s="12"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
+++ b/dataland-framework-toolbox/inputs/esg-datenkatalog/esg-datenkatalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\esg-datenkatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C31DA12-D6C8-44F2-9579-EE8C0B511BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C0757-5C2D-43ED-BEBF-CCDA542D3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5145" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="975" windowWidth="21600" windowHeight="11175" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="533">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -2621,26 +2621,26 @@
   <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2:E150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="1"/>
-    <col min="2" max="2" width="18.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="122.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="85.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.54296875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="12.54296875" style="2"/>
-    <col min="12" max="12" width="12.54296875" style="1"/>
-    <col min="13" max="16384" width="12.54296875" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="1"/>
+    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" style="92" customWidth="1"/>
+    <col min="6" max="6" width="122.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="85.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" style="2"/>
+    <col min="12" max="12" width="12.5703125" style="1"/>
+    <col min="13" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2697,9 +2697,7 @@
       <c r="D2" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>517</v>
-      </c>
+      <c r="E2" s="29"/>
       <c r="F2" s="30" t="s">
         <v>518</v>
       </c>
@@ -2714,7 +2712,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -2727,9 +2725,7 @@
       <c r="D3" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>519</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="39" t="s">
         <v>84</v>
       </c>
@@ -2744,7 +2740,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
@@ -2757,9 +2753,7 @@
       <c r="D4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="39" t="s">
         <v>86</v>
       </c>
@@ -2778,7 +2772,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
@@ -2791,9 +2785,7 @@
       <c r="D5" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>463</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="39" t="s">
         <v>520</v>
       </c>
@@ -2812,7 +2804,7 @@
       </c>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
@@ -2825,9 +2817,7 @@
       <c r="D6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>464</v>
-      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="39" t="s">
         <v>521</v>
       </c>
@@ -2846,7 +2836,7 @@
       </c>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>91</v>
       </c>
@@ -2859,9 +2849,7 @@
       <c r="D7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>88</v>
-      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="39" t="s">
         <v>90</v>
       </c>
@@ -2884,7 +2872,7 @@
       </c>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>92</v>
       </c>
@@ -2897,9 +2885,7 @@
       <c r="D8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="39" t="s">
         <v>96</v>
       </c>
@@ -2922,7 +2908,7 @@
       </c>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>93</v>
       </c>
@@ -2935,9 +2921,7 @@
       <c r="D9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>89</v>
-      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="39" t="s">
         <v>98</v>
       </c>
@@ -2960,7 +2944,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>94</v>
       </c>
@@ -2973,9 +2957,7 @@
       <c r="D10" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="39" t="s">
         <v>99</v>
       </c>
@@ -2998,7 +2980,7 @@
       </c>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>100</v>
       </c>
@@ -3011,9 +2993,7 @@
       <c r="D11" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="39" t="s">
         <v>102</v>
       </c>
@@ -3036,7 +3016,7 @@
       </c>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>101</v>
       </c>
@@ -3049,9 +3029,7 @@
       <c r="D12" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="39" t="s">
         <v>126</v>
       </c>
@@ -3074,7 +3052,7 @@
       </c>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -3087,9 +3065,7 @@
       <c r="D13" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="44" t="s">
         <v>104</v>
       </c>
@@ -3104,7 +3080,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
@@ -3117,9 +3093,7 @@
       <c r="D14" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="45" t="s">
         <v>106</v>
       </c>
@@ -3134,7 +3108,7 @@
       <c r="M14" s="26"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
@@ -3147,9 +3121,7 @@
       <c r="D15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="45" t="s">
         <v>109</v>
       </c>
@@ -3168,7 +3140,7 @@
       <c r="M15" s="26"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>111</v>
       </c>
@@ -3181,9 +3153,7 @@
       <c r="D16" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="46" t="s">
         <v>112</v>
       </c>
@@ -3202,7 +3172,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>113</v>
       </c>
@@ -3215,9 +3185,7 @@
       <c r="D17" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="47" t="s">
         <v>114</v>
       </c>
@@ -3236,7 +3204,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>487</v>
       </c>
@@ -3249,9 +3217,7 @@
       <c r="D18" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>530</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="46" t="s">
         <v>490</v>
       </c>
@@ -3266,7 +3232,7 @@
       <c r="M18" s="103"/>
       <c r="N18" s="103"/>
     </row>
-    <row r="19" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>488</v>
       </c>
@@ -3279,9 +3245,7 @@
       <c r="D19" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="46" t="s">
         <v>489</v>
       </c>
@@ -3296,7 +3260,7 @@
       <c r="M19" s="103"/>
       <c r="N19" s="103"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>491</v>
       </c>
@@ -3309,9 +3273,7 @@
       <c r="D20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="47" t="s">
         <v>115</v>
       </c>
@@ -3330,7 +3292,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>116</v>
       </c>
@@ -3343,9 +3305,7 @@
       <c r="D21" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="46" t="s">
         <v>121</v>
       </c>
@@ -3364,7 +3324,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>128</v>
       </c>
@@ -3377,9 +3337,7 @@
       <c r="D22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>122</v>
-      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="47" t="s">
         <v>123</v>
       </c>
@@ -3398,7 +3356,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>129</v>
       </c>
@@ -3411,9 +3369,7 @@
       <c r="D23" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>528</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="46" t="s">
         <v>490</v>
       </c>
@@ -3428,7 +3384,7 @@
       <c r="M23" s="103"/>
       <c r="N23" s="103"/>
     </row>
-    <row r="24" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>133</v>
       </c>
@@ -3441,9 +3397,7 @@
       <c r="D24" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>529</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="46" t="s">
         <v>489</v>
       </c>
@@ -3458,7 +3412,7 @@
       <c r="M24" s="103"/>
       <c r="N24" s="103"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>134</v>
       </c>
@@ -3471,9 +3425,7 @@
       <c r="D25" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>465</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="47" t="s">
         <v>127</v>
       </c>
@@ -3488,7 +3440,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>186</v>
       </c>
@@ -3501,9 +3453,7 @@
       <c r="D26" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="47" t="s">
         <v>131</v>
       </c>
@@ -3522,7 +3472,7 @@
       </c>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>492</v>
       </c>
@@ -3535,9 +3485,7 @@
       <c r="D27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="E27" s="19"/>
       <c r="F27" s="47" t="s">
         <v>136</v>
       </c>
@@ -3556,7 +3504,7 @@
       </c>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>137</v>
       </c>
@@ -3569,9 +3517,7 @@
       <c r="D28" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>447</v>
-      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="47" t="s">
         <v>138</v>
       </c>
@@ -3586,7 +3532,7 @@
       <c r="M28" s="26"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>139</v>
       </c>
@@ -3599,9 +3545,7 @@
       <c r="D29" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>158</v>
-      </c>
+      <c r="E29" s="19"/>
       <c r="F29" s="47" t="s">
         <v>140</v>
       </c>
@@ -3620,7 +3564,7 @@
       </c>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>142</v>
       </c>
@@ -3633,9 +3577,7 @@
       <c r="D30" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>159</v>
-      </c>
+      <c r="E30" s="19"/>
       <c r="F30" s="47" t="s">
         <v>143</v>
       </c>
@@ -3654,7 +3596,7 @@
       </c>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
@@ -3667,9 +3609,7 @@
       <c r="D31" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>160</v>
-      </c>
+      <c r="E31" s="19"/>
       <c r="F31" s="47" t="s">
         <v>515</v>
       </c>
@@ -3688,7 +3628,7 @@
       </c>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>141</v>
       </c>
@@ -3701,9 +3641,7 @@
       <c r="D32" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>161</v>
-      </c>
+      <c r="E32" s="19"/>
       <c r="F32" s="47" t="s">
         <v>145</v>
       </c>
@@ -3718,7 +3656,7 @@
       <c r="M32" s="26"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>148</v>
       </c>
@@ -3731,9 +3669,7 @@
       <c r="D33" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>162</v>
-      </c>
+      <c r="E33" s="19"/>
       <c r="F33" s="47" t="s">
         <v>146</v>
       </c>
@@ -3752,7 +3688,7 @@
       </c>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>149</v>
       </c>
@@ -3765,9 +3701,7 @@
       <c r="D34" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>163</v>
-      </c>
+      <c r="E34" s="19"/>
       <c r="F34" s="47" t="s">
         <v>147</v>
       </c>
@@ -3786,7 +3720,7 @@
       </c>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>150</v>
       </c>
@@ -3799,9 +3733,7 @@
       <c r="D35" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="E35" s="19"/>
       <c r="F35" s="47" t="s">
         <v>512</v>
       </c>
@@ -3820,7 +3752,7 @@
       </c>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>151</v>
       </c>
@@ -3833,9 +3765,7 @@
       <c r="D36" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>165</v>
-      </c>
+      <c r="E36" s="19"/>
       <c r="F36" s="47" t="s">
         <v>152</v>
       </c>
@@ -3850,7 +3780,7 @@
       <c r="M36" s="26"/>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>153</v>
       </c>
@@ -3863,9 +3793,7 @@
       <c r="D37" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>166</v>
-      </c>
+      <c r="E37" s="19"/>
       <c r="F37" s="47" t="s">
         <v>154</v>
       </c>
@@ -3884,7 +3812,7 @@
       </c>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>155</v>
       </c>
@@ -3897,9 +3825,7 @@
       <c r="D38" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="E38" s="19"/>
       <c r="F38" s="47" t="s">
         <v>156</v>
       </c>
@@ -3918,7 +3844,7 @@
       </c>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>157</v>
       </c>
@@ -3931,9 +3857,7 @@
       <c r="D39" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="E39" s="19"/>
       <c r="F39" s="47" t="s">
         <v>513</v>
       </c>
@@ -3952,7 +3876,7 @@
       </c>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>170</v>
       </c>
@@ -3965,9 +3889,7 @@
       <c r="D40" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="47" t="s">
         <v>175</v>
       </c>
@@ -3982,7 +3904,7 @@
       <c r="M40" s="26"/>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>
@@ -3995,9 +3917,7 @@
       <c r="D41" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>176</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="47" t="s">
         <v>177</v>
       </c>
@@ -4016,7 +3936,7 @@
       </c>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>172</v>
       </c>
@@ -4029,9 +3949,7 @@
       <c r="D42" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="47" t="s">
         <v>180</v>
       </c>
@@ -4050,7 +3968,7 @@
       </c>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>173</v>
       </c>
@@ -4063,9 +3981,7 @@
       <c r="D43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="47" t="s">
         <v>514</v>
       </c>
@@ -4084,7 +4000,7 @@
       </c>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>181</v>
       </c>
@@ -4097,9 +4013,7 @@
       <c r="D44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="39" t="s">
         <v>507</v>
       </c>
@@ -4116,7 +4030,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>182</v>
       </c>
@@ -4129,9 +4043,7 @@
       <c r="D45" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="39" t="s">
         <v>58</v>
       </c>
@@ -4150,7 +4062,7 @@
       </c>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
@@ -4163,9 +4075,7 @@
       <c r="D46" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>185</v>
-      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="39" t="s">
         <v>60</v>
       </c>
@@ -4184,7 +4094,7 @@
       </c>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>34</v>
       </c>
@@ -4197,9 +4107,7 @@
       <c r="D47" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="55" t="s">
-        <v>28</v>
-      </c>
+      <c r="E47" s="55"/>
       <c r="F47" s="33" t="s">
         <v>480</v>
       </c>
@@ -4218,7 +4126,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>42</v>
       </c>
@@ -4231,9 +4139,7 @@
       <c r="D48" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="55" t="s">
-        <v>31</v>
-      </c>
+      <c r="E48" s="55"/>
       <c r="F48" s="33" t="s">
         <v>481</v>
       </c>
@@ -4252,7 +4158,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>187</v>
       </c>
@@ -4265,9 +4171,7 @@
       <c r="D49" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="55" t="s">
-        <v>32</v>
-      </c>
+      <c r="E49" s="55"/>
       <c r="F49" s="33" t="s">
         <v>482</v>
       </c>
@@ -4286,7 +4190,7 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>188</v>
       </c>
@@ -4299,9 +4203,7 @@
       <c r="D50" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="55" t="s">
-        <v>33</v>
-      </c>
+      <c r="E50" s="55"/>
       <c r="F50" s="33" t="s">
         <v>483</v>
       </c>
@@ -4320,7 +4222,7 @@
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
     </row>
-    <row r="51" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>189</v>
       </c>
@@ -4333,9 +4235,7 @@
       <c r="D51" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="55" t="s">
-        <v>190</v>
-      </c>
+      <c r="E51" s="55"/>
       <c r="F51" s="33" t="s">
         <v>484</v>
       </c>
@@ -4354,7 +4254,7 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
     </row>
-    <row r="52" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>191</v>
       </c>
@@ -4367,9 +4267,7 @@
       <c r="D52" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E52" s="55" t="s">
-        <v>192</v>
-      </c>
+      <c r="E52" s="55"/>
       <c r="F52" s="33" t="s">
         <v>485</v>
       </c>
@@ -4388,7 +4286,7 @@
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
     </row>
-    <row r="53" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>193</v>
       </c>
@@ -4401,9 +4299,7 @@
       <c r="D53" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="55" t="s">
-        <v>194</v>
-      </c>
+      <c r="E53" s="55"/>
       <c r="F53" s="33" t="s">
         <v>486</v>
       </c>
@@ -4422,7 +4318,7 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>49</v>
       </c>
@@ -4435,9 +4331,7 @@
       <c r="D54" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="55" t="s">
-        <v>35</v>
-      </c>
+      <c r="E54" s="55"/>
       <c r="F54" s="33" t="s">
         <v>36</v>
       </c>
@@ -4452,7 +4346,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>203</v>
       </c>
@@ -4465,9 +4359,7 @@
       <c r="D55" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="55" t="s">
-        <v>37</v>
-      </c>
+      <c r="E55" s="55"/>
       <c r="F55" s="35" t="s">
         <v>204</v>
       </c>
@@ -4488,7 +4380,7 @@
       </c>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
         <v>205</v>
       </c>
@@ -4501,9 +4393,7 @@
       <c r="D56" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="E56" s="55"/>
       <c r="F56" s="36" t="s">
         <v>40</v>
       </c>
@@ -4524,7 +4414,7 @@
       </c>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>51</v>
       </c>
@@ -4537,9 +4427,7 @@
       <c r="D57" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="55" t="s">
-        <v>44</v>
-      </c>
+      <c r="E57" s="55"/>
       <c r="F57" s="33" t="s">
         <v>45</v>
       </c>
@@ -4554,7 +4442,7 @@
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
     </row>
-    <row r="58" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
         <v>52</v>
       </c>
@@ -4567,9 +4455,7 @@
       <c r="D58" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="55" t="s">
-        <v>46</v>
-      </c>
+      <c r="E58" s="55"/>
       <c r="F58" s="35" t="s">
         <v>466</v>
       </c>
@@ -4590,7 +4476,7 @@
       </c>
       <c r="N58" s="12"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>206</v>
       </c>
@@ -4603,9 +4489,7 @@
       <c r="D59" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="55" t="s">
-        <v>48</v>
-      </c>
+      <c r="E59" s="55"/>
       <c r="F59" s="36" t="s">
         <v>40</v>
       </c>
@@ -4626,7 +4510,7 @@
       </c>
       <c r="N59" s="12"/>
     </row>
-    <row r="60" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
         <v>53</v>
       </c>
@@ -4639,9 +4523,7 @@
       <c r="D60" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>207</v>
-      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="39" t="s">
         <v>50</v>
       </c>
@@ -4656,7 +4538,7 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>54</v>
       </c>
@@ -4669,9 +4551,7 @@
       <c r="D61" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="55" t="s">
-        <v>209</v>
-      </c>
+      <c r="E61" s="55"/>
       <c r="F61" s="38" t="s">
         <v>210</v>
       </c>
@@ -4688,7 +4568,7 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
         <v>56</v>
       </c>
@@ -4701,9 +4581,7 @@
       <c r="D62" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E62" s="55" t="s">
-        <v>212</v>
-      </c>
+      <c r="E62" s="55"/>
       <c r="F62" s="38" t="s">
         <v>213</v>
       </c>
@@ -4718,7 +4596,7 @@
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>214</v>
       </c>
@@ -4731,9 +4609,7 @@
       <c r="D63" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E63" s="40" t="s">
-        <v>450</v>
-      </c>
+      <c r="E63" s="40"/>
       <c r="F63" s="39" t="s">
         <v>215</v>
       </c>
@@ -4748,7 +4624,7 @@
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>61</v>
       </c>
@@ -4761,9 +4637,7 @@
       <c r="D64" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="E64" s="55" t="s">
-        <v>467</v>
-      </c>
+      <c r="E64" s="55"/>
       <c r="F64" s="38" t="s">
         <v>216</v>
       </c>
@@ -4782,7 +4656,7 @@
       </c>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>65</v>
       </c>
@@ -4795,9 +4669,7 @@
       <c r="D65" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="E65" s="40" t="s">
-        <v>218</v>
-      </c>
+      <c r="E65" s="40"/>
       <c r="F65" s="39" t="s">
         <v>62</v>
       </c>
@@ -4812,7 +4684,7 @@
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>219</v>
       </c>
@@ -4825,9 +4697,7 @@
       <c r="D66" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="55" t="s">
-        <v>220</v>
-      </c>
+      <c r="E66" s="55"/>
       <c r="F66" s="38" t="s">
         <v>221</v>
       </c>
@@ -4846,7 +4716,7 @@
       </c>
       <c r="N66" s="12"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>66</v>
       </c>
@@ -4859,9 +4729,7 @@
       <c r="D67" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="40" t="s">
-        <v>222</v>
-      </c>
+      <c r="E67" s="40"/>
       <c r="F67" s="39" t="s">
         <v>64</v>
       </c>
@@ -4876,7 +4744,7 @@
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
         <v>223</v>
       </c>
@@ -4889,9 +4757,7 @@
       <c r="D68" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="E68" s="55" t="s">
-        <v>224</v>
-      </c>
+      <c r="E68" s="55"/>
       <c r="F68" s="38" t="s">
         <v>225</v>
       </c>
@@ -4910,7 +4776,7 @@
       </c>
       <c r="N68" s="12"/>
     </row>
-    <row r="69" spans="1:14" ht="27" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" ht="27.75" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>227</v>
       </c>
@@ -4923,9 +4789,7 @@
       <c r="D69" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="40" t="s">
-        <v>226</v>
-      </c>
+      <c r="E69" s="40"/>
       <c r="F69" s="31" t="s">
         <v>229</v>
       </c>
@@ -4944,7 +4808,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="1:14" ht="39.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>228</v>
       </c>
@@ -4957,9 +4821,7 @@
       <c r="D70" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="55" t="s">
-        <v>233</v>
-      </c>
+      <c r="E70" s="55"/>
       <c r="F70" s="31" t="s">
         <v>236</v>
       </c>
@@ -4978,7 +4840,7 @@
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="71" spans="1:14" ht="39.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
         <v>232</v>
       </c>
@@ -4991,9 +4853,7 @@
       <c r="D71" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E71" s="55" t="s">
-        <v>234</v>
-      </c>
+      <c r="E71" s="55"/>
       <c r="F71" s="31" t="s">
         <v>235</v>
       </c>
@@ -5012,7 +4872,7 @@
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="1:14" ht="52" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" ht="53.25" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
         <v>237</v>
       </c>
@@ -5025,9 +4885,7 @@
       <c r="D72" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="55" t="s">
-        <v>230</v>
-      </c>
+      <c r="E72" s="55"/>
       <c r="F72" s="31" t="s">
         <v>231</v>
       </c>
@@ -5046,7 +4904,7 @@
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
     </row>
-    <row r="73" spans="1:14" ht="27" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" ht="27.75" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
         <v>68</v>
       </c>
@@ -5059,9 +4917,7 @@
       <c r="D73" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E73" s="55" t="s">
-        <v>284</v>
-      </c>
+      <c r="E73" s="55"/>
       <c r="F73" s="38" t="s">
         <v>238</v>
       </c>
@@ -5080,7 +4936,7 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="1:14" ht="51" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
         <v>69</v>
       </c>
@@ -5093,9 +4949,7 @@
       <c r="D74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="55" t="s">
-        <v>239</v>
-      </c>
+      <c r="E74" s="55"/>
       <c r="F74" s="38" t="s">
         <v>245</v>
       </c>
@@ -5114,7 +4968,7 @@
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="1:14" ht="51" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
         <v>241</v>
       </c>
@@ -5127,9 +4981,7 @@
       <c r="D75" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="55" t="s">
-        <v>243</v>
-      </c>
+      <c r="E75" s="55"/>
       <c r="F75" s="38" t="s">
         <v>244</v>
       </c>
@@ -5148,7 +5000,7 @@
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="1:14" ht="51" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
         <v>248</v>
       </c>
@@ -5161,9 +5013,7 @@
       <c r="D76" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E76" s="55" t="s">
-        <v>246</v>
-      </c>
+      <c r="E76" s="55"/>
       <c r="F76" s="38" t="s">
         <v>247</v>
       </c>
@@ -5182,7 +5032,7 @@
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
         <v>70</v>
       </c>
@@ -5195,9 +5045,7 @@
       <c r="D77" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="55" t="s">
-        <v>72</v>
-      </c>
+      <c r="E77" s="55"/>
       <c r="F77" s="38" t="s">
         <v>251</v>
       </c>
@@ -5216,7 +5064,7 @@
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
         <v>249</v>
       </c>
@@ -5229,9 +5077,7 @@
       <c r="D78" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E78" s="55" t="s">
-        <v>253</v>
-      </c>
+      <c r="E78" s="55"/>
       <c r="F78" s="42" t="s">
         <v>254</v>
       </c>
@@ -5246,7 +5092,7 @@
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
         <v>71</v>
       </c>
@@ -5259,9 +5105,7 @@
       <c r="D79" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E79" s="55" t="s">
-        <v>76</v>
-      </c>
+      <c r="E79" s="55"/>
       <c r="F79" s="38" t="s">
         <v>255</v>
       </c>
@@ -5280,7 +5124,7 @@
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
         <v>73</v>
       </c>
@@ -5293,9 +5137,7 @@
       <c r="D80" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E80" s="55" t="s">
-        <v>258</v>
-      </c>
+      <c r="E80" s="55"/>
       <c r="F80" s="38" t="s">
         <v>259</v>
       </c>
@@ -5314,7 +5156,7 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
         <v>260</v>
       </c>
@@ -5327,9 +5169,7 @@
       <c r="D81" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E81" s="55" t="s">
-        <v>262</v>
-      </c>
+      <c r="E81" s="55"/>
       <c r="F81" s="38" t="s">
         <v>261</v>
       </c>
@@ -5344,7 +5184,7 @@
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="82" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
         <v>74</v>
       </c>
@@ -5357,9 +5197,7 @@
       <c r="D82" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E82" s="55" t="s">
-        <v>263</v>
-      </c>
+      <c r="E82" s="55"/>
       <c r="F82" s="38" t="s">
         <v>264</v>
       </c>
@@ -5378,7 +5216,7 @@
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
     </row>
-    <row r="83" spans="1:14" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>75</v>
       </c>
@@ -5391,9 +5229,7 @@
       <c r="D83" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E83" s="55" t="s">
-        <v>265</v>
-      </c>
+      <c r="E83" s="55"/>
       <c r="F83" s="38" t="s">
         <v>266</v>
       </c>
@@ -5408,7 +5244,7 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
         <v>270</v>
       </c>
@@ -5421,9 +5257,7 @@
       <c r="D84" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E84" s="55" t="s">
-        <v>267</v>
-      </c>
+      <c r="E84" s="55"/>
       <c r="F84" s="38" t="s">
         <v>268</v>
       </c>
@@ -5440,7 +5274,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
         <v>271</v>
       </c>
@@ -5453,9 +5287,7 @@
       <c r="D85" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E85" s="55" t="s">
-        <v>272</v>
-      </c>
+      <c r="E85" s="55"/>
       <c r="F85" s="38" t="s">
         <v>273</v>
       </c>
@@ -5470,7 +5302,7 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
         <v>77</v>
       </c>
@@ -5483,9 +5315,7 @@
       <c r="D86" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E86" s="55" t="s">
-        <v>274</v>
-      </c>
+      <c r="E86" s="55"/>
       <c r="F86" s="38" t="s">
         <v>275</v>
       </c>
@@ -5500,7 +5330,7 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
         <v>276</v>
       </c>
@@ -5513,9 +5343,7 @@
       <c r="D87" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E87" s="55" t="s">
-        <v>277</v>
-      </c>
+      <c r="E87" s="55"/>
       <c r="F87" s="38" t="s">
         <v>278</v>
       </c>
@@ -5534,7 +5362,7 @@
       </c>
       <c r="N87" s="12"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
         <v>279</v>
       </c>
@@ -5547,9 +5375,7 @@
       <c r="D88" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E88" s="55" t="s">
-        <v>280</v>
-      </c>
+      <c r="E88" s="55"/>
       <c r="F88" s="38" t="s">
         <v>281</v>
       </c>
@@ -5568,7 +5394,7 @@
       </c>
       <c r="N88" s="12"/>
     </row>
-    <row r="89" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
         <v>282</v>
       </c>
@@ -5581,9 +5407,7 @@
       <c r="D89" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="E89" s="55" t="s">
-        <v>283</v>
-      </c>
+      <c r="E89" s="55"/>
       <c r="F89" s="56" t="s">
         <v>371</v>
       </c>
@@ -5602,7 +5426,7 @@
       </c>
       <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="34" t="s">
         <v>370</v>
       </c>
@@ -5615,9 +5439,7 @@
       <c r="D90" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="E90" s="55" t="s">
-        <v>375</v>
-      </c>
+      <c r="E90" s="55"/>
       <c r="F90" s="38" t="s">
         <v>372</v>
       </c>
@@ -5632,7 +5454,7 @@
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
         <v>373</v>
       </c>
@@ -5645,9 +5467,7 @@
       <c r="D91" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E91" s="55" t="s">
-        <v>374</v>
-      </c>
+      <c r="E91" s="55"/>
       <c r="F91" s="38" t="s">
         <v>376</v>
       </c>
@@ -5666,7 +5486,7 @@
       </c>
       <c r="N91" s="12"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="34" t="s">
         <v>377</v>
       </c>
@@ -5679,9 +5499,7 @@
       <c r="D92" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="E92" s="55" t="s">
-        <v>468</v>
-      </c>
+      <c r="E92" s="55"/>
       <c r="F92" s="38" t="s">
         <v>378</v>
       </c>
@@ -5698,7 +5516,7 @@
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
     </row>
-    <row r="93" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="63" t="s">
         <v>379</v>
       </c>
@@ -5711,9 +5529,7 @@
       <c r="D93" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="E93" s="40" t="s">
-        <v>366</v>
-      </c>
+      <c r="E93" s="40"/>
       <c r="F93" s="39" t="s">
         <v>367</v>
       </c>
@@ -5728,7 +5544,7 @@
       <c r="M93" s="59"/>
       <c r="N93" s="59"/>
     </row>
-    <row r="94" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A94" s="63" t="s">
         <v>380</v>
       </c>
@@ -5741,9 +5557,7 @@
       <c r="D94" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="E94" s="40" t="s">
-        <v>368</v>
-      </c>
+      <c r="E94" s="40"/>
       <c r="F94" s="39" t="s">
         <v>369</v>
       </c>
@@ -5758,7 +5572,7 @@
       <c r="M94" s="59"/>
       <c r="N94" s="59"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="73" t="s">
         <v>385</v>
       </c>
@@ -5771,9 +5585,7 @@
       <c r="D95" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="E95" s="40" t="s">
-        <v>381</v>
-      </c>
+      <c r="E95" s="40"/>
       <c r="F95" s="39" t="s">
         <v>382</v>
       </c>
@@ -5788,7 +5600,7 @@
       <c r="M95" s="68"/>
       <c r="N95" s="68"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="72" t="s">
         <v>386</v>
       </c>
@@ -5801,9 +5613,7 @@
       <c r="D96" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="E96" s="40" t="s">
-        <v>469</v>
-      </c>
+      <c r="E96" s="40"/>
       <c r="F96" s="39" t="s">
         <v>384</v>
       </c>
@@ -5822,7 +5632,7 @@
       </c>
       <c r="N96" s="68"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="63" t="s">
         <v>392</v>
       </c>
@@ -5835,9 +5645,7 @@
       <c r="D97" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="E97" s="40" t="s">
-        <v>522</v>
-      </c>
+      <c r="E97" s="40"/>
       <c r="F97" s="39" t="s">
         <v>387</v>
       </c>
@@ -5852,7 +5660,7 @@
       <c r="M97" s="76"/>
       <c r="N97" s="76"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
         <v>390</v>
       </c>
@@ -5865,9 +5673,7 @@
       <c r="D98" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="E98" s="40" t="s">
-        <v>523</v>
-      </c>
+      <c r="E98" s="40"/>
       <c r="F98" s="39" t="s">
         <v>508</v>
       </c>
@@ -5882,7 +5688,7 @@
       <c r="M98" s="76"/>
       <c r="N98" s="76"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="s">
         <v>391</v>
       </c>
@@ -5895,9 +5701,7 @@
       <c r="D99" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="E99" s="40" t="s">
-        <v>524</v>
-      </c>
+      <c r="E99" s="40"/>
       <c r="F99" s="39" t="s">
         <v>509</v>
       </c>
@@ -5912,7 +5716,7 @@
       <c r="M99" s="76"/>
       <c r="N99" s="76"/>
     </row>
-    <row r="100" spans="1:14" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="39" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
         <v>389</v>
       </c>
@@ -5925,9 +5729,7 @@
       <c r="D100" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="E100" s="40" t="s">
-        <v>525</v>
-      </c>
+      <c r="E100" s="40"/>
       <c r="F100" s="39" t="s">
         <v>388</v>
       </c>
@@ -5942,7 +5744,7 @@
       <c r="M100" s="76"/>
       <c r="N100" s="76"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="73" t="s">
         <v>395</v>
       </c>
@@ -5955,9 +5757,7 @@
       <c r="D101" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="E101" s="40" t="s">
-        <v>393</v>
-      </c>
+      <c r="E101" s="40"/>
       <c r="F101" s="39" t="s">
         <v>394</v>
       </c>
@@ -5972,7 +5772,7 @@
       <c r="M101" s="82"/>
       <c r="N101" s="82"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="73" t="s">
         <v>396</v>
       </c>
@@ -5985,9 +5785,7 @@
       <c r="D102" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="E102" s="40" t="s">
-        <v>470</v>
-      </c>
+      <c r="E102" s="40"/>
       <c r="F102" s="39" t="s">
         <v>397</v>
       </c>
@@ -6006,7 +5804,7 @@
       </c>
       <c r="N102" s="82"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="63" t="s">
         <v>403</v>
       </c>
@@ -6019,9 +5817,7 @@
       <c r="D103" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="E103" s="40" t="s">
-        <v>398</v>
-      </c>
+      <c r="E103" s="40"/>
       <c r="F103" s="39" t="s">
         <v>399</v>
       </c>
@@ -6036,7 +5832,7 @@
       <c r="M103" s="88"/>
       <c r="N103" s="12"/>
     </row>
-    <row r="104" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
         <v>404</v>
       </c>
@@ -6049,9 +5845,7 @@
       <c r="D104" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="E104" s="40" t="s">
-        <v>400</v>
-      </c>
+      <c r="E104" s="40"/>
       <c r="F104" s="39" t="s">
         <v>510</v>
       </c>
@@ -6066,7 +5860,7 @@
       <c r="M104" s="88"/>
       <c r="N104" s="12"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
         <v>405</v>
       </c>
@@ -6079,9 +5873,7 @@
       <c r="D105" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="E105" s="40" t="s">
-        <v>401</v>
-      </c>
+      <c r="E105" s="40"/>
       <c r="F105" s="39" t="s">
         <v>511</v>
       </c>
@@ -6096,7 +5888,7 @@
       <c r="M105" s="88"/>
       <c r="N105" s="12"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
         <v>406</v>
       </c>
@@ -6109,9 +5901,7 @@
       <c r="D106" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="E106" s="40" t="s">
-        <v>402</v>
-      </c>
+      <c r="E106" s="40"/>
       <c r="F106" s="39" t="s">
         <v>407</v>
       </c>
@@ -6126,7 +5916,7 @@
       <c r="M106" s="88"/>
       <c r="N106" s="12"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="73" t="s">
         <v>416</v>
       </c>
@@ -6139,9 +5929,7 @@
       <c r="D107" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="E107" s="40" t="s">
-        <v>409</v>
-      </c>
+      <c r="E107" s="40"/>
       <c r="F107" s="39" t="s">
         <v>410</v>
       </c>
@@ -6156,7 +5944,7 @@
       <c r="M107" s="95"/>
       <c r="N107" s="95"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="73" t="s">
         <v>417</v>
       </c>
@@ -6169,9 +5957,7 @@
       <c r="D108" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="E108" s="40" t="s">
-        <v>471</v>
-      </c>
+      <c r="E108" s="40"/>
       <c r="F108" s="39" t="s">
         <v>411</v>
       </c>
@@ -6190,7 +5976,7 @@
       </c>
       <c r="N108" s="95"/>
     </row>
-    <row r="109" spans="1:14" ht="51" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A109" s="73" t="s">
         <v>418</v>
       </c>
@@ -6203,9 +5989,7 @@
       <c r="D109" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="E109" s="40" t="s">
-        <v>412</v>
-      </c>
+      <c r="E109" s="40"/>
       <c r="F109" s="39" t="s">
         <v>506</v>
       </c>
@@ -6220,7 +6004,7 @@
       <c r="M109" s="95"/>
       <c r="N109" s="95"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="73" t="s">
         <v>419</v>
       </c>
@@ -6233,9 +6017,7 @@
       <c r="D110" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="E110" s="40" t="s">
-        <v>413</v>
-      </c>
+      <c r="E110" s="40"/>
       <c r="F110" s="39" t="s">
         <v>414</v>
       </c>
@@ -6250,7 +6032,7 @@
       <c r="M110" s="95"/>
       <c r="N110" s="95"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="73" t="s">
         <v>420</v>
       </c>
@@ -6263,9 +6045,7 @@
       <c r="D111" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="E111" s="40" t="s">
-        <v>472</v>
-      </c>
+      <c r="E111" s="40"/>
       <c r="F111" s="39" t="s">
         <v>415</v>
       </c>
@@ -6284,7 +6064,7 @@
       </c>
       <c r="N111" s="95"/>
     </row>
-    <row r="112" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
         <v>432</v>
       </c>
@@ -6297,9 +6077,7 @@
       <c r="D112" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="E112" s="40" t="s">
-        <v>422</v>
-      </c>
+      <c r="E112" s="40"/>
       <c r="F112" s="39" t="s">
         <v>423</v>
       </c>
@@ -6314,7 +6092,7 @@
       <c r="M112" s="103"/>
       <c r="N112" s="103"/>
     </row>
-    <row r="113" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
         <v>433</v>
       </c>
@@ -6327,9 +6105,7 @@
       <c r="D113" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="E113" s="40" t="s">
-        <v>473</v>
-      </c>
+      <c r="E113" s="40"/>
       <c r="F113" s="39" t="s">
         <v>424</v>
       </c>
@@ -6348,7 +6124,7 @@
       </c>
       <c r="N113" s="103"/>
     </row>
-    <row r="114" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
         <v>434</v>
       </c>
@@ -6361,9 +6137,7 @@
       <c r="D114" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="E114" s="40" t="s">
-        <v>425</v>
-      </c>
+      <c r="E114" s="40"/>
       <c r="F114" s="39" t="s">
         <v>426</v>
       </c>
@@ -6378,7 +6152,7 @@
       <c r="M114" s="103"/>
       <c r="N114" s="103"/>
     </row>
-    <row r="115" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
         <v>435</v>
       </c>
@@ -6391,9 +6165,7 @@
       <c r="D115" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="E115" s="40" t="s">
-        <v>474</v>
-      </c>
+      <c r="E115" s="40"/>
       <c r="F115" s="39" t="s">
         <v>424</v>
       </c>
@@ -6412,7 +6184,7 @@
       </c>
       <c r="N115" s="103"/>
     </row>
-    <row r="116" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
         <v>436</v>
       </c>
@@ -6425,9 +6197,7 @@
       <c r="D116" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="E116" s="40" t="s">
-        <v>427</v>
-      </c>
+      <c r="E116" s="40"/>
       <c r="F116" s="39" t="s">
         <v>428</v>
       </c>
@@ -6446,7 +6216,7 @@
       </c>
       <c r="N116" s="103"/>
     </row>
-    <row r="117" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
         <v>437</v>
       </c>
@@ -6459,9 +6229,7 @@
       <c r="D117" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="E117" s="40" t="s">
-        <v>429</v>
-      </c>
+      <c r="E117" s="40"/>
       <c r="F117" s="39" t="s">
         <v>430</v>
       </c>
@@ -6476,7 +6244,7 @@
       <c r="M117" s="103"/>
       <c r="N117" s="103"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
         <v>438</v>
       </c>
@@ -6489,9 +6257,7 @@
       <c r="D118" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="E118" s="40" t="s">
-        <v>475</v>
-      </c>
+      <c r="E118" s="40"/>
       <c r="F118" s="39" t="s">
         <v>431</v>
       </c>
@@ -6510,7 +6276,7 @@
       </c>
       <c r="N118" s="103"/>
     </row>
-    <row r="119" spans="1:14" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="39" x14ac:dyDescent="0.25">
       <c r="A119" s="99" t="s">
         <v>80</v>
       </c>
@@ -6523,9 +6289,7 @@
       <c r="D119" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E119" s="110" t="s">
-        <v>286</v>
-      </c>
+      <c r="E119" s="110"/>
       <c r="F119" s="111" t="s">
         <v>287</v>
       </c>
@@ -6544,7 +6308,7 @@
       <c r="M119" s="52"/>
       <c r="N119" s="12"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="99" t="s">
         <v>81</v>
       </c>
@@ -6557,9 +6321,7 @@
       <c r="D120" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="E120" s="110" t="s">
-        <v>289</v>
-      </c>
+      <c r="E120" s="110"/>
       <c r="F120" s="111" t="s">
         <v>290</v>
       </c>
@@ -6576,7 +6338,7 @@
       <c r="M120" s="52"/>
       <c r="N120" s="12"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="99" t="s">
         <v>350</v>
       </c>
@@ -6589,9 +6351,7 @@
       <c r="D121" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E121" s="110" t="s">
-        <v>292</v>
-      </c>
+      <c r="E121" s="110"/>
       <c r="F121" s="111" t="s">
         <v>293</v>
       </c>
@@ -6608,7 +6368,7 @@
       <c r="M121" s="52"/>
       <c r="N121" s="12"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="99" t="s">
         <v>351</v>
       </c>
@@ -6621,9 +6381,7 @@
       <c r="D122" s="110" t="s">
         <v>295</v>
       </c>
-      <c r="E122" s="110" t="s">
-        <v>295</v>
-      </c>
+      <c r="E122" s="110"/>
       <c r="F122" s="111" t="s">
         <v>296</v>
       </c>
@@ -6640,7 +6398,7 @@
       <c r="M122" s="52"/>
       <c r="N122" s="12"/>
     </row>
-    <row r="123" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="99" t="s">
         <v>82</v>
       </c>
@@ -6653,9 +6411,7 @@
       <c r="D123" s="110" t="s">
         <v>298</v>
       </c>
-      <c r="E123" s="110" t="s">
-        <v>298</v>
-      </c>
+      <c r="E123" s="110"/>
       <c r="F123" s="111" t="s">
         <v>299</v>
       </c>
@@ -6674,7 +6430,7 @@
       <c r="M123" s="52"/>
       <c r="N123" s="12"/>
     </row>
-    <row r="124" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="99" t="s">
         <v>83</v>
       </c>
@@ -6687,9 +6443,7 @@
       <c r="D124" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="110" t="s">
-        <v>300</v>
-      </c>
+      <c r="E124" s="110"/>
       <c r="F124" s="111" t="s">
         <v>301</v>
       </c>
@@ -6708,7 +6462,7 @@
       <c r="M124" s="52"/>
       <c r="N124" s="12"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="99" t="s">
         <v>352</v>
       </c>
@@ -6721,9 +6475,7 @@
       <c r="D125" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="E125" s="110" t="s">
-        <v>302</v>
-      </c>
+      <c r="E125" s="110"/>
       <c r="F125" s="111" t="s">
         <v>303</v>
       </c>
@@ -6738,7 +6490,7 @@
       <c r="M125" s="52"/>
       <c r="N125" s="12"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="99" t="s">
         <v>353</v>
       </c>
@@ -6751,9 +6503,7 @@
       <c r="D126" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="E126" s="110" t="s">
-        <v>304</v>
-      </c>
+      <c r="E126" s="110"/>
       <c r="F126" s="111" t="s">
         <v>305</v>
       </c>
@@ -6768,7 +6518,7 @@
       <c r="M126" s="52"/>
       <c r="N126" s="12"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="99" t="s">
         <v>354</v>
       </c>
@@ -6781,9 +6531,7 @@
       <c r="D127" s="110" t="s">
         <v>306</v>
       </c>
-      <c r="E127" s="110" t="s">
-        <v>306</v>
-      </c>
+      <c r="E127" s="110"/>
       <c r="F127" s="111" t="s">
         <v>307</v>
       </c>
@@ -6798,7 +6546,7 @@
       <c r="M127" s="52"/>
       <c r="N127" s="12"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A128" s="99" t="s">
         <v>356</v>
       </c>
@@ -6811,9 +6559,7 @@
       <c r="D128" s="110" t="s">
         <v>308</v>
       </c>
-      <c r="E128" s="110" t="s">
-        <v>308</v>
-      </c>
+      <c r="E128" s="110"/>
       <c r="F128" s="111" t="s">
         <v>503</v>
       </c>
@@ -6830,7 +6576,7 @@
       <c r="M128" s="52"/>
       <c r="N128" s="12"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="99" t="s">
         <v>355</v>
       </c>
@@ -6843,9 +6589,7 @@
       <c r="D129" s="110" t="s">
         <v>309</v>
       </c>
-      <c r="E129" s="110" t="s">
-        <v>309</v>
-      </c>
+      <c r="E129" s="110"/>
       <c r="F129" s="111" t="s">
         <v>504</v>
       </c>
@@ -6860,7 +6604,7 @@
       <c r="M129" s="52"/>
       <c r="N129" s="12"/>
     </row>
-    <row r="130" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="99" t="s">
         <v>357</v>
       </c>
@@ -6873,9 +6617,7 @@
       <c r="D130" s="110" t="s">
         <v>311</v>
       </c>
-      <c r="E130" s="110" t="s">
-        <v>311</v>
-      </c>
+      <c r="E130" s="110"/>
       <c r="F130" s="111" t="s">
         <v>312</v>
       </c>
@@ -6892,7 +6634,7 @@
       <c r="M130" s="52"/>
       <c r="N130" s="103"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="99" t="s">
         <v>496</v>
       </c>
@@ -6905,9 +6647,7 @@
       <c r="D131" s="110" t="s">
         <v>498</v>
       </c>
-      <c r="E131" s="110" t="s">
-        <v>498</v>
-      </c>
+      <c r="E131" s="110"/>
       <c r="F131" s="111" t="s">
         <v>497</v>
       </c>
@@ -6924,7 +6664,7 @@
       <c r="M131" s="52"/>
       <c r="N131" s="12"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="99" t="s">
         <v>358</v>
       </c>
@@ -6937,9 +6677,7 @@
       <c r="D132" s="110" t="s">
         <v>502</v>
       </c>
-      <c r="E132" s="110" t="s">
-        <v>502</v>
-      </c>
+      <c r="E132" s="110"/>
       <c r="F132" s="111" t="s">
         <v>313</v>
       </c>
@@ -6954,7 +6692,7 @@
       <c r="M132" s="52"/>
       <c r="N132" s="12"/>
     </row>
-    <row r="133" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="99" t="s">
         <v>359</v>
       </c>
@@ -6967,9 +6705,7 @@
       <c r="D133" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="E133" s="110" t="s">
-        <v>315</v>
-      </c>
+      <c r="E133" s="110"/>
       <c r="F133" s="111" t="s">
         <v>316</v>
       </c>
@@ -6984,7 +6720,7 @@
       <c r="M133" s="52"/>
       <c r="N133" s="12"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="99" t="s">
         <v>360</v>
       </c>
@@ -6997,9 +6733,7 @@
       <c r="D134" s="110" t="s">
         <v>317</v>
       </c>
-      <c r="E134" s="110" t="s">
-        <v>317</v>
-      </c>
+      <c r="E134" s="110"/>
       <c r="F134" s="111" t="s">
         <v>501</v>
       </c>
@@ -7016,7 +6750,7 @@
       <c r="M134" s="52"/>
       <c r="N134" s="12"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="99" t="s">
         <v>361</v>
       </c>
@@ -7029,9 +6763,7 @@
       <c r="D135" s="110" t="s">
         <v>319</v>
       </c>
-      <c r="E135" s="110" t="s">
-        <v>319</v>
-      </c>
+      <c r="E135" s="110"/>
       <c r="F135" s="111" t="s">
         <v>320</v>
       </c>
@@ -7046,7 +6778,7 @@
       <c r="M135" s="52"/>
       <c r="N135" s="12"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="99" t="s">
         <v>362</v>
       </c>
@@ -7059,9 +6791,7 @@
       <c r="D136" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="E136" s="110" t="s">
-        <v>476</v>
-      </c>
+      <c r="E136" s="110"/>
       <c r="F136" s="111" t="s">
         <v>321</v>
       </c>
@@ -7080,7 +6810,7 @@
       </c>
       <c r="N136" s="12"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="99" t="s">
         <v>363</v>
       </c>
@@ -7093,9 +6823,7 @@
       <c r="D137" s="110" t="s">
         <v>322</v>
       </c>
-      <c r="E137" s="110" t="s">
-        <v>322</v>
-      </c>
+      <c r="E137" s="110"/>
       <c r="F137" s="111" t="s">
         <v>493</v>
       </c>
@@ -7110,7 +6838,7 @@
       <c r="M137" s="52"/>
       <c r="N137" s="12"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
         <v>440</v>
       </c>
@@ -7123,9 +6851,7 @@
       <c r="D138" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="E138" s="110" t="s">
-        <v>325</v>
-      </c>
+      <c r="E138" s="110"/>
       <c r="F138" s="111" t="s">
         <v>326</v>
       </c>
@@ -7144,7 +6870,7 @@
       <c r="M138" s="52"/>
       <c r="N138" s="12"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="99" t="s">
         <v>441</v>
       </c>
@@ -7157,9 +6883,7 @@
       <c r="D139" s="110" t="s">
         <v>328</v>
       </c>
-      <c r="E139" s="110" t="s">
-        <v>328</v>
-      </c>
+      <c r="E139" s="110"/>
       <c r="F139" s="111" t="s">
         <v>329</v>
       </c>
@@ -7176,7 +6900,7 @@
       <c r="M139" s="52"/>
       <c r="N139" s="12"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="99" t="s">
         <v>442</v>
       </c>
@@ -7189,9 +6913,7 @@
       <c r="D140" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="E140" s="110" t="s">
-        <v>331</v>
-      </c>
+      <c r="E140" s="110"/>
       <c r="F140" s="111" t="s">
         <v>332</v>
       </c>
@@ -7208,7 +6930,7 @@
       <c r="M140" s="52"/>
       <c r="N140" s="12"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
         <v>443</v>
       </c>
@@ -7221,9 +6943,7 @@
       <c r="D141" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="E141" s="110" t="s">
-        <v>334</v>
-      </c>
+      <c r="E141" s="110"/>
       <c r="F141" s="111" t="s">
         <v>335</v>
       </c>
@@ -7240,7 +6960,7 @@
       <c r="M141" s="52"/>
       <c r="N141" s="12"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="99" t="s">
         <v>439</v>
       </c>
@@ -7253,9 +6973,7 @@
       <c r="D142" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="E142" s="110" t="s">
-        <v>337</v>
-      </c>
+      <c r="E142" s="110"/>
       <c r="F142" s="111" t="s">
         <v>338</v>
       </c>
@@ -7270,7 +6988,7 @@
       <c r="M142" s="52"/>
       <c r="N142" s="12"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="99" t="s">
         <v>444</v>
       </c>
@@ -7283,9 +7001,7 @@
       <c r="D143" s="110" t="s">
         <v>477</v>
       </c>
-      <c r="E143" s="110" t="s">
-        <v>477</v>
-      </c>
+      <c r="E143" s="110"/>
       <c r="F143" s="111" t="s">
         <v>339</v>
       </c>
@@ -7306,7 +7022,7 @@
       </c>
       <c r="N143" s="12"/>
     </row>
-    <row r="144" spans="1:14" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A144" s="99" t="s">
         <v>445</v>
       </c>
@@ -7319,9 +7035,7 @@
       <c r="D144" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="E144" s="110" t="s">
-        <v>457</v>
-      </c>
+      <c r="E144" s="110"/>
       <c r="F144" s="111" t="s">
         <v>456</v>
       </c>
@@ -7338,7 +7052,7 @@
       <c r="M144" s="52"/>
       <c r="N144" s="103"/>
     </row>
-    <row r="145" spans="1:14" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A145" s="99" t="s">
         <v>454</v>
       </c>
@@ -7351,9 +7065,7 @@
       <c r="D145" s="110" t="s">
         <v>458</v>
       </c>
-      <c r="E145" s="110" t="s">
-        <v>458</v>
-      </c>
+      <c r="E145" s="110"/>
       <c r="F145" s="111" t="s">
         <v>460</v>
       </c>
@@ -7370,7 +7082,7 @@
       <c r="M145" s="52"/>
       <c r="N145" s="103"/>
     </row>
-    <row r="146" spans="1:14" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" s="92" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
         <v>455</v>
       </c>
@@ -7383,9 +7095,7 @@
       <c r="D146" s="110" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="110" t="s">
-        <v>459</v>
-      </c>
+      <c r="E146" s="110"/>
       <c r="F146" s="111" t="s">
         <v>461</v>
       </c>
@@ -7402,7 +7112,7 @@
       <c r="M146" s="52"/>
       <c r="N146" s="103"/>
     </row>
-    <row r="147" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A147" s="99" t="s">
         <v>451</v>
       </c>
@@ -7415,9 +7125,7 @@
       <c r="D147" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="E147" s="110" t="s">
-        <v>342</v>
-      </c>
+      <c r="E147" s="110"/>
       <c r="F147" s="111" t="s">
         <v>343</v>
       </c>
@@ -7432,7 +7140,7 @@
       <c r="M147" s="52"/>
       <c r="N147" s="12"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="99" t="s">
         <v>446</v>
       </c>
@@ -7445,9 +7153,7 @@
       <c r="D148" s="110" t="s">
         <v>478</v>
       </c>
-      <c r="E148" s="110" t="s">
-        <v>478</v>
-      </c>
+      <c r="E148" s="110"/>
       <c r="F148" s="111" t="s">
         <v>344</v>
       </c>
@@ -7468,7 +7174,7 @@
       </c>
       <c r="N148" s="12"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="99" t="s">
         <v>452</v>
       </c>
@@ -7481,9 +7187,7 @@
       <c r="D149" s="110" t="s">
         <v>347</v>
       </c>
-      <c r="E149" s="110" t="s">
-        <v>347</v>
-      </c>
+      <c r="E149" s="110"/>
       <c r="F149" s="111" t="s">
         <v>348</v>
       </c>
@@ -7498,7 +7202,7 @@
       <c r="M149" s="52"/>
       <c r="N149" s="12"/>
     </row>
-    <row r="150" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A150" s="109" t="s">
         <v>453</v>
       </c>
@@ -7511,9 +7215,7 @@
       <c r="D150" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="E150" s="110" t="s">
-        <v>349</v>
-      </c>
+      <c r="E150" s="110"/>
       <c r="F150" s="111" t="s">
         <v>494</v>
       </c>
@@ -7528,7 +7230,7 @@
       <c r="M150" s="52"/>
       <c r="N150" s="12"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="107"/>
     </row>
   </sheetData>
